--- a/resultados_completos3.xlsx
+++ b/resultados_completos3.xlsx
@@ -520,47 +520,47 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.6079967426709</v>
+        <v>-213.0254</v>
       </c>
       <c r="D2" t="n">
-        <v>155.8705048859934</v>
+        <v>525.7489999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>307</v>
+        <v>50</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[410.935, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 390.28499999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 410.935]</t>
+          <t>[-291.165, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -264.32, -262.255, -260.19, -256.06, -251.93, -247.79999999999998, -243.67, -241.605, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -189.98, -185.85, -183.785, -181.72, -177.59, -173.46, -169.32999999999998, -167.265, -165.2, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -134.225]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[307.68499999999995, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 303.55499999999984, 301.49, 301.49, 301.49, 299.42499999999995, 297.3599999999999, 297.3599999999999, 295.29499999999985, 293.23, 293.23, 291.16499999999996, 289.0999999999999, 289.0999999999999, 287.03499999999985, 284.97, 282.905, 280.8399999999999, 280.8399999999999, 278.77499999999986, 276.71000000000004, 274.645, 272.5799999999999, 270.5149999999999, 268.4499999999998, 266.385, 264.31999999999994, 262.2549999999999, 260.1899999999998, 258.125, 256.05999999999995, 253.9949999999999, 251.92999999999984, 249.865, 247.79999999999995, 245.7349999999999, 241.60500000000002, 239.53999999999996, 237.4749999999999, 233.34500000000003, 231.27999999999997, 229.21499999999992, 225.08500000000004, 223.01999999999998, 220.95499999999993, 216.82499999999982, 214.76, 212.69499999999994, 208.56499999999983, 204.43499999999995, 202.3699999999999, 200.30499999999984, 196.17499999999995, 192.04499999999985, 187.91499999999996, 185.8499999999999, 183.78499999999985, 179.65499999999997, 175.52499999999986, 171.39499999999998, 167.26499999999987, 163.135, 159.00499999999988, 154.875, 150.7449999999999, 146.615, 142.4849999999999, 138.35500000000002, 134.2249999999999, 132.15999999999985, 130.09500000000003, 125.96499999999992, 121.83500000000004, 117.70499999999993, 115.63999999999987, 113.57500000000005, 109.44499999999994, 105.31499999999983, 103.25, 101.18499999999995, 97.05499999999984, 94.99000000000001, 92.92499999999995, 88.79499999999985, 86.73000000000002, 84.66499999999996, 80.53499999999985, 78.47000000000003, 76.40499999999997, 72.27499999999986, 70.21000000000004, 68.14499999999998, 66.07999999999993, 64.01499999999987, 61.950000000000045, 59.88499999999999, 55.75499999999988, 53.68999999999983, 51.625, 49.559999999999945, 47.49499999999989, 45.429999999999836, 45.429999999999836, 43.36500000000001, 41.299999999999955, 39.2349999999999, 37.169999999999845, 35.10500000000002, 33.039999999999964, 30.97499999999991, 28.909999999999854, 28.909999999999854, 26.845000000000027, 24.779999999999973, 22.714999999999918, 20.649999999999864, 20.649999999999864, 18.585000000000036, 16.519999999999982, 16.519999999999982, 16.519999999999982, 14.454999999999927, 12.389999999999873, 12.389999999999873, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.129999999999882, 4.129999999999882, 4.129999999999882, 4.129999999999882, 4.129999999999882, 4.129999999999882, 2.064999999999827, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.064999999999827, 4.129999999999882, 4.129999999999882, 4.129999999999882, 4.129999999999882, 4.129999999999882, 4.129999999999882, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.389999999999873, 12.389999999999873, 12.389999999999873, 14.454999999999927, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.649999999999864, 20.649999999999864, 22.714999999999918, 24.779999999999973, 26.845000000000027, 28.909999999999854, 28.909999999999854, 30.97499999999991, 33.039999999999964, 35.10500000000002, 37.169999999999845, 37.169999999999845, 39.2349999999999, 41.299999999999955, 43.36500000000001, 45.429999999999836, 47.49499999999989, 49.559999999999945, 51.625, 53.68999999999983, 55.75499999999988, 57.819999999999936, 59.88499999999999, 64.01499999999987, 66.07999999999993, 68.14499999999998, 70.21000000000004, 72.27499999999986, 76.40499999999997, 78.47000000000003, 80.53499999999985, 82.59999999999991, 84.66499999999996, 88.79499999999985, 90.8599999999999, 92.92499999999995, 97.05499999999984, 101.18499999999995, 103.25, 105.31499999999983, 109.44499999999994, 113.57500000000005, 115.63999999999987, 117.70499999999993, 121.83500000000004, 125.96499999999992, 130.09500000000003, 132.15999999999985, 134.2249999999999, 138.35500000000002, 142.4849999999999, 146.615, 150.7449999999999, 154.875, 159.00499999999988, 163.135, 167.26499999999987, 171.39499999999998, 173.46000000000004, 175.52499999999986, 179.65499999999997, 183.78499999999985, 187.91499999999996, 192.04499999999985, 194.1099999999999, 196.17499999999995, 200.30499999999984, 204.43499999999995, 206.5, 208.56499999999983, 212.69499999999994, 214.76, 216.82499999999982, 220.95499999999993, 223.01999999999998, 225.08500000000004, 229.21499999999992, 231.27999999999997, 233.34500000000003, 235.40999999999985, 237.4749999999999, 241.60500000000002, 243.66999999999985, 245.7349999999999, 247.79999999999995, 249.865, 251.92999999999984, 253.9949999999999, 256.05999999999995, 258.125, 260.1899999999998, 262.2549999999999, 264.31999999999994, 266.385, 268.4499999999998, 270.5149999999999, 272.5799999999999, 274.645, 276.71000000000004, 276.71000000000004, 278.77499999999986, 280.8399999999999, 282.905, 284.97, 284.97, 287.03499999999985, 289.0999999999999, 289.0999999999999, 291.16499999999996, 293.23, 293.23, 295.29499999999985, 297.3599999999999, 297.3599999999999, 299.42499999999995, 301.49, 301.49, 301.49, 303.55499999999984, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 307.68499999999995, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 307.68499999999995]</t>
+          <t>[541.03, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.194192969041875e-09</v>
+        <v>7.358710931204167e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>2.125965369041876e-09</v>
+        <v>6.481622000000001e-10</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9689053784408982</v>
+        <v>0.8808094326025333</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9645976578147459</v>
+        <v>0.2776504603496347</v>
       </c>
       <c r="L2" t="n">
-        <v>1.330895138146974e-18</v>
+        <v>4.502263037014681e-20</v>
       </c>
       <c r="M2" t="n">
-        <v>4.209809725690971e-27</v>
+        <v>1.052874014954455e-28</v>
       </c>
       <c r="N2" t="n">
-        <v>2.619534970094569e-27</v>
+        <v>5.506837157912486e-26</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.01298576931596019</v>
+        <v>-0.3764867794698782</v>
       </c>
     </row>
     <row r="3">
@@ -573,47 +573,47 @@
         <v>4.869023273931249e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>378.5676384364821</v>
+        <v>-214.7102409638554</v>
       </c>
       <c r="D3" t="n">
-        <v>155.2382247557003</v>
+        <v>507.4177710843373</v>
       </c>
       <c r="E3" t="n">
-        <v>307</v>
+        <v>83</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[402.675, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 402.675, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 402.675]</t>
+          <t>[-332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -260.19, -256.06, -251.93, -249.86499999999998, -247.79999999999998, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -189.98, -185.85, -181.72, -179.655, -177.59, -173.46, -169.32999999999998, -165.2, -163.135, -161.07, -156.94, -154.875, -152.81, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -97.05499999999999]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[307.68499999999995, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 303.55500000000006, 301.49, 301.49, 301.49, 301.49, 299.42499999999995, 297.3599999999999, 297.3599999999999, 295.2950000000001, 293.23, 293.23, 291.16499999999996, 289.0999999999999, 289.0999999999999, 287.0350000000001, 284.97, 284.97, 282.905, 280.8399999999999, 278.7750000000001, 276.71000000000004, 274.645, 272.5799999999999, 272.5799999999999, 270.5150000000001, 268.45000000000005, 266.385, 264.31999999999994, 262.2550000000001, 260.19000000000005, 258.125, 256.05999999999995, 253.99500000000012, 249.865, 247.79999999999995, 245.7349999999999, 243.67000000000007, 241.60500000000002, 239.53999999999996, 237.4749999999999, 233.34500000000003, 231.27999999999997, 229.21499999999992, 225.08500000000004, 223.01999999999998, 220.95499999999993, 216.82500000000005, 212.69499999999994, 210.6300000000001, 208.56500000000005, 204.43499999999995, 202.37000000000012, 200.30500000000006, 196.17499999999995, 192.04500000000007, 187.91499999999996, 183.78500000000008, 181.72000000000003, 179.65499999999997, 175.5250000000001, 171.39499999999998, 167.2650000000001, 163.135, 159.0050000000001, 154.875, 150.74500000000012, 146.615, 142.48500000000013, 138.35500000000002, 134.2249999999999, 132.16000000000008, 130.09500000000003, 125.96499999999992, 121.83500000000004, 117.70499999999993, 115.6400000000001, 113.57500000000005, 109.44499999999994, 105.31500000000005, 103.25, 101.18499999999995, 97.05500000000006, 92.92499999999995, 90.86000000000013, 88.79500000000007, 86.73000000000002, 84.66499999999996, 80.53500000000008, 78.47000000000003, 76.40499999999997, 72.27500000000009, 70.21000000000004, 68.14499999999998, 66.07999999999993, 64.0150000000001, 61.950000000000045, 59.88499999999999, 55.75500000000011, 53.690000000000055, 51.625, 49.559999999999945, 47.49500000000012, 45.430000000000064, 43.36500000000001, 41.299999999999955, 39.23500000000013, 37.17000000000007, 37.17000000000007, 35.10500000000002, 33.039999999999964, 30.97499999999991, 28.910000000000082, 28.910000000000082, 26.845000000000027, 24.779999999999973, 22.714999999999918, 20.65000000000009, 20.65000000000009, 18.585000000000036, 16.519999999999982, 16.519999999999982, 14.454999999999927, 12.3900000000001, 12.3900000000001, 12.3900000000001, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.130000000000109, 4.130000000000109, 4.130000000000109, 4.130000000000109, 2.0650000000000546, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0650000000000546, 4.130000000000109, 4.130000000000109, 4.130000000000109, 4.130000000000109, 4.130000000000109, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.3900000000001, 12.3900000000001, 14.454999999999927, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.65000000000009, 20.65000000000009, 22.714999999999918, 24.779999999999973, 24.779999999999973, 26.845000000000027, 28.910000000000082, 30.97499999999991, 33.039999999999964, 33.039999999999964, 35.10500000000002, 37.17000000000007, 39.23500000000013, 41.299999999999955, 43.36500000000001, 45.430000000000064, 47.49500000000012, 49.559999999999945, 51.625, 53.690000000000055, 55.75500000000011, 57.819999999999936, 59.88499999999999, 61.950000000000045, 64.0150000000001, 68.14499999999998, 70.21000000000004, 72.27500000000009, 74.33999999999992, 76.40499999999997, 80.53500000000008, 82.59999999999991, 84.66499999999996, 88.79500000000007, 90.86000000000013, 92.92499999999995, 97.05500000000006, 99.12000000000012, 101.18499999999995, 105.31500000000005, 109.44499999999994, 111.50999999999999, 113.57500000000005, 117.70499999999993, 121.83500000000004, 125.96499999999992, 130.09500000000003, 132.16000000000008, 134.2249999999999, 138.35500000000002, 142.48500000000013, 146.615, 150.74500000000012, 154.875, 159.0050000000001, 163.135, 167.2650000000001, 171.39499999999998, 173.46000000000004, 175.5250000000001, 179.65499999999997, 183.78500000000008, 187.91499999999996, 189.98000000000002, 192.04500000000007, 196.17499999999995, 200.30500000000006, 202.37000000000012, 204.43499999999995, 208.56500000000005, 212.69499999999994, 214.76, 216.82500000000005, 220.95499999999993, 223.01999999999998, 225.08500000000004, 227.1500000000001, 229.21499999999992, 233.34500000000003, 235.41000000000008, 237.4749999999999, 239.53999999999996, 241.60500000000002, 245.7349999999999, 247.79999999999995, 249.865, 251.93000000000006, 253.99500000000012, 256.05999999999995, 258.125, 260.19000000000005, 262.2550000000001, 264.31999999999994, 266.385, 268.45000000000005, 268.45000000000005, 270.5150000000001, 272.5799999999999, 274.645, 276.71000000000004, 278.7750000000001, 280.8399999999999, 280.8399999999999, 282.905, 284.97, 287.0350000000001, 289.0999999999999, 289.0999999999999, 289.0999999999999, 291.16499999999996, 293.23, 293.23, 295.2950000000001, 297.3599999999999, 297.3599999999999, 299.42499999999995, 301.49, 301.49, 301.49, 301.49, 303.55500000000006, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 307.68499999999995, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 307.68499999999995]</t>
+          <t>[541.03, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 493.53499999999997, 493.53499999999997, 493.53499999999997, 491.46999999999997, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 489.405, 491.46999999999997, 493.53499999999997, 493.53499999999997, 493.53499999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 541.03]</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2.177136069041874e-09</v>
+        <v>1.151799784176958e-09</v>
       </c>
       <c r="I3" t="n">
-        <v>2.143022269041875e-09</v>
+        <v>9.893001999999999e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9843308829038818</v>
+        <v>0.8589168131394681</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9645976578147459</v>
+        <v>0.4164756905244519</v>
       </c>
       <c r="L3" t="n">
-        <v>1.327694821933199e-18</v>
+        <v>1.510694721789907e-19</v>
       </c>
       <c r="M3" t="n">
-        <v>4.175176865917083e-27</v>
+        <v>1.817046674661103e-28</v>
       </c>
       <c r="N3" t="n">
-        <v>9.38733581339416e-27</v>
+        <v>1.025653873113708e-25</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.02468428518246357</v>
+        <v>-0.3911147435229347</v>
       </c>
     </row>
     <row r="4">
@@ -626,47 +626,47 @@
         <v>9.738046547862498e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>378.5449672131147</v>
+        <v>-214.8736697247707</v>
       </c>
       <c r="D4" t="n">
-        <v>153.466737704918</v>
+        <v>487.6620642201834</v>
       </c>
       <c r="E4" t="n">
-        <v>305</v>
+        <v>109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195]</t>
+          <t>[-353.115, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -272.58, -270.515, -268.45, -264.32, -260.19, -256.06, -253.995, -251.93, -247.79999999999998, -243.67, -239.54, -235.41, -233.345, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -196.17499999999998, -194.10999999999999, -189.98, -185.85, -181.72, -177.59, -175.525, -173.46, -169.32999999999998, -165.2, -161.07, -159.005, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[303.55499999999995, 301.4899999999999, 301.4899999999999, 301.4899999999999, 299.42500000000007, 297.36, 297.36, 297.36, 295.29499999999996, 293.2299999999999, 293.2299999999999, 293.2299999999999, 291.1650000000001, 289.1, 287.03499999999997, 284.9699999999999, 284.9699999999999, 282.9050000000001, 280.84000000000003, 280.84000000000003, 278.775, 276.7099999999999, 274.64499999999987, 272.58000000000004, 270.515, 268.44999999999993, 266.3849999999999, 264.32000000000005, 262.255, 260.18999999999994, 258.1249999999999, 256.06000000000006, 253.995, 251.92999999999995, 249.8649999999999, 247.80000000000007, 245.735, 241.6049999999999, 239.54000000000008, 237.47500000000002, 235.40999999999997, 233.3449999999999, 229.21500000000003, 227.14999999999998, 225.08499999999992, 220.95500000000004, 218.89, 216.82499999999993, 212.69500000000005, 210.63, 208.56499999999994, 204.43500000000006, 200.30499999999995, 198.2399999999999, 196.17500000000007, 192.04499999999996, 187.91500000000008, 183.78499999999997, 179.6550000000001, 177.59000000000003, 175.52499999999998, 171.3950000000001, 167.265, 163.13499999999988, 159.005, 154.8749999999999, 150.745, 146.6149999999999, 142.485, 138.3549999999999, 136.29000000000008, 134.22500000000002, 130.0949999999999, 125.96500000000003, 121.83499999999992, 117.70500000000004, 115.63999999999999, 113.57499999999993, 109.44500000000005, 105.31499999999994, 103.24999999999989, 101.18500000000006, 97.05499999999995, 92.92500000000007, 90.86000000000001, 88.79499999999996, 84.66500000000008, 82.60000000000002, 80.53499999999997, 78.46999999999991, 76.40500000000009, 72.27499999999998, 70.20999999999992, 68.1450000000001, 66.08000000000004, 64.01499999999999, 59.88499999999988, 57.82000000000005, 55.754999999999995, 53.68999999999994, 51.624999999999886, 49.56000000000006, 47.495000000000005, 45.42999999999995, 43.364999999999895, 41.30000000000007, 39.235000000000014, 37.16999999999996, 37.16999999999996, 35.104999999999905, 33.04000000000008, 30.975000000000023, 28.909999999999968, 26.845000000000027, 24.779999999999973, 24.779999999999973, 22.715000000000032, 20.649999999999977, 18.585000000000036, 16.519999999999982, 16.519999999999982, 16.519999999999982, 14.455000000000041, 12.389999999999986, 12.389999999999986, 10.324999999999932, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.064999999999941, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.064999999999941, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999932, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.649999999999977, 20.649999999999977, 22.715000000000032, 24.779999999999973, 26.845000000000027, 28.909999999999968, 28.909999999999968, 30.975000000000023, 33.04000000000008, 35.104999999999905, 37.16999999999996, 39.235000000000014, 41.30000000000007, 43.364999999999895, 45.42999999999995, 47.495000000000005, 49.56000000000006, 51.624999999999886, 53.68999999999994, 55.754999999999995, 57.82000000000005, 59.88499999999988, 61.94999999999993, 64.01499999999999, 68.1450000000001, 70.20999999999992, 72.27499999999998, 74.34000000000003, 76.40500000000009, 80.53499999999997, 82.60000000000002, 84.66500000000008, 88.79499999999996, 90.86000000000001, 92.92500000000007, 97.05499999999995, 99.12, 101.18500000000006, 105.31499999999994, 109.44500000000005, 111.50999999999988, 113.57499999999993, 117.70500000000004, 121.83499999999992, 125.96500000000003, 130.0949999999999, 132.15999999999997, 134.22500000000002, 138.3549999999999, 142.485, 146.6149999999999, 150.745, 154.8749999999999, 159.005, 163.13499999999988, 167.265, 169.33000000000004, 171.3950000000001, 175.52499999999998, 179.6550000000001, 183.78499999999997, 187.91500000000008, 189.9799999999999, 192.04499999999996, 196.17500000000007, 200.30499999999995, 202.37, 204.43500000000006, 208.56499999999994, 210.63, 212.69500000000005, 216.82499999999993, 218.89, 220.95500000000004, 225.08499999999992, 227.14999999999998, 229.21500000000003, 231.2800000000001, 233.3449999999999, 237.47500000000002, 239.54000000000008, 241.6049999999999, 243.66999999999996, 245.735, 247.80000000000007, 249.8649999999999, 251.92999999999995, 253.995, 256.06000000000006, 258.1249999999999, 260.18999999999994, 262.255, 264.32000000000005, 266.3849999999999, 268.44999999999993, 270.515, 272.58000000000004, 274.64499999999987, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.9050000000001, 284.9699999999999, 284.9699999999999, 287.03499999999997, 289.1, 289.1, 291.1650000000001, 293.2299999999999, 293.2299999999999, 293.2299999999999, 295.29499999999996, 297.36, 297.36, 297.36, 299.42500000000007, 301.4899999999999, 301.4899999999999, 301.4899999999999, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.55499999999995]</t>
+          <t>[541.03, 536.9, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 489.405, 487.34, 485.275, 483.21, 481.145, 481.145, 479.08, 477.015, 477.015, 474.95, 472.885, 472.885, 470.82, 468.755, 468.755, 466.69, 464.625, 464.625, 464.625, 464.625, 462.56, 460.495, 460.495, 460.495, 460.495, 460.495, 458.43, 456.365, 456.365, 456.365, 456.365, 456.365, 456.365, 456.365, 456.365, 456.365, 458.43, 460.495, 460.495, 460.495, 460.495, 460.495, 462.56, 464.625, 464.625, 464.625, 464.625, 466.69, 468.755, 468.755, 470.82, 472.885, 472.885, 474.95, 477.015, 477.015, 479.08, 481.145, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 532.77, 534.835, 536.9, 541.03]</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2.160079169041874e-09</v>
+        <v>1.475378775921458e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>2.125965369041873e-09</v>
+        <v>1.1598692e-09</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9842071529187829</v>
+        <v>0.7861501188232806</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9766758532050772</v>
+        <v>0.4895416011427769</v>
       </c>
       <c r="L4" t="n">
-        <v>1.319548562480167e-18</v>
+        <v>2.875193180180783e-19</v>
       </c>
       <c r="M4" t="n">
-        <v>4.070379254842152e-27</v>
+        <v>2.523765315721325e-28</v>
       </c>
       <c r="N4" t="n">
-        <v>6.331937483148064e-28</v>
+        <v>1.455933856437507e-25</v>
       </c>
       <c r="O4" t="n">
-        <v>0.006492884657981035</v>
+        <v>-0.3953968051112149</v>
       </c>
     </row>
     <row r="5">
@@ -679,47 +679,47 @@
         <v>0.0001460706982179375</v>
       </c>
       <c r="C5" t="n">
-        <v>378.3792996742671</v>
+        <v>-216.1578461538461</v>
       </c>
       <c r="D5" t="n">
-        <v>155.8705048859935</v>
+        <v>468.9138461538461</v>
       </c>
       <c r="E5" t="n">
-        <v>307</v>
+        <v>130</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[406.805, 408.87, 413.0, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 386.155, 384.09, 379.96, 375.83, 371.7, 369.635, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 406.805]</t>
+          <t>[-369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -264.32, -262.255, -260.19, -256.06, -251.93, -247.79999999999998, -245.73499999999999, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -189.98, -187.915, -185.85, -181.72, -177.59, -173.46, -171.39499999999998, -169.32999999999998, -165.2, -161.07, -159.005, -156.94, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -125.965, -123.89999999999999, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[307.68499999999983, 305.62, 305.62, 305.62, 305.62, 305.62, 303.55499999999995, 301.4899999999999, 301.4899999999999, 301.4899999999999, 299.42499999999984, 297.36, 297.36, 297.36, 295.29499999999996, 293.2299999999999, 293.2299999999999, 291.16499999999985, 289.1, 287.03499999999997, 284.9699999999999, 284.9699999999999, 282.90499999999986, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 274.64499999999987, 272.58000000000004, 270.515, 268.44999999999993, 266.3849999999999, 264.32000000000005, 262.255, 260.18999999999994, 258.1249999999999, 256.06000000000006, 253.995, 249.8649999999999, 247.79999999999984, 245.735, 243.66999999999996, 241.6049999999999, 239.53999999999985, 237.47500000000002, 233.3449999999999, 231.27999999999986, 229.21500000000003, 225.08499999999992, 223.01999999999987, 220.95500000000004, 216.82499999999993, 212.69500000000005, 210.63, 208.56499999999994, 204.43500000000006, 200.30499999999995, 198.2399999999999, 196.17499999999984, 192.04499999999996, 187.91499999999985, 183.78499999999997, 179.65499999999986, 177.59000000000003, 175.52499999999998, 171.39499999999987, 167.265, 163.13499999999988, 159.005, 154.8749999999999, 150.745, 146.6149999999999, 142.485, 140.41999999999996, 138.3549999999999, 134.22500000000002, 130.0949999999999, 125.96500000000003, 121.83499999999992, 119.76999999999987, 117.70500000000004, 113.57499999999993, 109.44500000000005, 107.38, 105.31499999999994, 101.18500000000006, 97.05499999999995, 94.9899999999999, 92.92499999999984, 88.79499999999996, 86.7299999999999, 84.66499999999985, 82.60000000000002, 80.53499999999997, 76.40499999999986, 74.34000000000003, 72.27499999999998, 70.20999999999992, 68.14499999999987, 64.01499999999999, 61.94999999999993, 59.88499999999999, 57.819999999999936, 55.754999999999995, 53.68999999999994, 51.625, 49.559999999999945, 47.495000000000005, 45.42999999999995, 43.364999999999895, 41.299999999999955, 39.2349999999999, 37.16999999999996, 35.104999999999905, 33.039999999999964, 33.039999999999964, 30.97499999999991, 28.909999999999968, 26.844999999999914, 24.779999999999973, 24.779999999999973, 22.714999999999918, 20.649999999999977, 20.649999999999977, 18.584999999999923, 16.519999999999982, 16.519999999999982, 14.454999999999927, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999932, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.064999999999941, 0.0, 0.0, 0.0, 0.0, 2.064999999999941, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999932, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999927, 16.519999999999982, 16.519999999999982, 18.584999999999923, 20.649999999999977, 20.649999999999977, 22.714999999999918, 24.779999999999973, 26.844999999999914, 28.909999999999968, 28.909999999999968, 30.97499999999991, 33.039999999999964, 35.104999999999905, 37.16999999999996, 39.2349999999999, 41.299999999999955, 41.299999999999955, 43.364999999999895, 45.42999999999995, 47.495000000000005, 49.559999999999945, 51.625, 53.68999999999994, 55.754999999999995, 57.819999999999936, 59.88499999999999, 64.01499999999999, 66.08000000000004, 68.14499999999987, 70.20999999999992, 72.27499999999998, 76.40499999999986, 78.46999999999991, 80.53499999999997, 82.60000000000002, 84.66499999999985, 88.79499999999996, 90.86000000000001, 92.92499999999984, 97.05499999999995, 101.18500000000006, 103.24999999999989, 105.31499999999994, 109.44500000000005, 113.57499999999993, 115.63999999999999, 117.70500000000004, 121.83499999999992, 125.96500000000003, 130.0949999999999, 132.15999999999997, 134.22500000000002, 138.3549999999999, 142.485, 146.6149999999999, 150.745, 154.8749999999999, 159.005, 163.13499999999988, 167.265, 171.39499999999987, 173.45999999999992, 175.52499999999998, 179.65499999999986, 183.78499999999997, 187.91499999999985, 189.9799999999999, 192.04499999999996, 196.17499999999984, 200.30499999999995, 202.37, 204.43500000000006, 208.56499999999994, 212.69500000000005, 214.75999999999988, 216.82499999999993, 220.95500000000004, 223.01999999999987, 225.08499999999992, 229.21500000000003, 231.27999999999986, 233.3449999999999, 235.40999999999997, 237.47500000000002, 239.53999999999985, 241.6049999999999, 245.735, 247.79999999999984, 249.8649999999999, 251.92999999999995, 253.995, 256.06000000000006, 258.1249999999999, 260.18999999999994, 262.255, 264.32000000000005, 266.3849999999999, 268.44999999999993, 270.515, 272.58000000000004, 272.58000000000004, 274.64499999999987, 276.7099999999999, 278.775, 280.84000000000003, 282.90499999999986, 284.9699999999999, 284.9699999999999, 287.03499999999997, 289.1, 289.1, 291.16499999999985, 293.2299999999999, 293.2299999999999, 295.29499999999996, 297.36, 297.36, 297.36, 299.42499999999984, 301.4899999999999, 301.4899999999999, 301.4899999999999, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 307.68499999999983, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 307.68499999999983]</t>
+          <t>[541.03, 538.965, 536.9, 532.77, 528.64, 526.5749999999999, 524.51, 520.38, 516.25, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 472.885, 470.82, 468.755, 466.69, 464.625, 462.56, 460.495, 458.43, 456.365, 456.365, 454.3, 452.235, 450.17, 448.10499999999996, 448.10499999999996, 446.03999999999996, 443.97499999999997, 443.97499999999997, 441.90999999999997, 439.84499999999997, 439.84499999999997, 437.78, 435.715, 435.715, 435.715, 433.65, 431.585, 431.585, 431.585, 431.585, 429.52, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 427.455, 429.52, 431.585, 431.585, 431.585, 431.585, 433.65, 435.715, 435.715, 435.715, 437.78, 439.84499999999997, 439.84499999999997, 439.84499999999997, 441.90999999999997, 443.97499999999997, 443.97499999999997, 446.03999999999996, 448.10499999999996, 448.10499999999996, 450.17, 452.235, 454.3, 456.365, 456.365, 458.43, 460.495, 462.56, 464.625, 466.69, 468.755, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 532.77, 536.9, 541.03]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.150087468353916e-09</v>
+        <v>1.739509671793707e-09</v>
       </c>
       <c r="I5" t="n">
-        <v>2.160079169041874e-09</v>
+        <v>1.3133813e-09</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9953743821841536</v>
+        <v>0.7550296047769013</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9645976578147463</v>
+        <v>0.5406877385756043</v>
       </c>
       <c r="L5" t="n">
-        <v>1.320421375992981e-18</v>
+        <v>4.404071516821787e-19</v>
       </c>
       <c r="M5" t="n">
-        <v>4.160633208457134e-27</v>
+        <v>2.60665292534614e-28</v>
       </c>
       <c r="N5" t="n">
-        <v>3.232737263728077e-28</v>
+        <v>1.467726392520165e-25</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004588727901639666</v>
+        <v>-0.3906319524770625</v>
       </c>
     </row>
     <row r="6">
@@ -732,47 +732,47 @@
         <v>0.00019476093095725</v>
       </c>
       <c r="C6" t="n">
-        <v>378.2606065573771</v>
+        <v>-215.35</v>
       </c>
       <c r="D6" t="n">
-        <v>153.9135901639344</v>
+        <v>449.6221428571429</v>
       </c>
       <c r="E6" t="n">
-        <v>305</v>
+        <v>147</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[419.195, 421.26, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 400.61, 398.545, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195]</t>
+          <t>[-373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -272.58, -268.45, -266.385, -264.32, -260.19, -256.06, -251.93, -249.86499999999998, -247.79999999999998, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -189.98, -185.85, -181.72, -179.655, -177.59, -173.46, -169.32999999999998, -167.265, -165.2, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[303.55499999999995, 301.4900000000001, 301.4900000000001, 301.4900000000001, 301.4900000000001, 299.42500000000007, 297.36, 297.36, 295.29499999999996, 293.23000000000013, 293.23000000000013, 293.23000000000013, 291.1650000000001, 289.1, 289.1, 287.03499999999997, 284.97000000000014, 282.9050000000001, 280.84000000000003, 280.84000000000003, 278.775, 276.7099999999999, 274.6450000000001, 272.58000000000004, 270.515, 268.44999999999993, 266.3850000000001, 264.32000000000005, 262.255, 260.18999999999994, 258.1250000000001, 256.06000000000006, 253.995, 251.92999999999995, 249.86500000000012, 247.80000000000007, 245.735, 241.60500000000013, 239.54000000000008, 237.47500000000002, 235.40999999999997, 233.34500000000014, 229.21500000000003, 227.14999999999998, 225.08499999999992, 220.95500000000004, 218.89, 216.82499999999993, 212.69500000000005, 208.56499999999994, 206.5000000000001, 204.43500000000006, 200.30499999999995, 196.17500000000007, 194.11, 192.04499999999996, 187.91500000000008, 183.78499999999997, 179.6550000000001, 175.52499999999998, 171.3950000000001, 169.33000000000004, 167.265, 163.1350000000001, 159.005, 154.8750000000001, 150.745, 148.67999999999995, 146.61500000000012, 142.485, 138.35500000000013, 134.22500000000002, 130.09500000000014, 125.96500000000003, 121.83499999999992, 119.7700000000001, 117.70500000000004, 113.57499999999993, 109.44500000000005, 107.38, 105.31499999999994, 101.18500000000006, 97.05499999999995, 94.99000000000012, 92.92500000000007, 88.79500000000007, 86.73000000000002, 84.66500000000008, 80.53500000000008, 78.47000000000003, 76.40500000000009, 74.34000000000003, 72.27499999999998, 68.14499999999998, 66.08000000000004, 64.01499999999999, 61.950000000000045, 59.88499999999999, 57.82000000000005, 55.754999999999995, 53.690000000000055, 51.625, 49.56000000000006, 47.495000000000005, 45.430000000000064, 43.36500000000001, 41.30000000000007, 39.235000000000014, 37.17000000000007, 35.10500000000002, 33.04000000000008, 33.04000000000008, 30.975000000000023, 28.910000000000082, 26.845000000000027, 24.780000000000086, 24.780000000000086, 22.715000000000032, 20.65000000000009, 18.585000000000036, 16.519999999999982, 16.519999999999982, 16.519999999999982, 14.455000000000041, 12.389999999999986, 12.389999999999986, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.19500000000005, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0650000000000546, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0650000000000546, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.19500000000005, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.65000000000009, 20.65000000000009, 22.715000000000032, 24.780000000000086, 24.780000000000086, 26.845000000000027, 28.910000000000082, 30.975000000000023, 33.04000000000008, 33.04000000000008, 35.10500000000002, 37.17000000000007, 39.235000000000014, 41.30000000000007, 43.36500000000001, 45.430000000000064, 47.495000000000005, 49.56000000000006, 51.625, 53.690000000000055, 55.754999999999995, 57.82000000000005, 59.88499999999999, 61.950000000000045, 64.01499999999999, 68.14499999999998, 70.21000000000004, 72.27499999999998, 74.34000000000003, 76.40500000000009, 80.53500000000008, 82.60000000000002, 84.66500000000008, 88.79500000000007, 90.86000000000001, 92.92500000000007, 97.05499999999995, 99.12, 101.18500000000006, 105.31499999999994, 109.44500000000005, 111.5100000000001, 113.57499999999993, 117.70500000000004, 121.83499999999992, 125.96500000000003, 130.09500000000014, 132.15999999999997, 134.22500000000002, 138.35500000000013, 142.485, 146.61500000000012, 150.745, 154.8750000000001, 159.005, 163.1350000000001, 167.265, 169.33000000000004, 171.3950000000001, 175.52499999999998, 179.6550000000001, 183.78499999999997, 187.91500000000008, 189.98000000000013, 192.04499999999996, 196.17500000000007, 200.30499999999995, 202.37, 204.43500000000006, 208.56499999999994, 210.63, 212.69500000000005, 216.82499999999993, 218.89, 220.95500000000004, 225.08499999999992, 227.14999999999998, 229.21500000000003, 233.34500000000014, 235.40999999999997, 237.47500000000002, 239.54000000000008, 241.60500000000013, 243.66999999999996, 245.735, 247.80000000000007, 249.86500000000012, 251.92999999999995, 253.995, 258.1250000000001, 260.18999999999994, 260.18999999999994, 262.255, 264.32000000000005, 266.3850000000001, 268.44999999999993, 270.515, 272.58000000000004, 274.6450000000001, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.9050000000001, 284.97000000000014, 284.97000000000014, 287.03499999999997, 289.1, 289.1, 291.1650000000001, 293.23000000000013, 293.23000000000013, 295.29499999999996, 297.36, 297.36, 297.36, 299.42500000000007, 301.4900000000001, 301.4900000000001, 301.4900000000001, 301.4900000000001, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.55499999999995]</t>
+          <t>[541.03, 536.9, 532.77, 528.64, 526.5749999999999, 524.51, 520.38, 516.25, 512.12, 507.99, 505.925, 503.86, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 448.10499999999996, 446.03999999999996, 443.97499999999997, 441.90999999999997, 439.84499999999997, 437.78, 435.715, 433.65, 431.585, 431.585, 429.52, 427.455, 425.39, 423.325, 421.26, 419.195, 419.195, 417.13, 415.065, 415.065, 413.0, 410.935, 410.935, 408.87, 406.805, 406.805, 406.805, 404.74, 402.675, 402.675, 402.675, 402.675, 400.61, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 398.545, 400.61, 402.675, 402.675, 402.675, 404.74, 406.805, 406.805, 406.805, 408.87, 410.935, 410.935, 413.0, 415.065, 415.065, 417.13, 419.195, 419.195, 421.26, 423.325, 423.325, 425.39, 427.455, 429.52, 431.585, 433.65, 435.715, 437.78, 439.84499999999997, 441.90999999999997, 443.97499999999997, 446.03999999999996, 448.10499999999996, 450.17, 452.235, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 512.12, 514.185, 516.25, 520.38, 524.51, 528.64, 532.77, 534.835, 536.9, 541.03]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2.115973668353917e-09</v>
+        <v>2.033615669729832e-09</v>
       </c>
       <c r="I6" t="n">
-        <v>2.170070869729832e-09</v>
+        <v>1.3304382e-09</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9750712282577895</v>
+        <v>0.6542230273907901</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9766758532050772</v>
+        <v>0.5626075117611018</v>
       </c>
       <c r="L6" t="n">
-        <v>1.311111365189482e-18</v>
+        <v>6.002774934488299e-19</v>
       </c>
       <c r="M6" t="n">
-        <v>4.068599379839235e-27</v>
+        <v>2.939260029297249e-28</v>
       </c>
       <c r="N6" t="n">
-        <v>1.130351104659613e-26</v>
+        <v>1.758038523925601e-25</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.02743917403070362</v>
+        <v>-0.4026076347902112</v>
       </c>
     </row>
     <row r="7">
@@ -785,47 +785,47 @@
         <v>0.0002434511636965625</v>
       </c>
       <c r="C7" t="n">
-        <v>377.0362871287128</v>
+        <v>-215.3106666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>153.1984653465346</v>
+        <v>429.7077272727271</v>
       </c>
       <c r="E7" t="n">
-        <v>303</v>
+        <v>165</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[410.935, 413.0, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 410.935]</t>
+          <t>[-369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -272.58, -270.515, -268.45, -264.32, -260.19, -258.125, -256.06, -251.93, -247.79999999999998, -243.67, -239.54, -237.475, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -196.17499999999998, -194.10999999999999, -189.98, -185.85, -181.72, -177.59, -175.525, -173.46, -169.32999999999998, -165.2, -161.07, -159.005, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[303.55500000000006, 301.49, 301.49, 301.49, 301.49, 299.42499999999995, 297.3599999999999, 297.3599999999999, 297.3599999999999, 295.2950000000001, 293.23, 293.23, 293.23, 291.16499999999996, 289.0999999999999, 289.0999999999999, 287.0350000000001, 284.97, 282.905, 280.8399999999999, 280.8399999999999, 278.7750000000001, 276.71000000000004, 274.645, 272.5799999999999, 272.5799999999999, 270.5150000000001, 268.45000000000005, 266.385, 264.31999999999994, 262.2550000000001, 260.19000000000005, 258.125, 256.05999999999995, 253.9949999999999, 251.93000000000006, 249.865, 245.7349999999999, 243.67000000000007, 241.60500000000002, 239.53999999999996, 237.4749999999999, 233.34500000000003, 231.27999999999997, 229.21499999999992, 225.08500000000004, 223.01999999999998, 220.95499999999993, 216.82500000000005, 214.76, 212.69499999999994, 208.56500000000005, 206.5, 204.43499999999995, 200.30500000000006, 196.17499999999995, 192.04500000000007, 189.98000000000002, 187.91499999999996, 183.78500000000008, 179.65499999999997, 175.5250000000001, 171.39499999999998, 167.2650000000001, 163.135, 159.0050000000001, 154.875, 150.7449999999999, 146.615, 142.4849999999999, 138.35500000000002, 134.2249999999999, 130.09500000000003, 125.96499999999992, 121.83500000000004, 119.76999999999998, 117.70500000000004, 113.57500000000005, 109.44500000000005, 107.38, 105.31500000000005, 101.18499999999995, 97.05499999999995, 94.99000000000001, 92.92499999999995, 88.79499999999996, 86.73000000000002, 84.66499999999996, 80.53499999999997, 78.47000000000003, 76.40499999999997, 74.34000000000003, 72.27499999999998, 68.14499999999998, 66.08000000000004, 64.01499999999999, 61.950000000000045, 59.88499999999999, 57.82000000000005, 55.754999999999995, 51.625, 49.56000000000006, 47.495000000000005, 45.42999999999995, 43.36500000000001, 41.299999999999955, 41.299999999999955, 39.235000000000014, 37.16999999999996, 35.10500000000002, 33.039999999999964, 30.975000000000023, 28.909999999999968, 26.845000000000027, 24.779999999999973, 24.779999999999973, 22.715000000000032, 20.649999999999977, 20.649999999999977, 18.585000000000036, 16.519999999999982, 16.519999999999982, 14.455000000000041, 12.389999999999986, 12.389999999999986, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.19500000000005, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0650000000000546, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0650000000000546, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.19500000000005, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.649999999999977, 20.649999999999977, 22.715000000000032, 24.779999999999973, 24.779999999999973, 26.845000000000027, 28.909999999999968, 30.975000000000023, 33.039999999999964, 35.10500000000002, 37.16999999999996, 39.235000000000014, 41.299999999999955, 41.299999999999955, 43.36500000000001, 45.42999999999995, 47.495000000000005, 51.625, 53.690000000000055, 55.754999999999995, 57.82000000000005, 59.88499999999999, 61.950000000000045, 64.01499999999999, 66.08000000000004, 68.14499999999998, 72.27499999999998, 74.34000000000003, 76.40499999999997, 80.53499999999997, 82.60000000000002, 84.66499999999996, 88.79499999999996, 90.86000000000001, 92.92499999999995, 97.05499999999995, 99.12, 101.18499999999995, 105.31500000000005, 109.44500000000005, 111.50999999999999, 113.57500000000005, 117.70500000000004, 121.83500000000004, 125.96499999999992, 130.09500000000003, 132.16000000000008, 134.2249999999999, 138.35500000000002, 142.4849999999999, 146.615, 150.7449999999999, 154.875, 159.0050000000001, 163.135, 167.2650000000001, 169.32999999999993, 171.39499999999998, 175.5250000000001, 179.65499999999997, 183.78500000000008, 185.8499999999999, 187.91499999999996, 192.04500000000007, 196.17499999999995, 200.30500000000006, 202.3699999999999, 204.43499999999995, 208.56500000000005, 210.6300000000001, 212.69499999999994, 216.82500000000005, 218.8900000000001, 220.95499999999993, 225.08500000000004, 227.1500000000001, 229.21499999999992, 231.27999999999997, 233.34500000000003, 237.4749999999999, 239.53999999999996, 241.60500000000002, 243.67000000000007, 245.7349999999999, 247.79999999999995, 249.865, 251.93000000000006, 253.9949999999999, 256.05999999999995, 258.125, 260.19000000000005, 262.2550000000001, 264.31999999999994, 266.385, 268.45000000000005, 270.5150000000001, 272.5799999999999, 272.5799999999999, 274.645, 276.71000000000004, 278.7750000000001, 280.8399999999999, 280.8399999999999, 282.905, 284.97, 284.97, 287.0350000000001, 289.0999999999999, 289.0999999999999, 291.16499999999996, 293.23, 293.23, 295.2950000000001, 297.3599999999999, 297.3599999999999, 297.3599999999999, 299.42499999999995, 301.49, 301.49, 301.49, 301.49, 301.49, 303.55500000000006, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 303.55500000000006]</t>
+          <t>[541.03, 538.965, 536.9, 532.77, 528.64, 524.51, 520.38, 516.25, 512.12, 507.99, 503.86, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 483.21, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 427.455, 425.39, 423.325, 421.26, 419.195, 417.13, 415.065, 413.0, 410.935, 408.87, 406.805, 404.74, 402.675, 400.61, 398.545, 396.48, 394.41499999999996, 394.41499999999996, 392.34999999999997, 390.28499999999997, 388.21999999999997, 386.155, 386.155, 384.09, 382.025, 382.025, 379.96, 377.895, 377.895, 377.895, 375.83, 373.765, 373.765, 373.765, 371.7, 369.635, 369.635, 369.635, 369.635, 369.635, 367.57, 365.505, 365.505, 365.505, 365.505, 365.505, 365.505, 365.505, 365.505, 365.505, 365.505, 367.57, 369.635, 369.635, 369.635, 369.635, 369.635, 371.7, 373.765, 373.765, 373.765, 373.765, 375.83, 377.895, 377.895, 379.96, 382.025, 382.025, 384.09, 386.155, 386.155, 388.21999999999997, 390.28499999999997, 390.28499999999997, 392.34999999999997, 394.41499999999996, 396.48, 398.545, 400.61, 402.675, 402.675, 404.74, 406.805, 408.87, 410.935, 413.0, 415.065, 417.13, 419.195, 421.26, 425.39, 427.455, 429.52, 431.585, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 495.59999999999997, 499.72999999999996, 503.86, 505.925, 507.99, 512.12, 516.25, 520.38, 524.51, 528.64, 532.77, 536.9, 538.965, 541.03]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.214176370417791e-09</v>
+        <v>2.160079169041874e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>2.067729469729833e-09</v>
+        <v>1.446909998624083e-09</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9338594239173796</v>
+        <v>0.6698411888606266</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9641543679075765</v>
+        <v>0.5626075117611018</v>
       </c>
       <c r="L7" t="n">
-        <v>1.309074800326224e-18</v>
+        <v>7.678576879121915e-19</v>
       </c>
       <c r="M7" t="n">
-        <v>4.118622312083575e-27</v>
+        <v>3.294970863517347e-28</v>
       </c>
       <c r="N7" t="n">
-        <v>2.764894311099669e-27</v>
+        <v>1.808058997382838e-25</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01348807898360649</v>
+        <v>-0.3856269046153846</v>
       </c>
     </row>
     <row r="8">
@@ -838,47 +838,47 @@
         <v>0.000292141396435875</v>
       </c>
       <c r="C8" t="n">
-        <v>376.9335901639344</v>
+        <v>-216.3030769230769</v>
       </c>
       <c r="D8" t="n">
-        <v>155.2270655737705</v>
+        <v>412.0696153846154</v>
       </c>
       <c r="E8" t="n">
-        <v>305</v>
+        <v>182</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[394.41499999999996, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 394.41499999999996, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 394.41499999999996]</t>
+          <t>[-361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -260.19, -256.06, -251.93, -249.86499999999998, -247.79999999999998, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -189.98, -185.85, -183.785, -181.72, -177.59, -173.46, -169.32999999999998, -167.265, -165.2, -161.07, -159.005, -156.94, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[307.68499999999995, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 303.55500000000006, 301.49, 301.49, 301.49, 299.42499999999995, 297.3599999999999, 297.3599999999999, 297.3599999999999, 295.2950000000001, 293.23, 293.23, 291.16499999999996, 289.0999999999999, 289.0999999999999, 287.03499999999985, 284.97, 282.905, 280.8399999999999, 280.8399999999999, 278.77499999999986, 276.71000000000004, 274.645, 272.5799999999999, 270.5149999999999, 268.45000000000005, 266.385, 264.31999999999994, 262.2549999999999, 260.19000000000005, 258.125, 256.05999999999995, 253.9949999999999, 251.93000000000006, 249.865, 247.79999999999995, 245.7349999999999, 241.60500000000002, 239.53999999999996, 237.4749999999999, 235.40999999999985, 233.34500000000003, 229.21499999999992, 227.14999999999986, 225.08500000000004, 220.95499999999993, 218.88999999999987, 216.82500000000005, 212.69499999999994, 208.56500000000005, 206.5, 204.43499999999995, 200.30500000000006, 196.17499999999995, 192.04500000000007, 189.98000000000002, 187.91499999999996, 183.78499999999985, 179.65499999999997, 175.52499999999986, 171.39499999999998, 167.26499999999987, 163.135, 159.00499999999988, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.2249999999999, 130.0949999999999, 125.96499999999992, 123.89999999999998, 121.83499999999992, 117.70499999999993, 113.57499999999993, 111.50999999999999, 109.44499999999994, 105.31499999999994, 101.18499999999995, 99.12, 97.05499999999995, 92.92499999999995, 90.86000000000001, 88.79499999999996, 84.66499999999996, 82.60000000000002, 80.53499999999997, 76.40499999999997, 74.33999999999992, 72.27499999999998, 70.20999999999992, 68.14499999999998, 66.07999999999993, 64.01499999999999, 59.88499999999999, 57.819999999999936, 55.754999999999995, 53.68999999999994, 51.625, 49.559999999999945, 47.495000000000005, 45.42999999999995, 43.36500000000001, 41.299999999999955, 39.235000000000014, 37.16999999999996, 37.16999999999996, 35.10500000000002, 33.039999999999964, 30.975000000000023, 28.909999999999968, 26.844999999999914, 24.779999999999973, 24.779999999999973, 22.714999999999918, 20.649999999999977, 20.649999999999977, 18.584999999999923, 16.519999999999982, 16.519999999999982, 14.454999999999927, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999932, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.064999999999941, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.064999999999941, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999932, 12.389999999999986, 12.389999999999986, 14.454999999999927, 16.519999999999982, 16.519999999999982, 18.584999999999923, 20.649999999999977, 20.649999999999977, 22.714999999999918, 24.779999999999973, 24.779999999999973, 26.844999999999914, 28.909999999999968, 30.975000000000023, 33.039999999999964, 33.039999999999964, 35.10500000000002, 37.16999999999996, 39.235000000000014, 41.299999999999955, 43.36500000000001, 45.42999999999995, 47.495000000000005, 49.559999999999945, 51.625, 53.68999999999994, 55.754999999999995, 57.819999999999936, 59.88499999999999, 61.94999999999993, 64.01499999999999, 68.14499999999998, 70.20999999999992, 72.27499999999998, 74.33999999999992, 76.40499999999997, 80.53499999999997, 82.60000000000002, 84.66499999999996, 88.79499999999996, 90.86000000000001, 92.92499999999995, 97.05499999999995, 99.12, 101.18499999999995, 105.31499999999994, 109.44499999999994, 111.50999999999999, 113.57499999999993, 117.70499999999993, 121.83499999999992, 125.96499999999992, 130.0949999999999, 132.15999999999997, 134.2249999999999, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.00499999999988, 163.135, 167.26499999999987, 169.32999999999993, 171.39499999999998, 175.52499999999986, 179.65499999999997, 183.78499999999985, 187.91499999999996, 189.98000000000002, 192.04500000000007, 196.17499999999995, 200.30500000000006, 202.3699999999999, 204.43499999999995, 208.56500000000005, 210.62999999999988, 212.69499999999994, 216.82500000000005, 218.88999999999987, 220.95499999999993, 225.08500000000004, 227.14999999999986, 229.21499999999992, 233.34500000000003, 235.40999999999985, 237.4749999999999, 239.53999999999996, 241.60500000000002, 243.67000000000007, 245.7349999999999, 247.79999999999995, 249.865, 253.9949999999999, 256.05999999999995, 258.125, 260.19000000000005, 262.2549999999999, 264.31999999999994, 264.31999999999994, 266.385, 268.45000000000005, 270.5149999999999, 272.5799999999999, 274.645, 276.71000000000004, 276.71000000000004, 278.77499999999986, 280.8399999999999, 282.905, 284.97, 284.97, 287.03499999999985, 289.0999999999999, 289.0999999999999, 291.16499999999996, 293.23, 293.23, 295.2950000000001, 297.3599999999999, 297.3599999999999, 297.3599999999999, 299.42499999999995, 301.49, 301.49, 301.49, 303.55500000000006, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 305.6199999999999, 307.68499999999995, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 307.68499999999995]</t>
+          <t>[541.03, 536.9, 534.835, 532.77, 528.64, 524.51, 522.4449999999999, 520.38, 516.25, 512.12, 510.055, 507.99, 503.86, 499.72999999999996, 495.59999999999997, 491.46999999999997, 487.34, 483.21, 479.08, 474.95, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 423.325, 421.26, 417.13, 415.065, 413.0, 408.87, 406.805, 404.74, 402.675, 400.61, 396.48, 394.41499999999996, 392.34999999999997, 390.28499999999997, 388.21999999999997, 386.155, 384.09, 382.025, 379.96, 377.895, 375.83, 373.765, 371.7, 369.635, 369.635, 367.57, 365.505, 363.44, 361.375, 361.375, 359.31, 357.245, 355.18, 353.115, 353.115, 351.05, 348.985, 348.985, 348.985, 346.92, 344.855, 344.855, 342.78999999999996, 340.72499999999997, 340.72499999999997, 340.72499999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 336.59499999999997, 338.65999999999997, 340.72499999999997, 340.72499999999997, 340.72499999999997, 340.72499999999997, 342.78999999999996, 344.855, 344.855, 346.92, 348.985, 348.985, 348.985, 351.05, 353.115, 353.115, 355.18, 357.245, 359.31, 361.375, 361.375, 363.44, 365.505, 367.57, 369.635, 369.635, 371.7, 373.765, 375.83, 377.895, 379.96, 382.025, 384.09, 386.155, 388.21999999999997, 390.28499999999997, 392.34999999999997, 394.41499999999996, 396.48, 400.61, 402.675, 404.74, 406.805, 408.87, 413.0, 415.065, 417.13, 421.26, 423.325, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 466.69, 470.82, 474.95, 479.08, 481.145, 483.21, 487.34, 491.46999999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 512.12, 516.25, 520.38, 524.51, 526.5749999999999, 528.64, 532.77, 536.9, 541.03]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2.194192969041873e-09</v>
+        <v>2.187127769729833e-09</v>
       </c>
       <c r="I8" t="n">
-        <v>2.091851569041875e-09</v>
+        <v>1.638674596560208e-09</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9533580676613472</v>
+        <v>0.7492358787811594</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9522310211760954</v>
+        <v>0.5626075117611018</v>
       </c>
       <c r="L8" t="n">
-        <v>1.308492924650965e-18</v>
+        <v>9.251095891404e-19</v>
       </c>
       <c r="M8" t="n">
-        <v>4.158717569266041e-27</v>
+        <v>3.339584664685313e-28</v>
       </c>
       <c r="N8" t="n">
-        <v>5.892682186825091e-29</v>
+        <v>1.384980266070534e-25</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00195958277227759</v>
+        <v>-0.3352450550044104</v>
       </c>
     </row>
     <row r="9">
@@ -891,47 +891,47 @@
         <v>0.0003408316291751875</v>
       </c>
       <c r="C9" t="n">
-        <v>376.8727227722772</v>
+        <v>-216.2034951456311</v>
       </c>
       <c r="D9" t="n">
-        <v>153.3892904290429</v>
+        <v>397.0614077669903</v>
       </c>
       <c r="E9" t="n">
-        <v>303</v>
+        <v>206</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[410.935, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 404.74, 402.675, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 410.935]</t>
+          <t>[-344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -272.58, -270.515, -268.45, -264.32, -260.19, -258.125, -256.06, -251.93, -247.79999999999998, -243.67, -239.54, -235.41, -233.345, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -200.305, -198.24, -194.10999999999999, -189.98, -185.85, -181.72, -179.655, -177.59, -173.46, -169.32999999999998, -165.2, -163.135, -161.07, -156.94, -154.875, -152.81, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -125.965, -123.89999999999999, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -80.535]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[303.55500000000006, 301.49, 301.49, 301.49, 301.49, 301.49, 299.42499999999995, 297.3600000000001, 297.3600000000001, 295.2950000000001, 293.23, 293.23, 293.23, 291.16499999999996, 289.10000000000014, 289.10000000000014, 287.0350000000001, 284.97, 282.905, 280.84000000000015, 280.84000000000015, 278.7750000000001, 276.71000000000004, 274.645, 272.58000000000015, 272.58000000000015, 270.5150000000001, 268.45000000000005, 266.385, 264.31999999999994, 262.2550000000001, 260.19000000000005, 258.125, 256.05999999999995, 253.99500000000012, 249.865, 247.79999999999995, 245.73500000000013, 243.67000000000007, 241.60500000000002, 239.53999999999996, 237.47500000000014, 233.34500000000003, 231.27999999999997, 229.21500000000015, 225.08500000000004, 223.01999999999998, 220.95500000000015, 216.82500000000005, 214.76, 212.69499999999994, 208.56500000000005, 204.43499999999995, 202.37000000000012, 200.30500000000006, 196.17499999999995, 192.04500000000007, 187.91499999999996, 185.85000000000014, 183.78500000000008, 179.6550000000001, 175.5250000000001, 171.3950000000001, 167.2650000000001, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.0300000000001, 125.96500000000003, 121.83500000000004, 117.70500000000004, 113.57500000000005, 109.44500000000005, 107.38, 105.31500000000005, 101.18500000000006, 99.12, 97.05500000000006, 92.92500000000007, 90.86000000000001, 88.79500000000007, 84.66500000000008, 82.60000000000002, 80.53500000000008, 76.40500000000009, 74.34000000000003, 72.27500000000009, 70.21000000000004, 68.1450000000001, 64.0150000000001, 61.950000000000045, 59.885000000000105, 57.82000000000005, 55.754999999999995, 53.690000000000055, 51.625, 49.56000000000006, 47.495000000000005, 45.430000000000064, 43.36500000000001, 41.30000000000007, 39.235000000000014, 37.17000000000007, 35.10500000000002, 33.04000000000008, 30.975000000000023, 28.910000000000082, 28.910000000000082, 26.845000000000027, 24.780000000000086, 22.715000000000032, 20.65000000000009, 20.65000000000009, 18.585000000000036, 16.520000000000095, 16.520000000000095, 14.455000000000041, 12.3900000000001, 12.3900000000001, 12.3900000000001, 10.325000000000045, 8.260000000000105, 8.260000000000105, 6.19500000000005, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0650000000000546, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0650000000000546, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.19500000000005, 8.260000000000105, 8.260000000000105, 8.260000000000105, 10.325000000000045, 12.3900000000001, 12.3900000000001, 14.455000000000041, 16.520000000000095, 16.520000000000095, 18.585000000000036, 20.65000000000009, 20.65000000000009, 22.715000000000032, 24.780000000000086, 26.845000000000027, 28.910000000000082, 28.910000000000082, 30.975000000000023, 33.04000000000008, 35.10500000000002, 37.17000000000007, 39.235000000000014, 41.30000000000007, 43.36500000000001, 45.430000000000064, 45.430000000000064, 47.495000000000005, 51.625, 53.690000000000055, 55.754999999999995, 57.82000000000005, 59.885000000000105, 61.950000000000045, 64.0150000000001, 66.08000000000004, 68.1450000000001, 72.27500000000009, 74.34000000000003, 76.40500000000009, 80.53500000000008, 82.60000000000002, 84.66500000000008, 88.79500000000007, 90.86000000000001, 92.92500000000007, 97.05500000000006, 99.12, 101.18500000000006, 105.31500000000005, 109.44500000000005, 111.5100000000001, 113.57500000000005, 117.70500000000004, 121.83500000000004, 125.96500000000003, 130.09500000000003, 132.16000000000008, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.2650000000001, 169.33000000000004, 171.3950000000001, 175.5250000000001, 179.6550000000001, 183.78500000000008, 185.85000000000014, 187.91499999999996, 192.04500000000007, 196.17499999999995, 200.30500000000006, 202.37000000000012, 204.43499999999995, 208.56500000000005, 210.6300000000001, 212.69499999999994, 216.82500000000005, 218.8900000000001, 220.95500000000015, 225.08500000000004, 227.1500000000001, 229.21500000000015, 231.27999999999997, 233.34500000000003, 237.47500000000014, 239.53999999999996, 241.60500000000002, 243.67000000000007, 245.73500000000013, 247.79999999999995, 249.865, 251.93000000000006, 253.99500000000012, 256.05999999999995, 258.125, 260.19000000000005, 262.2550000000001, 264.31999999999994, 266.385, 268.45000000000005, 270.5150000000001, 272.58000000000015, 272.58000000000015, 274.645, 276.71000000000004, 278.7750000000001, 280.84000000000015, 280.84000000000015, 282.905, 284.97, 284.97, 287.0350000000001, 289.10000000000014, 289.10000000000014, 291.16499999999996, 293.23, 293.23, 295.2950000000001, 297.3600000000001, 297.3600000000001, 297.3600000000001, 299.42499999999995, 301.49, 301.49, 301.49, 301.49, 303.55500000000006, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 303.55500000000006]</t>
+          <t>[541.03, 536.9, 534.835, 532.77, 530.705, 528.64, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 483.21, 479.08, 477.015, 474.95, 470.82, 466.69, 462.56, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 413.0, 410.935, 408.87, 404.74, 400.61, 398.545, 396.48, 392.34999999999997, 390.28499999999997, 388.21999999999997, 384.09, 382.025, 379.96, 377.895, 375.83, 371.7, 369.635, 367.57, 365.505, 363.44, 361.375, 359.31, 357.245, 355.18, 353.115, 351.05, 348.985, 346.92, 344.855, 342.78999999999996, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 332.465, 330.4, 328.335, 326.27, 324.205, 324.205, 322.14, 320.075, 320.075, 318.01, 315.945, 315.945, 315.945, 313.88, 311.815, 311.815, 311.815, 309.75, 307.685, 307.685, 307.685, 307.685, 307.685, 307.685, 305.62, 303.555, 303.555, 303.555, 303.555, 303.555, 303.555, 303.555, 303.555, 305.62, 307.685, 307.685, 307.685, 307.685, 307.685, 309.75, 311.815, 311.815, 311.815, 311.815, 313.88, 315.945, 315.945, 318.01, 320.075, 320.075, 320.075, 322.14, 324.205, 326.27, 328.335, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 338.65999999999997, 340.72499999999997, 342.78999999999996, 344.855, 346.92, 348.985, 351.05, 353.115, 355.18, 357.245, 359.31, 361.375, 363.44, 365.505, 367.57, 369.635, 371.7, 375.83, 377.895, 379.96, 384.09, 386.155, 388.21999999999997, 390.28499999999997, 392.34999999999997, 396.48, 400.61, 402.675, 404.74, 408.87, 410.935, 413.0, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 474.95, 479.08, 483.21, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 503.86, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 532.77, 534.835, 536.9, 541.03]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2.187127769729833e-09</v>
+        <v>2.201258168353916e-09</v>
       </c>
       <c r="I9" t="n">
-        <v>2.084786369729834e-09</v>
+        <v>1.797537591056542e-09</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9532073976580525</v>
+        <v>0.8165955347258184</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9641543679075759</v>
+        <v>0.5626075117611018</v>
       </c>
       <c r="L9" t="n">
-        <v>1.304419794924425e-18</v>
+        <v>1.069996632270173e-18</v>
       </c>
       <c r="M9" t="n">
-        <v>4.073470001288822e-27</v>
+        <v>3.920564447571218e-28</v>
       </c>
       <c r="N9" t="n">
-        <v>2.354141913851017e-29</v>
+        <v>1.087665867288596e-25</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001251471245902191</v>
+        <v>-0.2741954653846155</v>
       </c>
     </row>
     <row r="10">
@@ -944,47 +944,47 @@
         <v>0.0003895218619144999</v>
       </c>
       <c r="C10" t="n">
-        <v>376.7440163934426</v>
+        <v>-217.6384848484849</v>
       </c>
       <c r="D10" t="n">
-        <v>155.3489344262295</v>
+        <v>385.3683333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>305</v>
+        <v>231</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[398.545, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 386.155, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 398.545]</t>
+          <t>[-315.945, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -276.71, -274.645, -272.58, -268.45, -264.32, -262.255, -260.19, -256.06, -251.93, -247.79999999999998, -245.73499999999999, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -189.98, -187.915, -185.85, -181.72, -177.59, -173.46, -171.39499999999998, -169.32999999999998, -165.2, -161.07, -159.005, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -105.315]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[307.68499999999995, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 303.55500000000006, 301.49, 301.49, 301.49, 299.42499999999995, 297.3599999999999, 297.3599999999999, 297.3599999999999, 295.2950000000001, 293.23, 293.23, 291.16499999999996, 289.0999999999999, 289.0999999999999, 287.0350000000001, 284.97, 282.905, 280.8399999999999, 280.8399999999999, 278.7750000000001, 276.71000000000004, 274.645, 272.5799999999999, 270.5150000000001, 268.45000000000005, 266.385, 264.31999999999994, 262.2550000000001, 260.19000000000005, 258.125, 256.05999999999995, 253.99500000000012, 251.93000000000006, 249.865, 247.79999999999995, 245.7349999999999, 241.60500000000002, 239.53999999999996, 237.4749999999999, 233.34500000000003, 231.27999999999997, 229.21499999999992, 225.08500000000004, 223.01999999999998, 220.95499999999993, 216.82500000000005, 214.76, 212.69500000000005, 208.56500000000005, 204.43500000000006, 202.37, 200.30500000000006, 196.17499999999995, 192.04499999999996, 187.91499999999996, 185.85000000000002, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.02999999999997, 125.96500000000003, 121.83500000000004, 117.70500000000004, 113.57500000000005, 111.50999999999999, 109.44500000000005, 105.31500000000005, 103.25, 101.18500000000006, 97.05500000000006, 92.92500000000007, 90.86000000000001, 88.79499999999996, 84.66499999999996, 82.60000000000002, 80.53499999999997, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.21000000000004, 68.14499999999998, 66.08000000000004, 64.01499999999999, 61.950000000000045, 59.88499999999999, 55.754999999999995, 53.690000000000055, 51.625, 49.56000000000006, 47.495000000000005, 45.430000000000064, 43.36500000000001, 41.30000000000007, 41.30000000000007, 39.235000000000014, 37.16999999999996, 35.10500000000002, 33.039999999999964, 30.975000000000023, 28.909999999999968, 28.909999999999968, 26.845000000000027, 24.779999999999973, 22.715000000000032, 20.649999999999977, 20.649999999999977, 18.585000000000036, 16.519999999999982, 16.519999999999982, 14.455000000000041, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.19500000000005, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0650000000000546, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0650000000000546, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.19500000000005, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.649999999999977, 20.649999999999977, 22.715000000000032, 24.779999999999973, 24.779999999999973, 26.845000000000027, 28.909999999999968, 30.975000000000023, 33.039999999999964, 33.039999999999964, 35.10500000000002, 37.16999999999996, 39.235000000000014, 41.30000000000007, 43.36500000000001, 45.430000000000064, 47.495000000000005, 49.56000000000006, 51.625, 53.690000000000055, 55.754999999999995, 57.82000000000005, 59.88499999999999, 61.950000000000045, 64.01499999999999, 68.14499999999998, 70.21000000000004, 72.27499999999998, 74.34000000000003, 76.40499999999997, 80.53499999999997, 82.60000000000002, 84.66499999999996, 88.79499999999996, 90.86000000000001, 92.92500000000007, 97.05500000000006, 99.12, 101.18500000000006, 105.31500000000005, 109.44500000000005, 111.50999999999999, 113.57500000000005, 117.70500000000004, 121.83500000000004, 125.96500000000003, 130.09500000000003, 132.15999999999997, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 169.33000000000004, 171.39499999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.98000000000002, 192.04499999999996, 196.17499999999995, 200.30500000000006, 202.37, 204.43500000000006, 208.56500000000005, 212.69500000000005, 214.76, 216.82500000000005, 218.8900000000001, 220.95499999999993, 225.08500000000004, 227.1500000000001, 229.21499999999992, 233.34500000000003, 235.41000000000008, 237.4749999999999, 239.53999999999996, 241.60500000000002, 243.67000000000007, 245.7349999999999, 249.865, 251.93000000000006, 253.99500000000012, 256.05999999999995, 258.125, 260.19000000000005, 262.2550000000001, 264.31999999999994, 266.385, 268.45000000000005, 268.45000000000005, 270.5150000000001, 272.5799999999999, 274.645, 276.71000000000004, 278.7750000000001, 280.8399999999999, 280.8399999999999, 282.905, 284.97, 284.97, 287.0350000000001, 289.0999999999999, 289.0999999999999, 291.16499999999996, 293.23, 293.23, 295.2950000000001, 297.3599999999999, 297.3599999999999, 297.3599999999999, 299.42499999999995, 301.49, 301.49, 301.49, 303.55500000000006, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 305.6200000000001, 307.68499999999995, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 307.68499999999995]</t>
+          <t>[541.03, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 394.41499999999996, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 369.635, 367.57, 363.44, 359.31, 357.245, 355.18, 353.115, 351.05, 346.92, 344.855, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 307.685, 305.62, 303.555, 301.49, 299.425, 299.425, 297.36, 295.295, 293.23, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 293.23, 295.295, 295.295, 297.36, 299.425, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 315.945, 318.01, 320.075, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 348.985, 351.05, 353.115, 355.18, 359.31, 361.375, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 382.025, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 398.545, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 458.43, 462.56, 464.625, 466.69, 470.82, 474.95, 477.015, 479.08, 483.21, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 541.03]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2.177136069041874e-09</v>
+        <v>2.094778070417791e-09</v>
       </c>
       <c r="I10" t="n">
-        <v>2.108908469041875e-09</v>
+        <v>2.018775182801041e-09</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9686617658077634</v>
+        <v>0.9637179285528841</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9522310211760954</v>
+        <v>0.5553009206992693</v>
       </c>
       <c r="L10" t="n">
-        <v>1.305874484112498e-18</v>
+        <v>1.192045055147592e-18</v>
       </c>
       <c r="M10" t="n">
-        <v>4.209582369394972e-27</v>
+        <v>4.474291789110786e-28</v>
       </c>
       <c r="N10" t="n">
-        <v>4.869187681934529e-30</v>
+        <v>4.6331051686775e-26</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0005598807920794702</v>
+        <v>-0.1675177166319508</v>
       </c>
     </row>
     <row r="11">
@@ -997,47 +997,47 @@
         <v>0.0004382120946538125</v>
       </c>
       <c r="C11" t="n">
-        <v>376.6546369636964</v>
+        <v>-216.7874545454546</v>
       </c>
       <c r="D11" t="n">
-        <v>153.3347689768976</v>
+        <v>380.7484545454545</v>
       </c>
       <c r="E11" t="n">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[410.935, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 402.675, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 410.935]</t>
+          <t>[-258.125, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -272.58, -270.515, -268.45, -264.32, -260.19, -258.125, -256.06, -251.93, -247.79999999999998, -243.67, -239.54, -235.41, -231.28, -229.215, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -204.435, -202.37, -198.24, -194.10999999999999, -189.98, -185.85, -181.72, -179.655, -177.59, -173.46, -169.32999999999998, -167.265, -165.2, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -125.965, -123.89999999999999, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -159.005, -161.07, -163.135]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[303.55499999999995, 301.4899999999999, 301.4899999999999, 301.4899999999999, 301.4899999999999, 301.4899999999999, 299.42500000000007, 297.36, 297.36, 295.29499999999996, 293.2299999999999, 293.2299999999999, 293.2299999999999, 291.1650000000001, 289.1, 289.1, 287.03499999999997, 284.9699999999999, 282.9050000000001, 280.84000000000003, 280.84000000000003, 278.775, 276.7099999999999, 274.64499999999987, 272.58000000000004, 270.515, 268.44999999999993, 268.44999999999993, 266.3849999999999, 264.32000000000005, 262.255, 260.18999999999994, 258.1249999999999, 256.06000000000006, 253.995, 249.8649999999999, 247.80000000000007, 245.735, 243.66999999999996, 241.60500000000002, 237.47500000000002, 235.40999999999997, 233.34500000000003, 231.27999999999997, 229.21500000000003, 225.08499999999992, 223.01999999999998, 220.95499999999993, 216.82499999999993, 214.76, 212.69499999999994, 208.56499999999994, 204.43499999999995, 202.37, 200.30499999999995, 196.17499999999995, 192.04499999999996, 187.91499999999996, 185.85000000000002, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 132.15999999999997, 130.09500000000003, 125.96500000000003, 121.83500000000004, 117.70499999999993, 113.57499999999993, 111.50999999999999, 109.44499999999994, 105.31499999999994, 101.18499999999995, 99.12, 97.05499999999995, 92.92499999999995, 90.86000000000001, 88.79499999999996, 84.66499999999996, 82.60000000000002, 80.53499999999997, 76.40499999999997, 74.34000000000003, 72.27499999999998, 70.21000000000004, 68.14499999999998, 64.01499999999999, 61.94999999999993, 59.88499999999999, 57.819999999999936, 55.754999999999995, 53.68999999999994, 51.625, 49.559999999999945, 47.495000000000005, 45.42999999999995, 43.36500000000001, 41.299999999999955, 39.235000000000014, 37.16999999999996, 35.10500000000002, 33.039999999999964, 33.039999999999964, 30.975000000000023, 28.909999999999968, 26.845000000000027, 24.779999999999973, 24.779999999999973, 22.715000000000032, 20.649999999999977, 18.585000000000036, 16.519999999999982, 16.519999999999982, 14.455000000000041, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999932, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.064999999999941, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.064999999999941, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999932, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.649999999999977, 20.649999999999977, 22.715000000000032, 24.779999999999973, 24.779999999999973, 26.845000000000027, 28.909999999999968, 30.975000000000023, 33.039999999999964, 35.10500000000002, 37.16999999999996, 37.16999999999996, 39.235000000000014, 41.299999999999955, 43.36500000000001, 45.42999999999995, 47.495000000000005, 49.559999999999945, 51.625, 55.754999999999995, 57.819999999999936, 59.88499999999999, 61.94999999999993, 64.01499999999999, 66.07999999999993, 68.14499999999998, 72.27499999999998, 74.34000000000003, 76.40499999999997, 78.47000000000003, 80.53499999999997, 84.66499999999996, 86.73000000000002, 88.79499999999996, 92.92499999999995, 97.05499999999995, 99.12, 101.18499999999995, 105.31499999999994, 107.38, 109.44499999999994, 113.57499999999993, 117.70499999999993, 121.83500000000004, 125.96500000000003, 128.02999999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999993, 171.39499999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.98000000000002, 192.04499999999996, 196.17499999999995, 200.30499999999995, 202.37, 204.43499999999995, 208.56499999999994, 210.63, 212.69499999999994, 216.82499999999993, 218.89, 220.95499999999993, 225.08499999999992, 227.14999999999998, 229.21500000000003, 231.27999999999997, 233.34500000000003, 237.47500000000002, 239.53999999999996, 241.60500000000002, 243.66999999999996, 245.735, 247.80000000000007, 249.8649999999999, 251.92999999999995, 253.995, 256.06000000000006, 258.1249999999999, 260.18999999999994, 262.255, 264.32000000000005, 266.3849999999999, 268.44999999999993, 270.515, 272.58000000000004, 272.58000000000004, 274.64499999999987, 276.7099999999999, 278.775, 280.84000000000003, 280.84000000000003, 282.9050000000001, 284.9699999999999, 284.9699999999999, 287.03499999999997, 289.1, 289.1, 291.1650000000001, 293.2299999999999, 293.2299999999999, 295.29499999999996, 297.36, 297.36, 297.36, 299.42500000000007, 301.4899999999999, 301.4899999999999, 301.4899999999999, 301.4899999999999, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.55499999999995]</t>
+          <t>[541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 541.03]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.170070869729833e-09</v>
+        <v>2.118900169729833e-09</v>
       </c>
       <c r="I11" t="n">
-        <v>2.101843269729833e-09</v>
+        <v>2.087712871105749e-09</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9685597364806366</v>
+        <v>0.9852813742385701</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9641543679075761</v>
+        <v>0.5553009206992693</v>
       </c>
       <c r="L11" t="n">
-        <v>1.305001670599634e-18</v>
+        <v>1.272343898327929e-18</v>
       </c>
       <c r="M11" t="n">
-        <v>4.055789476533584e-27</v>
+        <v>5.866227661524491e-28</v>
       </c>
       <c r="N11" t="n">
-        <v>1.041743989216334e-29</v>
+        <v>1.147966927027543e-25</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0008343141639348683</v>
+        <v>-0.2302883925250829</v>
       </c>
     </row>
     <row r="12">
@@ -1050,47 +1050,47 @@
         <v>0.0004869023273931249</v>
       </c>
       <c r="C12" t="n">
-        <v>376.5273606557377</v>
+        <v>-216.3829933110368</v>
       </c>
       <c r="D12" t="n">
-        <v>155.4301803278688</v>
+        <v>362.9427424749164</v>
       </c>
       <c r="E12" t="n">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[398.545, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 390.28499999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 398.545]</t>
+          <t>[-192.045, -189.98, -185.85, -181.72, -177.59, -173.46, -171.39499999999998, -169.32999999999998, -165.2, -161.07, -159.005, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -260.19, -256.06, -251.93, -247.79999999999998, -245.73499999999999, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -192.045]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[307.68499999999983, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.55499999999995, 301.4899999999999, 301.4899999999999, 301.4899999999999, 299.42499999999984, 297.36, 297.36, 297.36, 295.29499999999996, 293.2299999999999, 293.2299999999999, 291.16499999999985, 289.1, 287.03499999999997, 284.9699999999999, 284.9699999999999, 282.90499999999986, 280.84000000000003, 280.84000000000003, 278.775, 276.7099999999999, 274.645, 272.5799999999999, 270.515, 268.44999999999993, 266.385, 264.31999999999994, 262.255, 260.18999999999994, 258.1249999999999, 256.05999999999995, 253.9949999999999, 251.92999999999995, 249.8649999999999, 245.7349999999999, 243.66999999999996, 241.6049999999999, 239.53999999999996, 237.4749999999999, 233.3449999999999, 231.27999999999997, 229.21499999999992, 225.08499999999992, 223.01999999999998, 220.95499999999993, 216.82499999999993, 214.76, 212.69499999999994, 208.56499999999994, 204.43499999999995, 202.3699999999999, 200.30499999999995, 196.17499999999995, 192.04499999999996, 187.91499999999996, 185.8499999999999, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.7449999999999, 146.6149999999999, 142.4849999999999, 138.3549999999999, 134.2249999999999, 132.15999999999997, 130.0949999999999, 125.96499999999992, 121.83499999999992, 117.70499999999993, 115.63999999999999, 113.57499999999993, 109.44499999999994, 105.31499999999994, 103.25, 101.18499999999995, 97.05499999999995, 94.9899999999999, 92.92499999999995, 88.79499999999996, 86.7299999999999, 84.66499999999996, 80.53499999999997, 78.46999999999991, 76.40499999999997, 74.33999999999992, 72.27499999999998, 68.14499999999998, 66.07999999999993, 64.01499999999999, 61.94999999999993, 59.88499999999999, 57.819999999999936, 55.754999999999995, 53.68999999999994, 51.625, 49.559999999999945, 47.495000000000005, 45.42999999999995, 43.364999999999895, 41.299999999999955, 39.2349999999999, 37.16999999999996, 35.104999999999905, 33.039999999999964, 30.97499999999991, 28.909999999999968, 28.909999999999968, 26.844999999999914, 24.779999999999973, 22.714999999999918, 20.649999999999977, 20.649999999999977, 18.584999999999923, 16.519999999999982, 16.519999999999982, 16.519999999999982, 14.454999999999927, 12.389999999999986, 12.389999999999986, 10.324999999999932, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.064999999999941, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.064999999999941, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999932, 12.389999999999986, 12.389999999999986, 14.454999999999927, 16.519999999999982, 16.519999999999982, 18.584999999999923, 20.649999999999977, 20.649999999999977, 22.714999999999918, 24.779999999999973, 24.779999999999973, 26.844999999999914, 28.909999999999968, 30.97499999999991, 33.039999999999964, 33.039999999999964, 35.104999999999905, 37.16999999999996, 39.2349999999999, 41.299999999999955, 43.364999999999895, 45.42999999999995, 47.495000000000005, 49.559999999999945, 51.625, 53.68999999999994, 55.754999999999995, 57.819999999999936, 59.88499999999999, 61.94999999999993, 64.01499999999999, 68.14499999999998, 70.20999999999992, 72.27499999999998, 74.33999999999992, 76.40499999999997, 80.53499999999997, 82.59999999999991, 84.66499999999996, 88.79499999999996, 90.8599999999999, 92.92499999999995, 97.05499999999995, 99.11999999999989, 101.18499999999995, 105.31499999999994, 109.44499999999994, 111.50999999999999, 113.57499999999993, 117.70499999999993, 121.83499999999992, 125.96499999999992, 128.02999999999997, 130.0949999999999, 134.2249999999999, 138.3549999999999, 142.4849999999999, 146.6149999999999, 150.7449999999999, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999992, 175.52499999999998, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.9799999999999, 192.04499999999996, 196.17499999999995, 200.30499999999995, 202.3699999999999, 204.43499999999995, 208.56499999999994, 210.63, 212.69499999999994, 216.82499999999993, 218.89, 220.95499999999993, 225.08499999999992, 227.14999999999998, 229.21499999999992, 233.3449999999999, 235.40999999999997, 237.4749999999999, 239.53999999999996, 241.6049999999999, 243.66999999999996, 245.7349999999999, 249.8649999999999, 251.92999999999995, 253.9949999999999, 256.05999999999995, 258.1249999999999, 260.18999999999994, 262.255, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 274.645, 276.7099999999999, 278.775, 280.84000000000003, 280.84000000000003, 282.90499999999986, 284.9699999999999, 284.9699999999999, 287.03499999999997, 289.1, 291.16499999999985, 293.2299999999999, 293.2299999999999, 293.2299999999999, 295.29499999999996, 297.36, 297.36, 299.42499999999984, 301.4899999999999, 301.4899999999999, 301.4899999999999, 301.4899999999999, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 307.68499999999983, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 309.7499999999999, 307.68499999999983]</t>
+          <t>[214.76, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 398.545, 400.61, 404.74, 408.87, 413.0, 415.065, 417.13, 421.26, 423.325, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 468.755, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 481.145, 483.21, 485.275, 487.34, 489.405, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 505.925, 505.925, 507.99, 510.055, 510.055, 510.055, 510.055, 512.12, 514.185, 514.185, 514.185, 514.185, 514.185, 514.185, 514.185, 514.185, 514.185, 514.185, 514.185, 514.185, 512.12, 510.055, 510.055, 510.055, 510.055, 510.055, 507.99, 505.925, 505.925, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 472.885, 470.82, 468.755, 466.69, 464.625, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 443.97499999999997, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 423.325, 421.26, 417.13, 415.065, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 390.28499999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 214.76]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2.150087468353916e-09</v>
+        <v>2.094778070417791e-09</v>
       </c>
       <c r="I12" t="n">
-        <v>2.125965369041874e-09</v>
+        <v>2.118900169729833e-09</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9887808753517784</v>
+        <v>0.9886157452547104</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9522310211760957</v>
+        <v>0.5829887114004079</v>
       </c>
       <c r="L12" t="n">
-        <v>1.304128857086845e-18</v>
+        <v>1.274744135488175e-18</v>
       </c>
       <c r="M12" t="n">
-        <v>4.163768126984166e-27</v>
+        <v>7.605939849957946e-27</v>
       </c>
       <c r="N12" t="n">
-        <v>1.926477896881241e-29</v>
+        <v>7.082065195082756e-24</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001119761584159162</v>
+        <v>-0.5023314089351949</v>
       </c>
     </row>
     <row r="13">
@@ -1103,47 +1103,47 @@
         <v>0.0005355925601324374</v>
       </c>
       <c r="C13" t="n">
-        <v>377.131699669967</v>
+        <v>-217.588300330033</v>
       </c>
       <c r="D13" t="n">
-        <v>153.4438118811881</v>
+        <v>331.8311881188118</v>
       </c>
       <c r="E13" t="n">
         <v>303</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[390.28499999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 390.28499999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 390.28499999999997]</t>
+          <t>[-204.435, -202.37, -198.24, -194.10999999999999, -189.98, -185.85, -181.72, -179.655, -177.59, -173.46, -169.32999999999998, -167.265, -165.2, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -204.435, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -272.58, -270.515, -268.45, -264.32, -260.19, -258.125, -256.06, -251.93, -247.79999999999998, -243.67, -239.54, -235.41, -233.345, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -204.435]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[303.555, 301.49, 301.49, 301.49, 301.49, 301.49, 301.49, 299.425, 297.36, 297.36, 297.36, 295.295, 293.23, 293.23, 293.23, 291.165, 289.1, 289.1, 287.03499999999997, 284.96999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 276.71, 274.645, 272.58, 270.515, 268.45, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.865, 247.8, 245.735, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 204.435, 202.37, 200.305, 196.175, 194.10999999999999, 192.045, 187.915, 183.785, 179.655, 175.525, 173.46, 171.395, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.355, 134.225, 130.095, 125.965, 121.83500000000001, 119.77000000000001, 117.70500000000001, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 92.92500000000001, 90.86000000000001, 88.79499999999999, 84.66499999999999, 82.6, 80.535, 76.405, 74.34, 72.275, 70.21000000000001, 68.145, 64.015, 61.95, 59.885000000000005, 57.82000000000001, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.3, 39.235, 37.17, 35.105000000000004, 33.040000000000006, 30.97500000000001, 28.909999999999997, 28.909999999999997, 26.845, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.519999999999996, 16.519999999999996, 14.454999999999998, 12.39, 12.39, 12.39, 10.325000000000003, 8.260000000000005, 8.260000000000005, 8.260000000000005, 8.260000000000005, 6.195, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 2.065000000000005, 0.0, 0.0, 2.065000000000005, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 4.130000000000003, 6.195, 8.260000000000005, 8.260000000000005, 8.260000000000005, 8.260000000000005, 10.325000000000003, 12.39, 12.39, 12.39, 14.454999999999998, 16.519999999999996, 16.519999999999996, 18.585000000000008, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 24.78, 26.845, 28.909999999999997, 30.97500000000001, 33.040000000000006, 33.040000000000006, 35.105000000000004, 37.17, 39.235, 41.3, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.82000000000001, 59.885000000000005, 61.95, 64.015, 66.08, 68.145, 70.21000000000001, 72.275, 76.405, 78.47, 80.535, 82.6, 84.66499999999999, 88.79499999999999, 90.86000000000001, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70500000000001, 121.83500000000001, 123.9, 125.965, 130.095, 134.225, 138.355, 142.485, 146.615, 150.745, 152.81, 154.875, 159.005, 161.07, 163.135, 167.265, 171.395, 175.525, 179.655, 183.785, 187.915, 189.98, 192.045, 196.175, 200.305, 202.37, 204.435, 208.565, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 233.34499999999997, 235.41000000000003, 237.47500000000002, 239.54000000000002, 241.60500000000002, 245.735, 247.8, 249.865, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 280.84, 282.905, 284.96999999999997, 284.96999999999997, 287.03499999999997, 289.1, 289.1, 291.165, 293.23, 293.23, 293.23, 295.295, 297.36, 297.36, 297.36, 299.425, 301.49, 301.49, 301.49, 301.49, 301.49, 301.49, 303.555, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.555]</t>
+          <t>[181.72, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 187.915, 189.98, 192.045, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 256.06, 258.125, 260.19, 262.255, 264.32, 268.45, 270.515, 272.58, 276.71, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 301.49, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 326.27, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 382.025, 384.09, 388.21999999999997, 392.34999999999997, 394.41499999999996, 396.48, 400.61, 402.675, 404.74, 408.87, 410.935, 413.0, 415.065, 417.13, 421.26, 423.325, 425.39, 427.455, 429.52, 431.585, 433.65, 435.715, 437.78, 439.84499999999997, 441.90999999999997, 443.97499999999997, 446.03999999999996, 448.10499999999996, 450.17, 452.235, 454.3, 456.365, 456.365, 458.43, 460.495, 462.56, 464.625, 464.625, 466.69, 468.755, 468.755, 470.82, 472.885, 472.885, 472.885, 474.95, 477.015, 477.015, 477.015, 477.015, 479.08, 481.145, 481.145, 481.145, 481.145, 481.145, 481.145, 481.145, 483.21, 485.275, 485.275, 483.21, 481.145, 481.145, 481.145, 481.145, 481.145, 481.145, 481.145, 481.145, 479.08, 477.015, 477.015, 477.015, 477.015, 474.95, 472.885, 472.885, 472.885, 470.82, 468.755, 468.755, 466.69, 464.625, 464.625, 462.56, 460.495, 460.495, 458.43, 456.365, 454.3, 452.235, 452.235, 450.17, 448.10499999999996, 446.03999999999996, 443.97499999999997, 441.90999999999997, 439.84499999999997, 437.78, 435.715, 433.65, 431.585, 429.52, 427.455, 425.39, 423.325, 421.26, 419.195, 417.13, 415.065, 413.0, 408.87, 406.805, 404.74, 402.675, 400.61, 396.48, 394.41499999999996, 392.34999999999997, 388.21999999999997, 386.155, 384.09, 379.96, 375.83, 373.765, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 309.75, 305.62, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 276.71, 272.58, 270.515, 268.45, 264.32, 262.255, 260.19, 258.125, 256.06, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 192.045, 189.98, 187.915, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 181.72, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 181.72]</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>2.201258168353916e-09</v>
       </c>
       <c r="I13" t="n">
-        <v>2.040680869041875e-09</v>
+        <v>2.040680869041874e-09</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9270520370483758</v>
+        <v>0.9270520370483757</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9641543679075761</v>
+        <v>0.6241755510415371</v>
       </c>
       <c r="L13" t="n">
-        <v>1.277071638189087e-18</v>
+        <v>1.277071638189111e-18</v>
       </c>
       <c r="M13" t="n">
-        <v>4.138314615263644e-27</v>
+        <v>7.665798215566939e-27</v>
       </c>
       <c r="N13" t="n">
-        <v>1.302102560073513e-28</v>
+        <v>1.146688788855113e-23</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.002920099573769486</v>
+        <v>-0.6366942217772409</v>
       </c>
     </row>
     <row r="14">
@@ -1156,47 +1156,47 @@
         <v>0.0005842827928717499</v>
       </c>
       <c r="C14" t="n">
-        <v>376.1482131147541</v>
+        <v>-217.7580232558139</v>
       </c>
       <c r="D14" t="n">
-        <v>155.1458196721312</v>
+        <v>300.9411627906977</v>
       </c>
       <c r="E14" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[394.41499999999996, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 394.41499999999996, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 394.41499999999996]</t>
+          <t>[-192.045, -189.98, -185.85, -181.72, -177.59, -173.46, -171.39499999999998, -169.32999999999998, -165.2, -163.135, -161.07, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -330.4, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -272.58, -268.45, -266.385, -264.32, -260.19, -256.06, -251.93, -249.86499999999998, -247.79999999999998, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -192.045]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[307.68499999999995, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.31999999999994, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.53999999999996, 237.47500000000002, 233.34500000000003, 231.27999999999997, 229.21500000000003, 225.08500000000004, 223.01999999999998, 220.95500000000004, 216.82500000000005, 212.69499999999994, 210.63, 208.56499999999994, 204.43499999999995, 200.30499999999995, 198.24, 196.17499999999995, 192.04499999999996, 187.91499999999996, 183.78499999999997, 179.65499999999997, 177.59000000000003, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 140.41999999999996, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83500000000004, 119.76999999999998, 117.70500000000004, 113.57500000000005, 109.44500000000005, 107.38, 105.31499999999994, 101.18499999999995, 97.05499999999995, 94.99000000000001, 92.92499999999995, 88.79499999999996, 86.73000000000002, 84.66499999999996, 80.53499999999997, 78.47000000000003, 76.40499999999997, 74.34000000000003, 72.27499999999998, 68.14499999999998, 66.08000000000004, 64.01499999999999, 61.950000000000045, 59.88499999999999, 57.82000000000005, 55.754999999999995, 53.68999999999994, 51.625, 49.559999999999945, 47.495000000000005, 45.42999999999995, 43.36500000000001, 41.299999999999955, 39.235000000000014, 37.16999999999996, 35.10500000000002, 33.039999999999964, 30.975000000000023, 28.909999999999968, 28.909999999999968, 26.845000000000027, 24.779999999999973, 22.715000000000032, 20.649999999999977, 20.649999999999977, 18.585000000000036, 16.519999999999982, 16.519999999999982, 14.455000000000041, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.19500000000005, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.064999999999941, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.064999999999941, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.19500000000005, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.649999999999977, 20.649999999999977, 22.715000000000032, 24.779999999999973, 26.845000000000027, 28.909999999999968, 28.909999999999968, 30.975000000000023, 33.039999999999964, 35.10500000000002, 37.16999999999996, 39.235000000000014, 41.299999999999955, 43.36500000000001, 45.42999999999995, 45.42999999999995, 47.495000000000005, 51.625, 53.68999999999994, 55.754999999999995, 57.82000000000005, 59.88499999999999, 61.950000000000045, 64.01499999999999, 66.08000000000004, 68.14499999999998, 72.27499999999998, 74.34000000000003, 76.40499999999997, 78.47000000000003, 80.53499999999997, 84.66499999999996, 86.73000000000002, 88.79499999999996, 92.92499999999995, 94.99000000000001, 97.05499999999995, 101.18499999999995, 105.31499999999994, 107.38, 109.44500000000005, 113.57500000000005, 117.70500000000004, 121.83500000000004, 123.89999999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 173.46000000000004, 175.52499999999998, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.98000000000002, 192.04499999999996, 196.17499999999995, 200.30499999999995, 202.37, 204.43499999999995, 208.56499999999994, 212.69499999999994, 214.76, 216.82500000000005, 220.95500000000004, 223.01999999999998, 225.08500000000004, 227.14999999999998, 229.21500000000003, 233.34500000000003, 235.40999999999997, 237.47500000000002, 239.53999999999996, 241.60500000000002, 243.66999999999996, 245.735, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.31999999999994, 266.385, 268.45000000000005, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 307.68499999999995, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 307.68499999999995]</t>
+          <t>[152.81, 154.875, 154.875, 154.875, 154.875, 154.875, 156.94, 159.005, 159.005, 161.07, 163.135, 163.135, 163.135, 165.2, 167.265, 167.265, 169.32999999999998, 171.39499999999998, 171.39499999999998, 173.46, 175.525, 177.59, 179.655, 179.655, 181.72, 183.785, 185.85, 187.915, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 231.28, 233.345, 235.41, 239.54, 241.605, 243.67, 247.79999999999998, 249.86499999999998, 251.93, 256.06, 260.19, 262.255, 264.32, 268.45, 272.58, 276.71, 278.775, 280.84, 284.96999999999997, 289.09999999999997, 293.23, 297.36, 301.49, 305.62, 309.75, 313.88, 318.01, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 369.635, 371.7, 375.83, 377.895, 379.96, 384.09, 386.155, 388.21999999999997, 390.28499999999997, 392.34999999999997, 394.41499999999996, 396.48, 400.61, 402.675, 404.74, 406.805, 408.87, 410.935, 413.0, 415.065, 417.13, 419.195, 419.195, 421.26, 423.325, 425.39, 427.455, 427.455, 429.52, 431.585, 433.65, 435.715, 435.715, 437.78, 439.84499999999997, 439.84499999999997, 439.84499999999997, 441.90999999999997, 443.97499999999997, 443.97499999999997, 443.97499999999997, 446.03999999999996, 448.10499999999996, 448.10499999999996, 448.10499999999996, 448.10499999999996, 450.17, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 452.235, 450.17, 448.10499999999996, 448.10499999999996, 448.10499999999996, 448.10499999999996, 446.03999999999996, 443.97499999999997, 443.97499999999997, 443.97499999999997, 441.90999999999997, 439.84499999999997, 439.84499999999997, 439.84499999999997, 437.78, 435.715, 435.715, 433.65, 431.585, 431.585, 429.52, 427.455, 425.39, 423.325, 423.325, 421.26, 419.195, 417.13, 415.065, 415.065, 413.0, 410.935, 408.87, 406.805, 404.74, 402.675, 400.61, 398.545, 396.48, 394.41499999999996, 392.34999999999997, 390.28499999999997, 388.21999999999997, 384.09, 382.025, 379.96, 377.895, 375.83, 371.7, 369.635, 367.57, 365.505, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 318.01, 313.88, 309.75, 307.685, 305.62, 301.49, 297.36, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 276.71, 272.58, 268.45, 264.32, 262.255, 260.19, 256.06, 251.93, 249.86499999999998, 247.79999999999998, 243.67, 241.605, 239.54, 235.41, 233.345, 231.28, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 185.85, 183.785, 181.72, 179.655, 179.655, 177.59, 175.525, 173.46, 171.39499999999998, 171.39499999999998, 169.32999999999998, 167.265, 167.265, 165.2, 163.135, 163.135, 161.07, 159.005, 159.005, 159.005, 156.94, 154.875, 154.875, 154.875, 154.875, 152.81, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 150.745, 152.81]</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2.108908469041875e-09</v>
+        <v>2.187127769729833e-09</v>
       </c>
       <c r="I14" t="n">
-        <v>2.177136069041874e-09</v>
+        <v>2.050672569729833e-09</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9686617658077634</v>
+        <v>0.9376098635440692</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9522310211760954</v>
+        <v>0.6674599324587402</v>
       </c>
       <c r="L14" t="n">
-        <v>1.305001670599634e-18</v>
+        <v>1.27852632737716e-18</v>
       </c>
       <c r="M14" t="n">
-        <v>4.207268531891183e-27</v>
+        <v>7.607604098044613e-27</v>
       </c>
       <c r="N14" t="n">
-        <v>1.094965039351611e-29</v>
+        <v>1.139092768863588e-23</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0008398211881184281</v>
+        <v>-0.6370043711881164</v>
       </c>
     </row>
     <row r="15">
@@ -1209,47 +1209,47 @@
         <v>0.0006329730256110624</v>
       </c>
       <c r="C15" t="n">
-        <v>376.7500495049505</v>
+        <v>-217.9699504950495</v>
       </c>
       <c r="D15" t="n">
-        <v>153.5255940594059</v>
+        <v>269.7994059405941</v>
       </c>
       <c r="E15" t="n">
         <v>303</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[390.28499999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 390.28499999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 390.28499999999997]</t>
+          <t>[-204.435, -202.37, -198.24, -194.10999999999999, -189.98, -185.85, -181.72, -179.655, -177.59, -173.46, -169.32999999999998, -167.265, -165.2, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -204.435, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -264.32, -260.19, -258.125, -256.06, -251.93, -247.79999999999998, -243.67, -239.54, -235.41, -233.345, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -204.435]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[303.555, 301.49, 301.49, 301.49, 301.49, 301.49, 301.49, 299.425, 297.36, 297.36, 297.36, 295.295, 293.23, 293.23, 293.23, 291.165, 289.1, 289.1, 287.035, 284.97, 284.97, 282.90500000000003, 280.84000000000003, 278.77500000000003, 276.71, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.865, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 229.21500000000003, 227.15000000000003, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65500000000003, 175.52500000000003, 173.46000000000004, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09499999999997, 125.96499999999999, 123.89999999999999, 121.835, 117.705, 113.575, 109.44500000000001, 107.38000000000001, 105.31499999999998, 101.18499999999999, 97.05499999999999, 94.99, 92.925, 88.795, 86.73, 84.665, 80.53500000000001, 78.46999999999998, 76.40499999999999, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 59.885000000000005, 57.82000000000001, 55.75500000000001, 53.68999999999998, 51.624999999999986, 49.55999999999999, 47.49499999999999, 45.42999999999999, 43.364999999999995, 41.3, 39.235, 37.17, 35.105000000000004, 33.040000000000006, 30.97500000000001, 28.91000000000001, 28.91000000000001, 26.844999999999985, 24.779999999999987, 24.779999999999987, 22.71499999999999, 20.64999999999999, 18.584999999999994, 16.519999999999996, 16.519999999999996, 16.519999999999996, 14.454999999999998, 12.39, 12.39, 10.325000000000003, 8.260000000000005, 8.260000000000005, 8.260000000000005, 8.260000000000005, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.260000000000005, 8.260000000000005, 8.260000000000005, 8.260000000000005, 10.325000000000003, 12.39, 12.39, 12.39, 14.454999999999998, 16.519999999999996, 16.519999999999996, 18.584999999999994, 20.64999999999999, 20.64999999999999, 22.71499999999999, 24.779999999999987, 24.779999999999987, 26.844999999999985, 28.91000000000001, 30.97500000000001, 33.040000000000006, 33.040000000000006, 35.105000000000004, 37.17, 39.235, 41.3, 43.364999999999995, 45.42999999999999, 47.49499999999999, 49.55999999999999, 51.624999999999986, 53.68999999999998, 55.75500000000001, 57.82000000000001, 59.885000000000005, 61.95, 64.015, 66.08, 68.145, 70.21, 72.27499999999999, 76.40499999999999, 78.46999999999998, 80.53500000000001, 82.60000000000001, 84.665, 88.795, 90.86, 92.925, 97.05499999999999, 99.11999999999999, 101.18499999999999, 105.31499999999998, 107.38000000000001, 109.44500000000001, 113.575, 117.705, 119.77, 121.835, 125.96499999999999, 130.09499999999997, 134.22500000000002, 138.35500000000002, 140.42000000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 173.46000000000004, 175.52500000000003, 179.65500000000003, 183.78500000000003, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21500000000003, 231.28000000000003, 233.34500000000003, 235.41000000000003, 237.47500000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.8, 249.865, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 272.58, 274.645, 276.71, 278.77500000000003, 280.84000000000003, 280.84000000000003, 282.90500000000003, 284.97, 284.97, 287.035, 289.1, 289.1, 291.165, 293.23, 293.23, 295.295, 297.36, 297.36, 297.36, 297.36, 299.425, 301.49, 301.49, 301.49, 301.49, 301.49, 301.49, 303.555, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.555]</t>
+          <t>[119.77, 121.835, 121.835, 121.835, 121.835, 121.835, 121.835, 123.89999999999999, 125.965, 125.965, 125.965, 128.03, 130.095, 130.095, 130.095, 132.16, 134.225, 134.225, 136.29, 138.355, 138.355, 140.42, 142.48499999999999, 144.54999999999998, 146.615, 146.615, 148.68, 150.745, 152.81, 154.875, 156.94, 159.005, 159.005, 161.07, 163.135, 165.2, 167.265, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 183.785, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 231.28, 233.345, 235.41, 239.54, 243.67, 247.79999999999998, 249.86499999999998, 251.93, 256.06, 260.19, 264.32, 268.45, 272.58, 276.71, 280.84, 284.96999999999997, 289.09999999999997, 293.23, 297.36, 299.425, 301.49, 305.62, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 353.115, 355.18, 357.245, 359.31, 363.44, 365.505, 367.57, 369.635, 371.7, 373.765, 375.83, 377.895, 379.96, 382.025, 384.09, 386.155, 388.21999999999997, 390.28499999999997, 392.34999999999997, 394.41499999999996, 394.41499999999996, 396.48, 398.545, 398.545, 400.61, 402.675, 404.74, 406.805, 406.805, 406.805, 408.87, 410.935, 410.935, 413.0, 415.065, 415.065, 415.065, 415.065, 417.13, 419.195, 419.195, 419.195, 419.195, 419.195, 419.195, 419.195, 421.26, 423.325, 423.325, 423.325, 421.26, 419.195, 419.195, 419.195, 419.195, 419.195, 419.195, 419.195, 417.13, 415.065, 415.065, 415.065, 415.065, 413.0, 410.935, 410.935, 410.935, 408.87, 406.805, 406.805, 404.74, 402.675, 402.675, 400.61, 398.545, 398.545, 396.48, 394.41499999999996, 392.34999999999997, 390.28499999999997, 390.28499999999997, 388.21999999999997, 386.155, 384.09, 382.025, 379.96, 377.895, 375.83, 373.765, 371.7, 369.635, 367.57, 365.505, 363.44, 361.375, 359.31, 357.245, 355.18, 353.115, 351.05, 346.92, 344.855, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 293.23, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 276.71, 272.58, 268.45, 264.32, 260.19, 256.06, 251.93, 249.86499999999998, 247.79999999999998, 243.67, 239.54, 235.41, 231.28, 229.215, 227.15, 223.01999999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 175.525, 173.46, 171.39499999999998, 169.32999999999998, 167.265, 165.2, 163.135, 161.07, 159.005, 156.94, 154.875, 152.81, 150.745, 150.745, 148.68, 146.615, 144.54999999999998, 142.48499999999999, 142.48499999999999, 140.42, 138.355, 138.355, 136.29, 134.225, 134.225, 132.16, 130.095, 130.095, 128.03, 125.965, 125.965, 125.965, 125.965, 123.89999999999999, 121.835, 121.835, 121.835, 121.835, 121.835, 121.835, 119.77, 117.705, 117.705, 117.705, 117.705, 117.705, 117.705, 117.705, 119.77]</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2.150087468353917e-09</v>
+        <v>2.150087468353916e-09</v>
       </c>
       <c r="I15" t="n">
         <v>2.091851569041874e-09</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9729146371163089</v>
+        <v>0.9729146371163091</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9641543679075761</v>
+        <v>0.7105764128716576</v>
       </c>
       <c r="L15" t="n">
-        <v>1.277653513864296e-18</v>
+        <v>1.277653513864271e-18</v>
       </c>
       <c r="M15" t="n">
-        <v>4.145075541917053e-27</v>
+        <v>7.680468542963231e-27</v>
       </c>
       <c r="N15" t="n">
-        <v>3.622860711167217e-28</v>
+        <v>1.153586957113419e-23</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.004866832622950623</v>
+        <v>-0.6379962530232559</v>
       </c>
     </row>
     <row r="16">
@@ -1262,47 +1262,47 @@
         <v>0.0006816632583503749</v>
       </c>
       <c r="C16" t="n">
-        <v>375.9180163934426</v>
+        <v>-218.2382558139535</v>
       </c>
       <c r="D16" t="n">
-        <v>154.6718852459017</v>
+        <v>238.8127906976744</v>
       </c>
       <c r="E16" t="n">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[386.155, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 402.675, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 382.025, 384.09, 386.155]</t>
+          <t>[-192.045, -189.98, -185.85, -181.72, -177.59, -173.46, -171.39499999999998, -169.32999999999998, -165.2, -163.135, -161.07, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -130.095, -128.03, -125.965, -123.89999999999999, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -280.84, -278.775, -276.71, -272.58, -268.45, -266.385, -264.32, -260.19, -256.06, -251.93, -249.86499999999998, -247.79999999999998, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -192.045]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[307.68500000000006, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 303.55500000000006, 301.49, 301.49, 301.49, 299.42500000000007, 297.36, 297.36, 297.36, 295.2950000000001, 293.23, 293.23, 291.1650000000001, 289.1, 289.1, 287.0350000000001, 284.97, 284.97, 282.9050000000001, 280.84000000000003, 278.7750000000001, 276.71000000000004, 274.645, 272.58000000000004, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.19000000000005, 258.125, 253.995, 251.93000000000006, 249.865, 247.80000000000007, 245.735, 243.67000000000007, 241.60500000000002, 237.47500000000002, 235.41000000000008, 233.34500000000003, 229.21500000000003, 227.1500000000001, 225.08500000000004, 220.95500000000004, 218.89, 216.82500000000005, 212.69500000000005, 210.63, 208.56500000000005, 204.43500000000006, 200.30500000000006, 196.17500000000007, 194.11, 192.04500000000007, 187.91500000000008, 183.78500000000008, 179.6550000000001, 175.5250000000001, 171.3950000000001, 169.33000000000004, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 144.55000000000007, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83500000000004, 119.7700000000001, 117.70500000000004, 113.57500000000005, 109.44500000000005, 107.38, 105.31500000000005, 101.18500000000006, 97.05500000000006, 94.99000000000001, 92.92500000000007, 88.79500000000007, 86.73000000000002, 84.66500000000008, 80.53500000000008, 78.47000000000003, 76.40500000000009, 74.34000000000003, 72.27500000000009, 68.1450000000001, 66.08000000000004, 64.01499999999999, 61.950000000000045, 59.88499999999999, 57.82000000000005, 55.754999999999995, 53.690000000000055, 51.625, 49.56000000000006, 47.495000000000005, 45.430000000000064, 43.36500000000001, 41.30000000000007, 39.235000000000014, 37.17000000000007, 35.10500000000002, 33.04000000000008, 30.975000000000023, 28.910000000000082, 28.910000000000082, 26.845000000000027, 24.780000000000086, 22.715000000000032, 20.65000000000009, 20.65000000000009, 18.585000000000036, 16.520000000000095, 16.520000000000095, 14.455000000000041, 12.389999999999986, 12.389999999999986, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.19500000000005, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0650000000000546, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0650000000000546, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.19500000000005, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.520000000000095, 16.520000000000095, 18.585000000000036, 20.65000000000009, 22.715000000000032, 24.780000000000086, 24.780000000000086, 26.845000000000027, 28.910000000000082, 30.975000000000023, 33.04000000000008, 33.04000000000008, 35.10500000000002, 37.17000000000007, 39.235000000000014, 41.30000000000007, 43.36500000000001, 45.430000000000064, 47.495000000000005, 49.56000000000006, 51.625, 53.690000000000055, 55.754999999999995, 57.82000000000005, 59.88499999999999, 64.01499999999999, 66.08000000000004, 68.1450000000001, 70.21000000000004, 72.27500000000009, 76.40500000000009, 78.47000000000003, 80.53500000000008, 84.66500000000008, 86.73000000000002, 88.79500000000007, 92.92500000000007, 94.99000000000001, 97.05500000000006, 101.18500000000006, 105.31500000000005, 107.38, 109.44500000000005, 113.57500000000005, 117.70500000000004, 121.83500000000004, 123.90000000000009, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 171.3950000000001, 173.46000000000004, 175.5250000000001, 179.6550000000001, 183.78500000000008, 187.91500000000008, 189.98000000000002, 192.04500000000007, 196.17500000000007, 200.30500000000006, 202.37, 204.43500000000006, 208.56500000000005, 210.63, 212.69500000000005, 216.82500000000005, 218.89, 220.95500000000004, 225.08500000000004, 227.1500000000001, 229.21500000000003, 233.34500000000003, 235.41000000000008, 237.47500000000002, 239.54000000000008, 241.60500000000002, 243.67000000000007, 245.735, 249.865, 251.93000000000006, 253.995, 256.06000000000006, 258.125, 260.19000000000005, 262.255, 264.32000000000005, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.7750000000001, 280.84000000000003, 280.84000000000003, 282.9050000000001, 284.97, 284.97, 287.0350000000001, 289.1, 289.1, 291.1650000000001, 293.23, 293.23, 295.2950000000001, 297.36, 297.36, 297.36, 299.42500000000007, 301.49, 301.49, 301.49, 303.55500000000006, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 305.62, 307.68500000000006, 309.75, 307.68500000000006]</t>
+          <t>[90.86, 92.925, 92.925, 92.925, 92.925, 92.925, 94.99, 97.05499999999999, 97.05499999999999, 99.12, 101.185, 101.185, 101.185, 103.25, 105.315, 105.315, 107.38, 109.445, 109.445, 111.50999999999999, 113.575, 115.64, 117.705, 119.77, 121.835, 121.835, 123.89999999999999, 125.965, 128.03, 130.095, 132.16, 134.225, 136.29, 138.355, 140.42, 142.48499999999999, 144.54999999999998, 146.615, 148.68, 152.81, 154.875, 156.94, 159.005, 161.07, 165.2, 167.265, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 202.37, 204.435, 206.5, 210.63, 214.76, 218.89, 223.01999999999998, 225.085, 227.15, 231.28, 235.41, 239.54, 243.67, 247.79999999999998, 251.93, 256.06, 260.19, 264.32, 266.385, 268.45, 272.58, 276.71, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 348.985, 348.985, 351.05, 353.115, 355.18, 357.245, 359.31, 361.375, 363.44, 365.505, 365.505, 367.57, 369.635, 369.635, 371.7, 373.765, 373.765, 375.83, 377.895, 377.895, 379.96, 382.025, 382.025, 382.025, 384.09, 386.155, 386.155, 386.155, 386.155, 388.21999999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 390.28499999999997, 388.21999999999997, 386.155, 386.155, 386.155, 386.155, 384.09, 382.025, 382.025, 382.025, 379.96, 377.895, 377.895, 377.895, 375.83, 373.765, 373.765, 371.7, 369.635, 369.635, 367.57, 365.505, 365.505, 363.44, 361.375, 359.31, 357.245, 355.18, 353.115, 353.115, 351.05, 348.985, 346.92, 344.855, 342.78999999999996, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 268.45, 264.32, 260.19, 256.06, 253.995, 251.93, 247.79999999999998, 243.67, 239.54, 235.41, 231.28, 227.15, 223.01999999999998, 218.89, 216.825, 214.76, 210.63, 206.5, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 159.005, 156.94, 154.875, 152.81, 150.745, 148.68, 144.54999999999998, 142.48499999999999, 140.42, 138.355, 136.29, 134.225, 132.16, 130.095, 128.03, 125.965, 123.89999999999999, 121.835, 121.835, 119.77, 117.705, 115.64, 113.575, 111.50999999999999, 109.445, 109.445, 107.38, 105.315, 105.315, 103.25, 101.185, 101.185, 101.185, 99.12, 97.05499999999999, 97.05499999999999, 97.05499999999999, 94.99, 92.925, 92.925, 92.925, 92.925, 90.86, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 88.795, 90.86]</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2.074794669041874e-09</v>
+        <v>2.118900169729833e-09</v>
       </c>
       <c r="I16" t="n">
-        <v>2.211249869041874e-09</v>
+        <v>2.118900169729833e-09</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9382904655369745</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9522310211760954</v>
+        <v>0.7672170732121211</v>
       </c>
       <c r="L16" t="n">
-        <v>1.304710732762054e-18</v>
+        <v>1.279399140889998e-18</v>
       </c>
       <c r="M16" t="n">
-        <v>4.149646053055925e-27</v>
+        <v>7.661053614464276e-27</v>
       </c>
       <c r="N16" t="n">
-        <v>5.857267066219326e-27</v>
+        <v>1.150122445270253e-23</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01955819639084644</v>
+        <v>-0.6378441923762384</v>
       </c>
     </row>
     <row r="17">
@@ -1315,47 +1315,47 @@
         <v>0.0007303534910896875</v>
       </c>
       <c r="C17" t="n">
-        <v>375.8232295081967</v>
+        <v>-218.2834488448845</v>
       </c>
       <c r="D17" t="n">
-        <v>155.4301803278689</v>
+        <v>207.6858415841584</v>
       </c>
       <c r="E17" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[406.805, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 398.545, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 406.805]</t>
+          <t>[-200.305, -198.24, -194.10999999999999, -189.98, -185.85, -181.72, -179.655, -177.59, -173.46, -169.32999999999998, -167.265, -165.2, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -204.435, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -276.71, -274.645, -272.58, -268.45, -264.32, -262.255, -260.19, -256.06, -251.93, -247.79999999999998, -243.67, -239.54, -237.475, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -200.305]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[307.68499999999995, 305.62, 305.62, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 253.995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 237.47500000000002, 235.40999999999997, 233.34500000000003, 231.27999999999997, 229.21500000000003, 225.08500000000004, 220.95500000000004, 218.89, 216.82500000000005, 212.69500000000005, 210.63, 208.56500000000005, 204.43500000000006, 200.30499999999995, 196.17499999999995, 194.11, 192.04499999999996, 187.91499999999996, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 165.20000000000005, 163.135, 159.005, 154.875, 152.81000000000006, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 123.89999999999998, 121.83500000000004, 117.70500000000004, 113.57500000000005, 109.44500000000005, 107.38, 105.31500000000005, 101.18500000000006, 99.12, 97.05499999999995, 92.92499999999995, 90.86000000000001, 88.79499999999996, 84.66499999999996, 82.60000000000002, 80.53499999999997, 76.40499999999997, 74.34000000000003, 72.27499999999998, 70.21000000000004, 68.14499999999998, 64.01499999999999, 61.950000000000045, 59.88499999999999, 57.82000000000005, 55.754999999999995, 53.690000000000055, 51.625, 49.56000000000006, 47.495000000000005, 45.42999999999995, 43.36500000000001, 41.299999999999955, 39.235000000000014, 37.16999999999996, 35.10500000000002, 33.039999999999964, 33.039999999999964, 30.975000000000023, 28.909999999999968, 26.845000000000027, 24.779999999999973, 24.779999999999973, 22.715000000000032, 20.649999999999977, 18.585000000000036, 16.519999999999982, 16.519999999999982, 14.455000000000041, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.325000000000045, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.19500000000005, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0650000000000546, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0650000000000546, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.19500000000005, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.325000000000045, 12.389999999999986, 12.389999999999986, 14.455000000000041, 16.519999999999982, 16.519999999999982, 18.585000000000036, 20.649999999999977, 20.649999999999977, 22.715000000000032, 24.779999999999973, 24.779999999999973, 26.845000000000027, 28.909999999999968, 30.975000000000023, 33.039999999999964, 35.10500000000002, 37.16999999999996, 39.235000000000014, 41.299999999999955, 41.299999999999955, 43.36500000000001, 45.42999999999995, 47.495000000000005, 49.56000000000006, 51.625, 55.754999999999995, 57.82000000000005, 59.88499999999999, 61.950000000000045, 64.01499999999999, 66.08000000000004, 68.14499999999998, 72.27499999999998, 74.34000000000003, 76.40499999999997, 78.47000000000003, 80.53499999999997, 84.66499999999996, 86.73000000000002, 88.79499999999996, 92.92499999999995, 94.99000000000001, 97.05499999999995, 101.18500000000006, 105.31500000000005, 107.38, 109.44500000000005, 113.57500000000005, 117.70500000000004, 121.83500000000004, 123.89999999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 175.52499999999998, 177.59000000000003, 179.65499999999997, 183.78499999999997, 187.91499999999996, 192.04499999999996, 194.11, 196.17499999999995, 200.30499999999995, 204.43500000000006, 206.5, 208.56500000000005, 212.69500000000005, 214.76, 216.82500000000005, 220.95500000000004, 223.01999999999998, 225.08500000000004, 229.21500000000003, 231.27999999999997, 233.34500000000003, 235.40999999999997, 237.47500000000002, 239.53999999999996, 241.60500000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 307.68499999999995, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 307.68499999999995]</t>
+          <t>[57.82, 59.885, 59.885, 59.885, 59.885, 59.885, 61.949999999999996, 64.015, 64.015, 64.015, 66.08, 68.145, 68.145, 68.145, 70.21, 72.27499999999999, 72.27499999999999, 74.34, 76.405, 76.405, 78.47, 80.535, 82.6, 84.66499999999999, 84.66499999999999, 86.73, 88.795, 90.86, 92.925, 94.99, 97.05499999999999, 97.05499999999999, 99.12, 101.185, 103.25, 105.315, 107.38, 111.50999999999999, 113.575, 115.64, 117.705, 119.77, 121.835, 123.89999999999999, 128.03, 130.095, 132.16, 134.225, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 185.85, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 206.5, 210.63, 214.76, 218.89, 223.01999999999998, 227.15, 231.28, 233.345, 235.41, 239.54, 243.67, 247.79999999999998, 251.93, 253.995, 256.06, 260.19, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 324.205, 326.27, 328.335, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 338.65999999999997, 340.72499999999997, 340.72499999999997, 342.78999999999996, 344.855, 344.855, 346.92, 348.985, 348.985, 351.05, 353.115, 353.115, 353.115, 353.115, 355.18, 357.245, 357.245, 357.245, 357.245, 357.245, 357.245, 357.245, 359.31, 361.375, 361.375, 359.31, 357.245, 357.245, 357.245, 357.245, 357.245, 357.245, 357.245, 357.245, 357.245, 355.18, 353.115, 353.115, 353.115, 351.05, 348.985, 348.985, 348.985, 346.92, 344.855, 344.855, 342.78999999999996, 340.72499999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 328.335, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 264.32, 262.255, 260.19, 256.06, 253.995, 251.93, 247.79999999999998, 243.67, 241.605, 239.54, 235.41, 231.28, 227.15, 225.085, 223.01999999999998, 218.89, 214.76, 210.63, 206.5, 202.37, 198.24, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 150.745, 148.68, 144.54999999999998, 142.48499999999999, 140.42, 136.29, 134.225, 132.16, 130.095, 128.03, 123.89999999999999, 121.835, 119.77, 117.705, 115.64, 113.575, 111.50999999999999, 107.38, 105.315, 103.25, 101.185, 99.12, 97.05499999999999, 97.05499999999999, 94.99, 92.925, 90.86, 88.795, 86.73, 84.66499999999999, 84.66499999999999, 82.6, 80.535, 78.47, 76.405, 76.405, 74.34, 72.27499999999999, 72.27499999999999, 70.21, 68.145, 68.145, 68.145, 66.08, 64.015, 64.015, 64.015, 61.949999999999996, 59.885, 59.885, 59.885, 59.885, 59.885, 59.885, 57.82, 55.754999999999995, 55.754999999999995, 55.754999999999995, 55.754999999999995, 55.754999999999995, 55.754999999999995, 55.754999999999995, 55.754999999999995, 55.754999999999995, 57.82]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2.057737769041874e-09</v>
+        <v>2.098916768353916e-09</v>
       </c>
       <c r="I17" t="n">
-        <v>2.228306769041874e-09</v>
+        <v>2.153013969729833e-09</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9234535377400748</v>
+        <v>0.9748737341529162</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9522310211760954</v>
+        <v>0.8247402359372141</v>
       </c>
       <c r="L17" t="n">
-        <v>1.308201986813336e-18</v>
+        <v>1.280562892240417e-18</v>
       </c>
       <c r="M17" t="n">
-        <v>4.131108070270088e-27</v>
+        <v>7.779104798416759e-27</v>
       </c>
       <c r="N17" t="n">
-        <v>2.577572156542515e-27</v>
+        <v>1.166338470842565e-23</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01300346085537996</v>
+        <v>-0.6374326520930229</v>
       </c>
     </row>
     <row r="18">
@@ -1368,47 +1368,47 @@
         <v>0.0007790437238289999</v>
       </c>
       <c r="C18" t="n">
-        <v>374.7327557755775</v>
+        <v>-218.595</v>
       </c>
       <c r="D18" t="n">
-        <v>155.9381683168317</v>
+        <v>176.7393023255814</v>
       </c>
       <c r="E18" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[415.065, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 394.41499999999996, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065]</t>
+          <t>[-187.915, -185.85, -181.72, -177.59, -173.46, -171.39499999999998, -169.32999999999998, -165.2, -163.135, -161.07, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -125.965, -123.89999999999999, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -272.58, -270.515, -268.45, -264.32, -260.19, -256.06, -253.995, -251.93, -247.79999999999998, -243.67, -239.54, -235.41, -231.28, -227.15, -223.01999999999998, -218.89, -214.76, -210.63, -206.5, -202.37, -198.24, -194.10999999999999, -189.98, -187.915]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[307.68499999999995, 305.62, 305.62, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.0999999999999, 289.0999999999999, 287.03499999999997, 284.9699999999999, 284.9699999999999, 282.905, 280.8399999999999, 278.775, 276.7099999999999, 274.645, 272.5799999999999, 270.515, 268.44999999999993, 266.385, 264.31999999999994, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 245.735, 243.66999999999996, 241.60500000000002, 239.53999999999996, 237.47500000000002, 233.3449999999999, 231.27999999999997, 229.21499999999992, 225.08499999999992, 223.01999999999998, 220.95499999999993, 216.82499999999993, 212.69499999999994, 210.63, 208.56499999999994, 204.43499999999995, 200.30499999999995, 196.17499999999995, 194.11, 192.04499999999996, 187.91499999999996, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.0949999999999, 128.02999999999997, 125.96499999999992, 121.83499999999992, 117.70499999999993, 113.57499999999993, 111.50999999999999, 109.44499999999994, 105.31499999999994, 101.18499999999995, 99.12, 97.05499999999995, 92.92499999999995, 90.86000000000001, 88.79499999999996, 84.66499999999996, 82.60000000000002, 80.53499999999997, 78.46999999999991, 76.40499999999997, 72.27499999999998, 70.20999999999992, 68.14499999999998, 66.07999999999993, 64.01499999999999, 61.94999999999993, 59.88499999999999, 55.754999999999995, 53.68999999999994, 51.625, 49.559999999999945, 47.495000000000005, 45.42999999999995, 43.36500000000001, 41.299999999999955, 41.299999999999955, 39.235000000000014, 37.16999999999996, 35.10500000000002, 33.039999999999964, 30.975000000000023, 28.909999999999968, 26.845000000000027, 24.779999999999973, 24.779999999999973, 22.714999999999918, 20.649999999999977, 20.649999999999977, 18.584999999999923, 16.519999999999982, 16.519999999999982, 14.454999999999927, 12.389999999999986, 12.389999999999986, 10.324999999999932, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999936, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.064999999999941, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.064999999999941, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999936, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999932, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999927, 16.519999999999982, 16.519999999999982, 18.584999999999923, 20.649999999999977, 20.649999999999977, 22.714999999999918, 24.779999999999973, 26.845000000000027, 28.909999999999968, 28.909999999999968, 30.975000000000023, 33.039999999999964, 35.10500000000002, 37.16999999999996, 39.235000000000014, 41.299999999999955, 43.36500000000001, 45.42999999999995, 47.495000000000005, 49.559999999999945, 51.625, 53.68999999999994, 55.754999999999995, 57.819999999999936, 59.88499999999999, 61.94999999999993, 64.01499999999999, 66.07999999999993, 68.14499999999998, 72.27499999999998, 74.33999999999992, 76.40499999999997, 78.46999999999991, 80.53499999999997, 84.66499999999996, 86.73000000000002, 88.79499999999996, 92.92499999999995, 97.05499999999995, 99.12, 101.18499999999995, 105.31499999999994, 107.38, 109.44499999999994, 113.57499999999993, 117.70499999999993, 121.83499999999992, 123.89999999999998, 125.96499999999992, 130.0949999999999, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999992, 179.65499999999997, 183.78499999999997, 187.91499999999996, 192.04499999999996, 194.11, 196.17499999999995, 200.30499999999995, 204.43499999999995, 206.5, 208.56499999999994, 212.69499999999994, 214.76, 216.82499999999993, 220.95499999999993, 223.01999999999998, 225.08499999999992, 229.21499999999992, 231.27999999999997, 233.3449999999999, 235.40999999999997, 237.47500000000002, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.31999999999994, 266.385, 268.44999999999993, 270.515, 272.5799999999999, 274.645, 276.7099999999999, 278.775, 280.8399999999999, 280.8399999999999, 282.905, 284.9699999999999, 287.03499999999997, 289.0999999999999, 289.0999999999999, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 305.62, 305.62, 307.68499999999995, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 309.75, 307.68499999999995]</t>
+          <t>[28.91, 30.974999999999998, 30.974999999999998, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 35.105, 37.17, 39.235, 39.235, 39.235, 41.3, 43.365, 43.365, 45.43, 47.495, 49.56, 51.625, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 76.405, 78.47, 80.535, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 97.05499999999999, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 130.095, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 181.72, 185.85, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 206.5, 210.63, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 231.28, 233.345, 235.41, 239.54, 241.605, 243.67, 247.79999999999998, 249.86499999999998, 251.93, 256.06, 258.125, 260.19, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 299.425, 301.49, 303.555, 305.62, 307.685, 307.685, 309.75, 311.815, 311.815, 313.88, 315.945, 315.945, 318.01, 320.075, 320.075, 320.075, 322.14, 324.205, 324.205, 324.205, 324.205, 324.205, 326.27, 328.335, 328.335, 328.335, 328.335, 328.335, 328.335, 328.335, 328.335, 328.335, 328.335, 328.335, 328.335, 326.27, 324.205, 324.205, 324.205, 324.205, 324.205, 322.14, 320.075, 320.075, 320.075, 318.01, 315.945, 315.945, 313.88, 311.815, 311.815, 309.75, 307.685, 307.685, 305.62, 303.555, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 243.67, 241.605, 239.54, 235.41, 233.345, 231.28, 227.15, 225.085, 223.01999999999998, 218.89, 214.76, 212.695, 210.63, 206.5, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 181.72, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 146.615, 144.54999999999998, 140.42, 136.29, 132.16, 130.095, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 105.315, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 47.495, 45.43, 43.365, 43.365, 41.3, 39.235, 39.235, 37.17, 35.105, 35.105, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 26.845, 28.91]</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2.160079169041873e-09</v>
+        <v>2.074794669041874e-09</v>
       </c>
       <c r="I18" t="n">
-        <v>2.101843269729833e-09</v>
+        <v>2.153013969729833e-09</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9730399236534133</v>
+        <v>0.9636698591891748</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9398643845374448</v>
+        <v>0.9020330062655922</v>
       </c>
       <c r="L18" t="n">
-        <v>1.308783862488595e-18</v>
+        <v>1.280853830078022e-18</v>
       </c>
       <c r="M18" t="n">
-        <v>4.183440292892299e-27</v>
+        <v>7.707827950033588e-27</v>
       </c>
       <c r="N18" t="n">
-        <v>3.125424373729725e-23</v>
+        <v>4.754510920823385e-24</v>
       </c>
       <c r="O18" t="n">
-        <v>1.422900482903634</v>
+        <v>-0.4088591633088052</v>
       </c>
     </row>
     <row r="19">
@@ -1421,47 +1421,47 @@
         <v>0.0008277339565683124</v>
       </c>
       <c r="C19" t="n">
-        <v>375.5304352030947</v>
+        <v>-218.7145945945946</v>
       </c>
       <c r="D19" t="n">
-        <v>293.9928916827853</v>
+        <v>167.8709459459459</v>
       </c>
       <c r="E19" t="n">
-        <v>517</v>
+        <v>259</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[394.41499999999996, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 460.495, 458.43, 456.365, 454.3, 452.235, 452.235, 452.235, 454.3, 456.365, 458.43, 460.495, 462.56, 464.625, 466.69, 468.755, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 394.41499999999996]</t>
+          <t>[-142.48499999999999, -142.48499999999999, -140.42, -138.355, -136.29, -134.225, -132.16, -130.095, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -299.425, -301.49]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[588.525, 586.4599999999999, 586.4599999999999, 586.4599999999999, 586.4599999999999, 586.4599999999999, 586.4599999999999, 584.395, 582.3299999999999, 582.3299999999999, 582.3299999999999, 580.265, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 563.745, 561.68, 561.68, 559.615, 557.55, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.0949999999999, 541.03, 538.9649999999999, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 510.05499999999995, 507.99, 505.92499999999995, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 489.405, 487.3399999999999, 485.275, 481.145, 477.015, 472.885, 470.81999999999994, 468.755, 464.625, 460.495, 456.365, 452.235, 448.105, 443.975, 439.8449999999999, 435.7149999999999, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 379.9599999999999, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.4649999999999, 328.3349999999999, 326.27, 324.2049999999999, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 291.16499999999996, 287.03499999999997, 284.97, 282.905, 280.8399999999999, 278.775, 276.7099999999999, 274.645, 272.5799999999999, 270.515, 268.44999999999993, 266.385, 264.32000000000005, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 256.05999999999995, 253.99499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 229.215, 227.15, 225.085, 223.02, 220.955, 216.82500000000002, 214.76000000000002, 212.69500000000002, 208.56500000000003, 206.50000000000003, 204.43500000000003, 200.30499999999998, 196.17499999999998, 194.10999999999999, 192.045, 187.915, 183.785, 181.72, 179.655, 175.525, 171.395, 167.26500000000001, 163.13500000000002, 159.00500000000002, 156.94000000000003, 154.87500000000003, 150.74500000000003, 146.61499999999998, 142.48499999999999, 138.355, 134.225, 132.16, 130.095, 125.965, 121.83500000000001, 117.70500000000001, 113.57500000000002, 109.44500000000002, 107.38000000000002, 105.31500000000003, 101.18500000000003, 97.05499999999998, 94.98999999999998, 92.92499999999998, 88.79499999999999, 84.66499999999999, 82.6, 80.535, 76.405, 74.34, 72.275, 70.21000000000001, 68.14500000000001, 64.01500000000001, 61.95000000000002, 59.88500000000002, 57.82000000000002, 55.755000000000024, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 43.36499999999998, 41.29999999999998, 39.234999999999985, 37.16999999999999, 35.10499999999999, 33.03999999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 26.845, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 26.845, 28.909999999999997, 28.909999999999997, 30.974999999999994, 33.03999999999999, 35.10499999999999, 37.16999999999999, 39.234999999999985, 41.29999999999998, 43.36499999999998, 45.430000000000035, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 66.08000000000001, 68.14500000000001, 70.21000000000001, 72.275, 76.405, 78.47, 80.535, 82.6, 84.66499999999999, 88.79499999999999, 90.85999999999999, 92.92499999999998, 97.05499999999998, 101.18500000000003, 103.25000000000003, 105.31500000000003, 109.44500000000002, 111.51000000000002, 113.57500000000002, 117.70500000000001, 121.83500000000001, 125.965, 128.03, 130.095, 134.225, 138.355, 142.48499999999999, 146.61499999999998, 150.74500000000003, 154.87500000000003, 159.00500000000002, 163.13500000000002, 167.26500000000001, 171.395, 175.525, 179.655, 181.72, 183.785, 187.915, 192.045, 194.10999999999999, 196.17499999999998, 200.30499999999998, 204.43500000000003, 206.50000000000003, 208.56500000000003, 212.69500000000002, 214.76000000000002, 216.82500000000002, 220.955, 223.02, 225.085, 229.215, 231.28, 233.345, 235.41, 237.475, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.92999999999998, 253.99499999999998, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 264.32000000000005, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 274.645, 276.7099999999999, 278.775, 280.8399999999999, 282.905, 284.97, 287.03499999999997, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.4649999999999, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.8299999999999, 377.895, 382.025, 384.0899999999999, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.7149999999999, 439.8449999999999, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 481.145, 483.2099999999999, 485.275, 489.405, 491.4699999999999, 493.53499999999997, 497.66499999999996, 499.73, 501.79499999999996, 505.92499999999995, 507.99, 510.05499999999995, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.9649999999999, 541.03, 543.0949999999999, 545.16, 547.225, 549.29, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 561.68, 561.68, 563.745, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 580.265, 582.3299999999999, 582.3299999999999, 582.3299999999999, 582.3299999999999, 584.395, 586.4599999999999, 586.4599999999999, 586.4599999999999, 586.4599999999999, 586.4599999999999, 586.4599999999999, 588.525, 590.5899999999999, 590.5899999999999, 590.5899999999999, 590.5899999999999, 590.5899999999999, 590.5899999999999, 588.525]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 138.355, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 177.59, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 231.28, 233.345, 235.41, 237.475, 239.54, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 293.23, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 295.295, 293.23, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H19" t="n">
         <v>2.060664270417792e-09</v>
       </c>
       <c r="I19" t="n">
-        <v>5.122040618132956e-09</v>
+        <v>2.1924300514121e-09</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4023131451013224</v>
+        <v>0.9398996647991389</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5172550575949694</v>
+        <v>0.9953113076711788</v>
       </c>
       <c r="L19" t="n">
-        <v>2.567962823664435e-18</v>
+        <v>1.276417028054482e-18</v>
       </c>
       <c r="M19" t="n">
-        <v>7.921214176021784e-27</v>
+        <v>7.752224788336236e-27</v>
       </c>
       <c r="N19" t="n">
-        <v>3.605967923089515e-23</v>
+        <v>6.770002692277522e-25</v>
       </c>
       <c r="O19" t="n">
-        <v>1.110713034554454</v>
+        <v>-0.1538395705813946</v>
       </c>
     </row>
     <row r="20">
@@ -1474,47 +1474,47 @@
         <v>0.0008764241893076249</v>
       </c>
       <c r="C20" t="n">
-        <v>376.4902380952381</v>
+        <v>-218.3690990990991</v>
       </c>
       <c r="D20" t="n">
-        <v>264.0999206349206</v>
+        <v>161.7583333333334</v>
       </c>
       <c r="E20" t="n">
-        <v>441</v>
+        <v>222</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[406.805, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 214.76, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 406.805]</t>
+          <t>[-90.86, -92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -68.145, -68.145, -68.145, -68.145, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -379.96, -382.025, -379.96, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[526.575, 524.51, 524.51, 524.51, 524.51, 522.445, 520.38, 520.38, 520.38, 518.315, 516.25, 516.25, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.69000000000005, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19500000000005, 415.06500000000005, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 367.57000000000005, 365.505, 361.375, 357.245, 353.115, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 328.33500000000004, 324.20500000000004, 320.07500000000005, 315.94500000000005, 311.81500000000005, 309.75, 307.68500000000006, 303.55499999999995, 299.42499999999995, 295.29499999999996, 291.16499999999996, 289.1, 287.03499999999997, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 264.32000000000005, 262.255, 258.125, 256.06000000000006, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 229.21500000000003, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 208.565, 204.435, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65500000000003, 175.52500000000003, 171.39499999999998, 167.265, 165.2, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 123.90000000000003, 121.83500000000004, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 72.27500000000003, 70.21000000000004, 68.14499999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.585000000000036, 16.52000000000004, 16.52000000000004, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.52000000000004, 16.52000000000004, 18.585000000000036, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.21000000000004, 72.27500000000003, 76.40500000000003, 78.47000000000003, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83500000000004, 123.90000000000003, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 148.68, 150.745, 152.81, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 175.52500000000003, 179.65500000000003, 183.78500000000003, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 204.435, 208.565, 212.695, 216.825, 220.95499999999998, 225.08499999999998, 227.14999999999998, 229.21500000000003, 233.34500000000003, 237.47500000000002, 239.53999999999996, 241.60500000000002, 243.66999999999996, 245.735, 249.865, 251.92999999999995, 253.995, 256.06000000000006, 258.125, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 282.905, 284.97, 287.03499999999997, 291.16499999999996, 295.29499999999996, 297.36, 299.42499999999995, 303.55499999999995, 307.68500000000006, 311.81500000000005, 315.94500000000005, 320.07500000000005, 324.20500000000004, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 340.725, 344.855, 348.985, 353.115, 357.245, 361.375, 365.505, 369.635, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 413.0, 415.06500000000005, 419.19500000000005, 423.32500000000005, 425.39, 427.45500000000004, 431.58500000000004, 433.65, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 450.16999999999996, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 466.69000000000005, 468.755, 470.82000000000005, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 516.25, 518.315, 520.38, 520.38, 520.38, 522.445, 524.51, 524.51, 524.51, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 528.64, 528.64, 528.64, 528.64, 528.64, 528.64, 528.64, 528.64, 528.64, 526.575]</t>
+          <t>[2.065, 4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 28.91, 30.974999999999998, 33.04, 37.17, 41.3, 45.43, 47.495, 49.56, 53.69, 57.82, 61.949999999999996, 66.08, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 266.385, 266.385, 266.385, 266.385, 266.385, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 183.785, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 154.875, 152.81, 148.68, 144.54999999999998, 142.48499999999999, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 99.12, 94.99, 90.86, 86.73, 82.6, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 61.949999999999996, 57.82, 53.69, 49.56, 45.43, 41.3, 39.235, 37.17, 33.04, 28.91, 26.845, 24.78, 22.715, 20.65, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.218317057346583e-09</v>
+        <v>2.167144368353916e-09</v>
       </c>
       <c r="I20" t="n">
-        <v>3.087714860098416e-09</v>
+        <v>2.071087665391027e-09</v>
       </c>
       <c r="J20" t="n">
-        <v>0.959419101685449</v>
+        <v>0.9556759095676443</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5826864578165337</v>
+        <v>1.108541410444295</v>
       </c>
       <c r="L20" t="n">
-        <v>2.44053205079144e-18</v>
+        <v>1.217283912560228e-18</v>
       </c>
       <c r="M20" t="n">
-        <v>6.574277527830204e-27</v>
+        <v>7.270388590238631e-27</v>
       </c>
       <c r="N20" t="n">
-        <v>8.778094947068983e-24</v>
+        <v>1.515576197082758e-24</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.601537819431698</v>
+        <v>-0.2376823282113714</v>
       </c>
     </row>
     <row r="21">
@@ -1527,47 +1527,47 @@
         <v>0.0009251144220469374</v>
       </c>
       <c r="C21" t="n">
-        <v>375.0185764705883</v>
+        <v>-219.6692452830189</v>
       </c>
       <c r="D21" t="n">
-        <v>235.4148588235294</v>
+        <v>144.7253301886792</v>
       </c>
       <c r="E21" t="n">
-        <v>425</v>
+        <v>212</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[402.675, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 214.76, 212.695, 210.63, 208.565, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 200.305, 202.37, 204.435, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 402.675]</t>
+          <t>[-68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -375.83, -377.895, -377.895, -379.96, -382.025, -384.09, -386.155, -386.155, -388.21999999999997, -390.28499999999997, -390.28499999999997, -392.34999999999997, -394.41499999999996, -394.41499999999996, -396.48, -398.545, -398.545, -398.545, -398.545, -398.545, -398.545, -398.545, -398.545, -398.545, -398.545, -398.545, -396.48, -394.41499999999996, -394.41499999999996, -392.34999999999997, -390.28499999999997, -388.21999999999997, -386.155, -386.155, -384.09, -382.025, -379.96, -377.895, -375.83, -373.765, -373.765]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[468.75499999999994, 466.69, 466.69, 466.69, 466.69, 466.69, 464.62499999999994, 462.56, 462.56, 462.56, 460.49499999999995, 458.43, 458.43, 458.43, 456.36499999999995, 454.3, 454.3, 452.23499999999996, 450.17, 448.10499999999996, 446.04, 446.04, 443.97499999999997, 441.91, 441.91, 439.84499999999997, 437.78000000000003, 435.715, 433.6499999999999, 431.585, 429.5199999999999, 427.455, 425.38999999999993, 423.325, 421.25999999999993, 419.195, 417.12999999999994, 415.065, 410.935, 408.86999999999995, 406.805, 404.73999999999995, 402.675, 398.545, 396.47999999999996, 394.415, 390.285, 388.21999999999997, 386.15500000000003, 382.0249999999999, 377.8949999999999, 375.83, 373.76499999999993, 369.63499999999993, 367.57, 365.50499999999994, 361.37499999999994, 357.24499999999995, 355.18, 353.11499999999995, 348.98499999999996, 346.92, 344.85499999999996, 340.72499999999997, 338.66, 336.59499999999997, 332.465, 330.3999999999999, 328.335, 326.2699999999999, 324.205, 320.075, 315.945, 311.815, 309.74999999999994, 307.685, 303.555, 299.425, 295.295, 291.165, 287.035, 282.90500000000003, 278.77500000000003, 274.6449999999999, 272.58, 270.51499999999993, 266.38499999999993, 262.25499999999994, 260.19, 258.12499999999994, 253.99499999999995, 251.93, 249.86499999999995, 247.8, 245.73499999999996, 243.67000000000002, 241.60499999999996, 239.54000000000002, 237.47499999999997, 233.34499999999997, 229.21499999999997, 227.15000000000003, 225.08499999999998, 223.01999999999992, 220.95499999999998, 218.88999999999993, 216.825, 212.695, 210.62999999999994, 208.565, 206.5, 204.435, 200.305, 196.17499999999995, 194.10999999999996, 192.04499999999996, 187.91499999999996, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 152.81, 150.745, 146.615, 142.48499999999996, 140.41999999999996, 138.35499999999996, 134.22499999999997, 132.15999999999997, 130.09499999999997, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.85999999999996, 88.79499999999996, 84.66499999999996, 80.53499999999997, 78.46999999999997, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.23499999999996, 37.16999999999996, 37.16999999999996, 35.10499999999996, 33.039999999999964, 30.974999999999966, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 26.84499999999997, 28.909999999999968, 28.909999999999968, 30.974999999999966, 33.039999999999964, 33.039999999999964, 35.10499999999996, 37.16999999999996, 39.23499999999996, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.46999999999997, 80.53499999999997, 82.59999999999997, 84.66499999999996, 88.79499999999996, 90.85999999999996, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96499999999997, 128.02999999999997, 130.09499999999997, 134.22499999999997, 136.28999999999996, 138.35499999999996, 142.48499999999996, 144.54999999999995, 146.615, 150.745, 152.81, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 187.91499999999996, 192.04499999999996, 196.17499999999995, 198.23999999999995, 200.305, 204.435, 206.5, 208.565, 210.62999999999994, 212.695, 216.825, 218.88999999999993, 220.95499999999998, 223.01999999999992, 225.08499999999998, 227.15000000000003, 229.21499999999997, 233.34499999999997, 237.47499999999997, 239.54000000000002, 241.60499999999996, 243.67000000000002, 245.73499999999996, 247.8, 249.86499999999995, 251.93, 253.99499999999995, 256.06, 258.12499999999994, 262.25499999999994, 266.38499999999993, 268.45, 270.51499999999993, 274.6449999999999, 278.77500000000003, 282.90500000000003, 287.035, 291.165, 295.295, 299.425, 303.555, 307.685, 309.74999999999994, 311.815, 315.945, 320.075, 322.13999999999993, 324.205, 328.335, 330.3999999999999, 332.465, 336.59499999999997, 338.66, 340.72499999999997, 344.85499999999996, 346.92, 348.98499999999996, 351.05, 353.11499999999995, 357.24499999999995, 359.31, 361.37499999999994, 365.50499999999994, 367.57, 369.63499999999993, 373.76499999999993, 375.83, 377.8949999999999, 382.0249999999999, 384.09, 386.15500000000003, 390.285, 392.34999999999997, 394.415, 398.545, 400.60999999999996, 402.675, 404.73999999999995, 406.805, 410.935, 412.99999999999994, 415.065, 417.12999999999994, 419.195, 421.25999999999993, 423.325, 425.38999999999993, 427.455, 429.5199999999999, 431.585, 433.6499999999999, 433.6499999999999, 435.715, 437.78000000000003, 439.84499999999997, 441.91, 441.91, 443.97499999999997, 446.04, 446.04, 448.10499999999996, 450.17, 450.17, 452.23499999999996, 454.3, 454.3, 456.36499999999995, 458.43, 458.43, 460.49499999999995, 462.56, 462.56, 462.56, 464.62499999999994, 466.69, 466.69, 466.69, 466.69, 466.69, 468.75499999999994, 470.82, 470.82, 470.82, 470.82, 470.82, 470.82, 470.82, 470.82, 470.82, 470.82, 470.82, 468.75499999999994]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 37.17, 41.3, 43.365, 45.43, 49.56, 53.69, 57.82, 61.949999999999996, 66.08, 70.21, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 130.095, 132.16, 136.29, 138.355, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 179.655, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 214.76, 212.695, 210.63, 208.565, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 189.98, 187.915, 185.85, 183.785, 181.72, 179.655, 177.59, 175.525, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 159.005, 156.94, 154.875, 152.81, 148.68, 146.615, 144.54999999999998, 140.42, 138.355, 136.29, 132.16, 130.095, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 113.575, 111.50999999999999, 109.445, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 74.34, 70.21, 66.08, 61.949999999999996, 57.82, 53.69, 49.56, 45.43, 41.3, 39.235, 37.17, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2.942480155970666e-09</v>
+        <v>2.380104564226166e-09</v>
       </c>
       <c r="I21" t="n">
-        <v>3.000716055282708e-09</v>
+        <v>1.8416430917445e-09</v>
       </c>
       <c r="J21" t="n">
-        <v>0.980592665804044</v>
+        <v>0.7737656233364967</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7174874122432497</v>
+        <v>1.357264750859744</v>
       </c>
       <c r="L21" t="n">
-        <v>2.289535313071893e-18</v>
+        <v>1.137785148433297e-18</v>
       </c>
       <c r="M21" t="n">
-        <v>5.503548898156728e-27</v>
+        <v>6.753677885103977e-27</v>
       </c>
       <c r="N21" t="n">
-        <v>5.469572600034027e-24</v>
+        <v>2.454632950939124e-24</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.5189698141050116</v>
+        <v>-0.313841178000001</v>
       </c>
     </row>
     <row r="22">
@@ -1580,47 +1580,47 @@
         <v>0.0009738046547862498</v>
       </c>
       <c r="C22" t="n">
-        <v>374.7112529832936</v>
+        <v>-220.0896666666667</v>
       </c>
       <c r="D22" t="n">
-        <v>213.5623985680191</v>
+        <v>131.1963333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>419</v>
+        <v>210</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[402.675, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 410.935, 408.87, 404.74, 400.61, 396.48, 394.41499999999996, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 243.67, 241.605, 239.54, 237.475, 235.41, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 189.98, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 212.695, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 187.915, 189.98, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 229.215, 231.28, 233.345, 235.41, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 402.675]</t>
+          <t>[-59.885, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -130.095, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -198.24, -200.305, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -351.05, -353.115, -355.18, -357.245, -359.31, -363.44, -365.505, -367.57, -369.635, -371.7, -375.83, -377.895, -379.96, -382.025, -384.09, -386.155, -388.21999999999997, -390.28499999999997, -392.34999999999997, -394.41499999999996, -396.48, -398.545, -398.545, -400.61, -402.675, -402.675, -404.74, -406.805, -406.805, -408.87, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -408.87, -406.805, -406.805, -404.74, -402.675, -402.675, -400.61, -398.545, -398.545, -396.48, -394.41499999999996, -392.34999999999997, -390.28499999999997, -388.21999999999997, -386.155, -384.09, -382.025, -382.025]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[423.325, 421.26000000000005, 421.26000000000005, 421.26000000000005, 421.26000000000005, 419.195, 417.13000000000005, 417.13000000000005, 417.13000000000005, 415.065, 412.99999999999994, 412.99999999999994, 410.935, 408.86999999999995, 408.86999999999995, 406.805, 404.73999999999995, 404.73999999999995, 402.675, 400.60999999999996, 398.545, 396.47999999999996, 396.47999999999996, 394.415, 392.34999999999997, 390.285, 388.21999999999997, 386.15500000000003, 384.09, 382.02500000000003, 379.96, 377.89500000000004, 375.83, 375.83, 373.76500000000004, 371.7, 369.63500000000005, 367.57, 365.50500000000005, 363.44, 361.37499999999994, 359.31, 357.24499999999995, 355.18, 355.18, 353.11499999999995, 351.05, 348.98499999999996, 346.92, 344.85499999999996, 342.79, 340.72499999999997, 338.66, 338.66, 336.59499999999997, 334.53000000000003, 332.465, 328.335, 326.27000000000004, 324.205, 322.14000000000004, 320.075, 318.01000000000005, 315.945, 313.88000000000005, 311.815, 309.74999999999994, 307.685, 303.555, 299.425, 295.295, 291.165, 287.035, 282.90500000000003, 278.77500000000003, 274.64500000000004, 270.51500000000004, 266.38500000000005, 262.25500000000005, 258.12500000000006, 253.99499999999995, 251.93, 249.86499999999995, 245.73499999999996, 243.67000000000002, 241.60499999999996, 237.47499999999997, 235.41000000000003, 233.34499999999997, 231.28000000000003, 229.21499999999997, 227.15000000000003, 225.08499999999998, 223.02000000000004, 220.95499999999998, 218.89000000000004, 216.825, 212.695, 208.565, 206.50000000000006, 204.435, 202.36999999999995, 200.305, 198.23999999999995, 196.175, 194.10999999999996, 192.04500000000002, 189.97999999999996, 187.91500000000002, 183.78500000000003, 181.72000000000003, 179.65500000000003, 175.52499999999998, 173.45999999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 123.89999999999998, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 107.38, 105.315, 103.25, 101.185, 99.12, 97.055, 94.99000000000001, 92.92500000000001, 90.86000000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 78.47000000000003, 76.40500000000003, 74.34000000000003, 72.27500000000003, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27500000000003, 74.34000000000003, 74.34000000000003, 76.40500000000003, 78.47000000000003, 80.53500000000003, 82.60000000000002, 82.60000000000002, 84.66500000000002, 86.73000000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 94.99000000000001, 97.055, 99.12, 101.185, 103.25, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 119.76999999999998, 121.83499999999998, 125.96500000000003, 128.03000000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65500000000003, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.10999999999996, 196.175, 198.23999999999995, 200.305, 202.36999999999995, 204.435, 206.50000000000006, 208.565, 212.695, 216.825, 218.89000000000004, 220.95499999999998, 223.02000000000004, 225.08499999999998, 227.15000000000003, 229.21499999999997, 231.28000000000003, 233.34499999999997, 235.41000000000003, 237.47499999999997, 241.60499999999996, 243.67000000000002, 245.73499999999996, 249.86499999999995, 253.99499999999995, 256.06, 258.12500000000006, 262.25500000000005, 266.38500000000005, 270.51500000000004, 274.64500000000004, 278.77500000000003, 282.90500000000003, 287.035, 291.165, 293.22999999999996, 295.295, 299.425, 303.555, 305.61999999999995, 307.685, 311.815, 313.88000000000005, 315.945, 320.075, 322.14000000000004, 324.205, 326.27000000000004, 328.335, 330.40000000000003, 332.465, 334.53000000000003, 336.59499999999997, 338.66, 340.72499999999997, 342.79, 344.85499999999996, 346.92, 346.92, 348.98499999999996, 351.05, 353.11499999999995, 355.18, 355.18, 357.24499999999995, 359.31, 361.37499999999994, 363.44, 363.44, 365.50500000000005, 367.57, 369.63500000000005, 371.7, 373.76500000000004, 375.83, 377.89500000000004, 379.96, 379.96, 382.02500000000003, 384.09, 386.15500000000003, 388.21999999999997, 390.285, 392.34999999999997, 392.34999999999997, 394.415, 396.47999999999996, 398.545, 400.60999999999996, 400.60999999999996, 402.675, 404.73999999999995, 406.805, 408.86999999999995, 408.86999999999995, 410.935, 412.99999999999994, 412.99999999999994, 412.99999999999994, 415.065, 417.13000000000005, 417.13000000000005, 419.195, 421.26000000000005, 421.26000000000005, 421.26000000000005, 423.325, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 423.325]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 33.04, 35.105, 37.17, 41.3, 43.365, 45.43, 49.56, 53.69, 57.82, 61.949999999999996, 66.08, 70.21, 74.34, 78.47, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 101.185, 103.25, 107.38, 109.445, 111.50999999999999, 113.575, 115.64, 117.705, 119.77, 121.835, 123.89999999999999, 125.965, 128.03, 130.095, 132.16, 134.225, 136.29, 138.355, 138.355, 140.42, 142.48499999999999, 144.54999999999998, 146.615, 148.68, 150.745, 152.81, 154.875, 154.875, 156.94, 159.005, 161.07, 163.135, 165.2, 167.265, 169.32999999999998, 171.39499999999998, 173.46, 175.525, 177.59, 179.655, 179.655, 181.72, 183.785, 185.85, 187.915, 189.98, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 204.435, 204.435, 206.5, 208.565, 208.565, 208.565, 210.63, 212.695, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 210.63, 208.565, 208.565, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 187.915, 185.85, 183.785, 181.72, 179.655, 177.59, 175.525, 175.525, 173.46, 171.39499999999998, 169.32999999999998, 167.265, 165.2, 163.135, 163.135, 161.07, 159.005, 156.94, 154.875, 152.81, 150.745, 150.745, 148.68, 146.615, 144.54999999999998, 142.48499999999999, 142.48499999999999, 140.42, 138.355, 136.29, 134.225, 134.225, 132.16, 130.095, 128.03, 125.965, 123.89999999999999, 121.835, 119.77, 117.705, 115.64, 113.575, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 78.47, 74.34, 70.21, 66.08, 61.949999999999996, 57.82, 53.69, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 33.04, 30.974999999999998, 28.91, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2.906652051154957e-09</v>
+        <v>2.244861560786374e-09</v>
       </c>
       <c r="I22" t="n">
-        <v>2.814302351842915e-09</v>
+        <v>1.941057990368583e-09</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9682281546993744</v>
+        <v>0.8646671243676299</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8451009814575751</v>
+        <v>1.576348466542389</v>
       </c>
       <c r="L22" t="n">
-        <v>2.144357332104392e-18</v>
+        <v>1.066214440381262e-18</v>
       </c>
       <c r="M22" t="n">
-        <v>4.717505428894796e-27</v>
+        <v>6.243114894212969e-27</v>
       </c>
       <c r="N22" t="n">
-        <v>6.04080587051732e-24</v>
+        <v>1.790361428971015e-24</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.589085119261384</v>
+        <v>-0.2787767236306244</v>
       </c>
     </row>
     <row r="23">
@@ -1633,47 +1633,47 @@
         <v>0.001022494887525562</v>
       </c>
       <c r="C23" t="n">
-        <v>375.6345907928389</v>
+        <v>-219.3559487179486</v>
       </c>
       <c r="D23" t="n">
-        <v>178.0494757033248</v>
+        <v>117.5779230769231</v>
       </c>
       <c r="E23" t="n">
-        <v>391</v>
+        <v>195</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[419.195, 421.26, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 487.34, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 565.81, 567.875, 569.9399999999999, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 532.77, 530.705, 528.64, 524.51, 522.4449999999999, 520.38, 516.25, 512.12, 510.055, 507.99, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 487.34, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 280.84, 276.71, 272.58, 268.45, 264.32, 262.255, 260.19, 256.06, 251.93, 247.79999999999998, 245.73499999999999, 243.67, 239.54, 235.41, 233.345, 231.28, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 181.72, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 181.72, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 189.98, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 208.565, 208.565, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 189.98, 187.915, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 181.72, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 181.72, 183.785, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 189.98, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 229.215, 231.28, 235.41, 237.475, 239.54, 243.67, 247.79999999999998, 249.86499999999998, 251.93, 256.06, 260.19, 264.32, 268.45, 272.58, 274.645, 276.71, 280.84, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195]</t>
+          <t>[-53.69, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -61.949999999999996, -64.015, -66.08, -70.21, -72.27499999999999, -74.34, -78.47, -82.6, -84.66499999999999, -86.73, -90.86, -94.99, -97.05499999999999, -99.12, -103.25, -107.38, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -256.06, -260.19, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -309.75, -313.88, -318.01, -322.14, -326.27, -330.4, -332.465, -334.53, -338.65999999999997, -342.78999999999996, -346.92, -348.985, -351.05, -355.18, -359.31, -361.375, -363.44, -367.57, -369.635, -371.7, -375.83, -377.895, -379.96, -384.09, -386.155, -388.21999999999997, -390.28499999999997, -392.34999999999997, -394.41499999999996, -394.41499999999996, -396.48, -398.545, -400.61, -402.675, -402.675, -404.74, -406.805, -406.805, -408.87, -410.935, -410.935, -410.935, -410.935, -413.0, -415.065, -415.065, -415.065, -415.065, -415.065, -415.065, -415.065, -413.0, -410.935, -410.935, -410.935, -408.87, -406.805, -406.805, -404.74, -402.675, -402.675, -400.61, -398.545, -396.48, -394.41499999999996, -392.34999999999997, -390.28499999999997, -388.21999999999997, -386.155, -386.155, -386.155]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[353.115, 351.04999999999995, 351.04999999999995, 351.04999999999995, 351.04999999999995, 348.985, 346.91999999999996, 346.91999999999996, 346.91999999999996, 344.855, 342.78999999999996, 342.78999999999996, 340.725, 338.65999999999997, 338.65999999999997, 338.65999999999997, 336.595, 334.53, 334.53, 332.46500000000003, 330.4, 330.4, 330.4, 330.4, 330.4, 328.33500000000004, 326.27, 326.27, 326.27, 324.2049999999999, 322.14, 322.14, 320.07499999999993, 318.01, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.5799999999999, 270.515, 268.44999999999993, 266.385, 262.255, 258.125, 253.995, 249.865, 245.735, 241.60500000000002, 237.47500000000002, 233.34500000000003, 229.21500000000003, 225.08500000000004, 220.95500000000004, 218.89, 216.82499999999993, 212.69499999999994, 208.56499999999994, 206.5, 204.43499999999995, 200.30499999999995, 198.24, 196.17499999999995, 194.11, 192.04499999999996, 189.98000000000002, 187.91499999999996, 185.85000000000002, 183.78499999999997, 179.65499999999997, 177.59000000000003, 175.52499999999998, 173.46000000000004, 171.39499999999998, 167.265, 165.19999999999993, 163.135, 161.06999999999994, 159.005, 156.93999999999994, 154.875, 152.80999999999995, 150.745, 146.615, 144.55, 142.485, 138.35499999999996, 134.22499999999997, 132.15999999999997, 130.09499999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 105.315, 101.185, 97.055, 92.92500000000001, 88.79500000000002, 84.66499999999996, 82.59999999999997, 80.53499999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.039999999999964, 33.039999999999964, 33.039999999999964, 30.974999999999966, 28.909999999999968, 28.909999999999968, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 24.779999999999973, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 20.649999999999977, 20.649999999999977, 20.649999999999977, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 28.909999999999968, 28.909999999999968, 30.974999999999966, 33.039999999999964, 33.039999999999964, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.46999999999997, 80.53499999999997, 84.66499999999996, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 136.28999999999996, 138.35499999999996, 142.485, 144.55, 146.615, 150.745, 152.80999999999995, 154.875, 156.93999999999994, 159.005, 161.06999999999994, 163.135, 165.19999999999993, 167.265, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.72000000000003, 183.78499999999997, 185.85000000000002, 187.91499999999996, 189.98000000000002, 192.04499999999996, 196.17499999999995, 198.24, 200.30499999999995, 202.37, 204.43499999999995, 208.56499999999994, 212.69499999999994, 214.76, 216.82499999999993, 220.95500000000004, 225.08500000000004, 229.21500000000003, 231.27999999999997, 233.34500000000003, 237.47500000000002, 241.60500000000002, 245.735, 249.865, 253.995, 256.05999999999995, 258.125, 262.255, 266.385, 270.515, 272.5799999999999, 274.645, 278.775, 280.84000000000003, 282.905, 287.03499999999997, 289.1, 291.16499999999996, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 318.01, 320.07499999999993, 322.14, 322.14, 324.2049999999999, 326.27, 326.27, 326.27, 328.33500000000004, 330.4, 330.4, 330.4, 330.4, 330.4, 330.4, 332.46500000000003, 334.53, 334.53, 334.53, 334.53, 336.595, 338.65999999999997, 338.65999999999997, 338.65999999999997, 340.725, 342.78999999999996, 342.78999999999996, 344.855, 346.91999999999996, 346.91999999999996, 346.91999999999996, 348.985, 351.04999999999995, 351.04999999999995, 351.04999999999995, 351.04999999999995, 351.04999999999995, 351.04999999999995, 353.115, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 355.17999999999995, 353.115]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 33.04, 35.105, 37.17, 41.3, 45.43, 47.495, 49.56, 53.69, 57.82, 61.949999999999996, 66.08, 70.21, 74.34, 78.47, 82.6, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 125.965, 128.03, 130.095, 132.16, 134.225, 136.29, 138.355, 138.355, 140.42, 142.48499999999999, 142.48499999999999, 144.54999999999998, 146.615, 146.615, 146.615, 148.68, 150.745, 150.745, 150.745, 152.81, 154.875, 154.875, 154.875, 154.875, 154.875, 156.94, 159.005, 159.005, 161.07, 163.135, 163.135, 165.2, 167.265, 167.265, 169.32999999999998, 171.39499999999998, 171.39499999999998, 173.46, 175.525, 175.525, 175.525, 175.525, 175.525, 177.59, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 177.59, 175.525, 175.525, 175.525, 175.525, 175.525, 175.525, 175.525, 175.525, 175.525, 173.46, 171.39499999999998, 171.39499999999998, 171.39499999999998, 169.32999999999998, 167.265, 167.265, 165.2, 163.135, 163.135, 161.07, 159.005, 159.005, 159.005, 159.005, 159.005, 159.005, 159.005, 156.94, 154.875, 154.875, 154.875, 154.875, 152.81, 150.745, 150.745, 150.745, 148.68, 146.615, 146.615, 144.54999999999998, 142.48499999999999, 142.48499999999999, 140.42, 138.355, 138.355, 136.29, 134.225, 132.16, 130.095, 128.03, 123.89999999999999, 121.835, 119.77, 117.705, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 74.34, 70.21, 66.08, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 49.56, 45.43, 43.365, 41.3, 37.17, 35.105, 33.04, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2.877681165602082e-09</v>
+        <v>2.191768575921458e-09</v>
       </c>
       <c r="I23" t="n">
-        <v>2.755356364226166e-09</v>
+        <v>1.995787775638726e-09</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9574918851893297</v>
+        <v>0.9105832602785914</v>
       </c>
       <c r="K23" t="n">
-        <v>1.03415171702172</v>
+        <v>1.90427069017417</v>
       </c>
       <c r="L23" t="n">
-        <v>1.993651532222475e-18</v>
+        <v>9.923162296283087e-19</v>
       </c>
       <c r="M23" t="n">
-        <v>3.269686245045275e-27</v>
+        <v>5.609567737335852e-27</v>
       </c>
       <c r="N23" t="n">
-        <v>2.627890812349484e-24</v>
+        <v>4.512338266385705e-25</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.4666996068448599</v>
+        <v>-0.1476464274973839</v>
       </c>
     </row>
     <row r="24">
@@ -1686,47 +1686,47 @@
         <v>0.001071185120264875</v>
       </c>
       <c r="C24" t="n">
-        <v>375.0399604221636</v>
+        <v>-220.8576963350785</v>
       </c>
       <c r="D24" t="n">
-        <v>168.1149736147757</v>
+        <v>116.8184554973822</v>
       </c>
       <c r="E24" t="n">
-        <v>379</v>
+        <v>191</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[485.275, 487.34, 491.46999999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 561.68, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 491.46999999999997, 487.34, 483.21, 479.08, 477.015, 474.95, 470.82, 466.69, 462.56, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 326.27, 322.14, 318.01, 313.88, 309.75, 305.62, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 284.96999999999997, 280.84, 276.71, 272.58, 268.45, 264.32, 262.255, 260.19, 256.06, 251.93, 247.79999999999998, 245.73499999999999, 243.67, 239.54, 235.41, 233.345, 231.28, 229.215, 227.15, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 187.915, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 187.915, 189.98, 192.045, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 235.41, 237.475, 239.54, 243.67, 247.79999999999998, 249.86499999999998, 251.93, 256.06, 260.19, 264.32, 266.385, 268.45, 272.58, 276.71, 280.84, 284.96999999999997, 289.09999999999997, 293.23, 297.36, 301.49, 305.62, 309.75, 313.88, 318.01, 322.14, 326.27, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 458.43, 462.56, 466.69, 470.82, 474.95, 479.08, 483.21, 485.275]</t>
+          <t>[-55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -78.47, -80.535, -82.6, -86.73, -90.86, -92.925, -94.99, -99.12, -103.25, -107.38, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -128.03, -132.16, -136.29, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -256.06, -260.19, -264.32, -268.45, -272.58, -276.71, -280.84, -284.96999999999997, -289.09999999999997, -293.23, -297.36, -299.425, -301.49, -305.62, -309.75, -313.88, -318.01, -322.14, -326.27, -330.4, -332.465, -334.53, -338.65999999999997, -342.78999999999996, -346.92, -348.985, -351.05, -355.18, -359.31, -361.375, -363.44, -365.505, -367.57, -371.7, -373.765, -375.83, -377.895, -379.96, -384.09, -386.155, -388.21999999999997, -390.28499999999997, -390.28499999999997, -392.34999999999997, -394.41499999999996, -396.48, -398.545, -400.61, -402.675, -402.675, -404.74, -406.805, -406.805, -406.805, -408.87, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -410.935, -408.87, -406.805, -406.805, -406.805, -404.74, -402.675, -400.61, -398.545, -398.545, -396.48, -394.41499999999996, -392.34999999999997, -390.28499999999997, -388.21999999999997, -386.155, -384.09, -382.025, -379.96, -377.895, -377.895, -379.96]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[332.46500000000003, 330.4, 330.4, 330.4, 330.4, 328.33500000000004, 326.27, 326.27, 324.20500000000004, 322.14, 322.14, 320.07500000000005, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 262.255, 258.125, 253.995, 249.865, 245.735, 241.60500000000002, 237.47500000000002, 233.34500000000003, 229.21500000000003, 225.08500000000004, 220.95500000000004, 218.89, 216.82500000000005, 212.69500000000005, 208.56499999999994, 206.5, 204.43499999999995, 200.30499999999995, 196.17499999999995, 194.11, 192.04499999999996, 189.98000000000002, 187.91499999999996, 183.78499999999997, 181.72000000000003, 179.65499999999997, 177.59000000000003, 175.52499999999998, 173.46000000000004, 171.39499999999998, 167.265, 163.135, 161.07000000000005, 159.005, 156.93999999999994, 154.875, 150.745, 148.67999999999995, 146.615, 144.54999999999995, 142.485, 140.42000000000002, 138.35500000000002, 134.22500000000002, 132.15999999999997, 130.09499999999997, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 105.315, 101.185, 97.055, 92.92500000000001, 88.79500000000002, 84.66500000000002, 80.53500000000003, 78.46999999999997, 76.40499999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 51.625, 49.56, 47.495000000000005, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.779999999999973, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 80.53500000000003, 84.66500000000002, 88.79500000000002, 92.92500000000001, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 119.76999999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 132.15999999999997, 134.22500000000002, 136.29000000000002, 138.35500000000002, 142.485, 144.54999999999995, 146.615, 148.67999999999995, 150.745, 152.80999999999995, 154.875, 156.93999999999994, 159.005, 161.07000000000005, 163.135, 167.265, 169.33000000000004, 171.39499999999998, 173.46000000000004, 175.52499999999998, 177.59000000000003, 179.65499999999997, 181.72000000000003, 183.78499999999997, 187.91499999999996, 189.98000000000002, 192.04499999999996, 194.11, 196.17499999999995, 200.30499999999995, 202.37, 204.43499999999995, 208.56499999999994, 212.69500000000005, 214.76, 216.82500000000005, 220.95500000000004, 225.08500000000004, 229.21500000000003, 233.34500000000003, 237.47500000000002, 241.60500000000002, 245.735, 249.865, 253.995, 258.125, 260.18999999999994, 262.255, 266.385, 270.515, 272.58000000000004, 274.645, 278.775, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 320.07500000000005, 322.14, 322.14, 324.20500000000004, 326.27, 326.27, 326.27, 328.33500000000004, 330.4, 330.4, 330.4, 330.4, 332.46500000000003, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 334.53, 332.46500000000003]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 37.17, 39.235, 41.3, 45.43, 49.56, 51.625, 53.69, 57.82, 61.949999999999996, 66.08, 70.21, 74.34, 78.47, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 130.095, 132.16, 134.225, 136.29, 138.355, 140.42, 142.48499999999999, 142.48499999999999, 144.54999999999998, 146.615, 148.68, 150.745, 152.81, 154.875, 154.875, 156.94, 159.005, 159.005, 159.005, 161.07, 163.135, 163.135, 163.135, 163.135, 163.135, 163.135, 165.2, 167.265, 167.265, 167.265, 167.265, 167.265, 167.265, 167.265, 169.32999999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 171.39499999999998, 169.32999999999998, 167.265, 167.265, 167.265, 167.265, 167.265, 167.265, 167.265, 167.265, 165.2, 163.135, 163.135, 163.135, 163.135, 161.07, 159.005, 159.005, 159.005, 156.94, 154.875, 152.81, 150.745, 150.745, 148.68, 146.615, 144.54999999999998, 142.48499999999999, 142.48499999999999, 140.42, 138.355, 136.29, 132.16, 130.095, 128.03, 125.965, 123.89999999999999, 121.835, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 86.73, 82.6, 78.47, 74.34, 70.21, 66.08, 61.949999999999996, 57.82, 53.69, 51.625, 49.56, 45.43, 41.3, 39.235, 37.17, 35.105, 33.04, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2.821159571105749e-09</v>
+        <v>2.091141480737166e-09</v>
       </c>
       <c r="I24" t="n">
-        <v>2.767062369729832e-09</v>
+        <v>2.054024349729967e-09</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9808244801428536</v>
+        <v>0.9822503014027942</v>
       </c>
       <c r="K24" t="n">
-        <v>1.070654813156158</v>
+        <v>1.963569243657962</v>
       </c>
       <c r="L24" t="n">
-        <v>1.992196843034501e-18</v>
+        <v>9.950801390856154e-19</v>
       </c>
       <c r="M24" t="n">
-        <v>2.882537448334513e-27</v>
+        <v>5.67488330363809e-27</v>
       </c>
       <c r="N24" t="n">
-        <v>5.513562955583821e-26</v>
+        <v>9.818147916438744e-26</v>
       </c>
       <c r="O24" t="n">
-        <v>0.07199718340762562</v>
+        <v>0.06847359576571832</v>
       </c>
     </row>
     <row r="25">
@@ -1739,47 +1739,47 @@
         <v>0.001119875353004187</v>
       </c>
       <c r="C25" t="n">
-        <v>376.8807974683544</v>
+        <v>-219.0577157360406</v>
       </c>
       <c r="D25" t="n">
-        <v>185.0605949367088</v>
+        <v>124.2459137055838</v>
       </c>
       <c r="E25" t="n">
-        <v>395</v>
+        <v>197</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[423.325, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 458.43, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 565.81, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 483.21, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 458.43, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 410.935, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 318.01, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 293.23, 289.09999999999997, 284.96999999999997, 280.84, 278.775, 276.71, 272.58, 268.45, 264.32, 262.255, 260.19, 256.06, 251.93, 249.86499999999998, 247.79999999999998, 243.67, 241.605, 239.54, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 192.045, 189.98, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 189.98, 192.045, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 192.045, 189.98, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 189.98, 192.045, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 231.28, 233.345, 235.41, 237.475, 239.54, 243.67, 245.73499999999999, 247.79999999999998, 251.93, 253.995, 256.06, 260.19, 264.32, 266.385, 268.45, 272.58, 276.71, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 293.23, 297.36, 301.49, 305.62, 309.75, 313.88, 318.01, 322.14, 326.27, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325]</t>
+          <t>[-64.015, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -111.50999999999999, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -136.29, -140.42, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -276.71, -280.84, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -301.49, -305.62, -309.75, -313.88, -315.945, -318.01, -322.14, -326.27, -330.4, -332.465, -334.53, -338.65999999999997, -342.78999999999996, -344.855, -346.92, -351.05, -353.115, -355.18, -359.31, -361.375, -363.44, -365.505, -367.57, -369.635, -371.7, -375.83, -377.895, -379.96, -382.025, -384.09, -386.155, -388.21999999999997, -390.28499999999997, -390.28499999999997, -392.34999999999997, -394.41499999999996, -396.48, -398.545, -398.545, -398.545, -400.61, -402.675, -402.675, -402.675, -404.74, -406.805, -406.805, -406.805, -406.805, -406.805, -406.805, -406.805, -406.805, -406.805, -406.805, -404.74, -402.675, -402.675, -402.675, -400.61, -398.545, -398.545, -396.48, -394.41499999999996, -392.34999999999997, -390.28499999999997, -390.28499999999997, -388.21999999999997, -386.155, -384.09, -382.025, -379.96, -377.895, -375.83, -373.765, -373.765, -373.765]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[365.505, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 361.375, 359.30999999999995, 359.30999999999995, 359.30999999999995, 357.245, 355.17999999999995, 355.17999999999995, 355.17999999999995, 353.115, 351.04999999999995, 351.04999999999995, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 334.53, 332.4649999999999, 330.4, 328.3349999999999, 326.27, 324.2049999999999, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 303.55499999999995, 301.49, 299.42499999999995, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 278.775, 274.645, 272.5799999999999, 270.515, 266.385, 262.255, 258.125, 253.995, 249.865, 245.735, 243.66999999999996, 241.60500000000002, 237.47500000000002, 233.34500000000003, 229.21500000000003, 227.14999999999998, 225.08499999999992, 220.95499999999993, 218.89, 216.82499999999993, 212.69499999999994, 210.63, 208.56499999999994, 206.5, 204.43499999999995, 200.30499999999995, 198.24, 196.17499999999995, 194.11, 192.04499999999996, 189.98000000000002, 187.91499999999996, 183.78499999999997, 179.65499999999997, 177.59000000000003, 175.52499999999998, 173.45999999999992, 171.39499999999998, 167.265, 165.19999999999993, 163.135, 161.06999999999994, 159.005, 156.94, 154.875, 150.745, 148.67999999999995, 146.61499999999995, 142.48499999999996, 140.41999999999996, 138.35499999999996, 134.22499999999997, 130.09499999999997, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 105.315, 101.185, 97.055, 92.92499999999995, 88.79499999999996, 86.72999999999996, 84.66499999999996, 80.53499999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.299999999999955, 39.23499999999996, 37.16999999999996, 35.10499999999996, 33.039999999999964, 30.974999999999966, 28.909999999999968, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 30.974999999999966, 33.039999999999964, 35.10499999999996, 37.16999999999996, 37.16999999999996, 39.23499999999996, 41.299999999999955, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53499999999997, 84.66499999999996, 86.72999999999996, 88.79499999999996, 92.92499999999995, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 128.02999999999997, 130.09499999999997, 134.22499999999997, 138.35499999999996, 140.41999999999996, 142.48499999999996, 146.61499999999995, 148.67999999999995, 150.745, 152.81, 154.875, 159.005, 161.06999999999994, 163.135, 165.19999999999993, 167.265, 169.32999999999993, 171.39499999999998, 173.45999999999992, 175.52499999999998, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.98000000000002, 192.04499999999996, 194.11, 196.17499999999995, 200.30499999999995, 202.37, 204.43499999999995, 206.5, 208.56499999999994, 210.63, 212.69499999999994, 216.82499999999993, 218.89, 220.95499999999993, 225.08499999999992, 227.14999999999998, 229.21500000000003, 233.34500000000003, 237.47500000000002, 239.53999999999996, 241.60500000000002, 245.735, 249.865, 253.995, 258.125, 262.255, 266.385, 270.515, 274.645, 278.775, 280.8399999999999, 282.905, 287.03499999999997, 291.16499999999996, 293.23, 295.29499999999996, 299.42499999999995, 301.49, 303.55499999999995, 307.68499999999995, 309.75, 311.81499999999994, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.4649999999999, 334.53, 336.595, 338.65999999999997, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 346.91999999999996, 348.985, 351.04999999999995, 351.04999999999995, 353.115, 355.17999999999995, 355.17999999999995, 355.17999999999995, 357.245, 359.30999999999995, 359.30999999999995, 359.30999999999995, 359.30999999999995, 361.375, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 363.43999999999994, 365.505, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 367.56999999999994, 365.505]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 70.21, 74.34, 78.47, 82.6, 86.73, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 130.095, 132.16, 134.225, 136.29, 138.355, 140.42, 142.48499999999999, 144.54999999999998, 146.615, 148.68, 150.745, 152.81, 154.875, 156.94, 159.005, 159.005, 161.07, 163.135, 163.135, 165.2, 167.265, 167.265, 169.32999999999998, 171.39499999999998, 171.39499999999998, 173.46, 175.525, 175.525, 175.525, 175.525, 177.59, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 181.72, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 183.785, 181.72, 179.655, 179.655, 179.655, 179.655, 179.655, 179.655, 177.59, 175.525, 175.525, 175.525, 175.525, 173.46, 171.39499999999998, 171.39499999999998, 171.39499999999998, 169.32999999999998, 167.265, 167.265, 165.2, 163.135, 163.135, 161.07, 159.005, 156.94, 154.875, 152.81, 150.745, 150.745, 148.68, 146.615, 144.54999999999998, 142.48499999999999, 140.42, 138.355, 136.29, 132.16, 130.095, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 86.73, 82.6, 78.47, 74.34, 70.21, 66.08, 61.949999999999996, 59.885, 57.82, 53.69, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 35.105, 33.04, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2.867689464914124e-09</v>
+        <v>2.099418876609416e-09</v>
       </c>
       <c r="I25" t="n">
-        <v>2.843567365602083e-09</v>
+        <v>2.023415988992667e-09</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9915883153991488</v>
+        <v>0.963798130776315</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9698223945516128</v>
+        <v>1.771712678261722</v>
       </c>
       <c r="L25" t="n">
-        <v>2.066676929462621e-18</v>
+        <v>1.027374239060302e-18</v>
       </c>
       <c r="M25" t="n">
-        <v>3.448903418103418e-27</v>
+        <v>5.91801877616224e-27</v>
       </c>
       <c r="N25" t="n">
-        <v>2.959805835473831e-24</v>
+        <v>6.499284413901008e-25</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4822563020136947</v>
+        <v>0.1725168099049652</v>
       </c>
     </row>
     <row r="26">
@@ -1792,47 +1792,47 @@
         <v>0.0011685655857435</v>
       </c>
       <c r="C26" t="n">
-        <v>376.2156619385342</v>
+        <v>-220.0056872037915</v>
       </c>
       <c r="D26" t="n">
-        <v>215.0773167848699</v>
+        <v>133.6182227488152</v>
       </c>
       <c r="E26" t="n">
-        <v>423</v>
+        <v>211</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[386.155, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 406.805, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 427.455, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 483.21, 479.08, 477.015, 474.95, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 410.935, 408.87, 404.74, 400.61, 398.545, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 276.71, 272.58, 270.515, 268.45, 264.32, 260.19, 258.125, 256.06, 251.93, 249.86499999999998, 247.79999999999998, 243.67, 241.605, 239.54, 237.475, 235.41, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 192.045, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 200.305, 202.37, 204.435, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 212.695, 210.63, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 200.305, 202.37, 204.435, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 256.06, 258.125, 260.19, 264.32, 268.45, 270.515, 272.58, 276.71, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 386.155]</t>
+          <t>[-68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -82.6, -84.66499999999999, -86.73, -90.86, -92.925, -94.99, -99.12, -103.25, -105.315, -107.38, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -196.17499999999998, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -309.75, -311.815, -313.88, -318.01, -322.14, -324.205, -326.27, -330.4, -334.53, -336.59499999999997, -338.65999999999997, -342.78999999999996, -344.855, -346.92, -351.05, -353.115, -355.18, -357.245, -359.31, -363.44, -365.505, -367.57, -369.635, -371.7, -373.765, -375.83, -377.895, -379.96, -382.025, -384.09, -386.155, -386.155, -388.21999999999997, -390.28499999999997, -390.28499999999997, -392.34999999999997, -394.41499999999996, -394.41499999999996, -396.48, -398.545, -398.545, -398.545, -398.545, -398.545, -400.61, -402.675, -402.675, -402.675, -402.675, -402.675, -400.61, -398.545, -398.545, -398.545, -398.545, -396.48, -394.41499999999996, -394.41499999999996, -394.41499999999996, -392.34999999999997, -390.28499999999997, -390.28499999999997, -388.21999999999997, -386.155, -386.155, -384.09, -382.025, -379.96, -377.895, -377.895, -375.83, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -367.57]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[427.455, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 423.325, 421.26000000000005, 421.26000000000005, 421.26000000000005, 419.195, 417.13000000000005, 417.13000000000005, 415.065, 412.99999999999994, 412.99999999999994, 410.935, 408.86999999999995, 408.86999999999995, 406.805, 404.73999999999995, 404.73999999999995, 402.675, 400.60999999999996, 400.60999999999996, 398.545, 396.47999999999996, 396.47999999999996, 396.47999999999996, 394.415, 392.34999999999997, 392.34999999999997, 392.34999999999997, 390.285, 388.21999999999997, 388.21999999999997, 388.21999999999997, 386.15500000000003, 384.09, 384.09, 382.02500000000003, 379.96, 379.96, 377.89500000000004, 375.83, 373.76500000000004, 371.7, 369.63500000000005, 367.57, 365.50500000000005, 363.44, 361.37499999999994, 359.31, 357.24499999999995, 355.18, 353.11499999999995, 351.05, 348.98499999999996, 344.85499999999996, 342.79, 340.72499999999997, 336.59499999999997, 334.53000000000003, 332.465, 328.335, 326.27000000000004, 324.205, 320.075, 318.01000000000005, 315.945, 313.88000000000005, 311.815, 307.685, 303.555, 301.48999999999995, 299.425, 295.295, 291.165, 287.035, 282.90500000000003, 280.84, 278.77500000000003, 274.64500000000004, 270.51500000000004, 266.38500000000005, 264.32, 262.25500000000005, 258.12500000000006, 253.99499999999995, 251.93, 249.86499999999995, 245.73499999999996, 243.67000000000002, 241.60499999999996, 237.47499999999997, 235.41000000000003, 233.34499999999997, 231.28000000000003, 229.21499999999997, 225.08499999999998, 223.02000000000004, 220.95499999999998, 218.89000000000004, 216.825, 212.695, 208.565, 206.50000000000006, 204.435, 202.36999999999995, 200.305, 196.175, 194.10999999999996, 192.04500000000002, 189.97999999999996, 187.91500000000002, 183.78500000000003, 181.72000000000003, 179.65500000000003, 175.52499999999998, 173.45999999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 150.745, 148.68, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40500000000003, 74.34000000000003, 72.27500000000003, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27500000000003, 74.34000000000003, 76.40500000000003, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 119.76999999999998, 121.83499999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 140.42000000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65500000000003, 183.78500000000003, 185.85000000000002, 187.91500000000002, 189.97999999999996, 192.04500000000002, 196.175, 198.23999999999995, 200.305, 202.36999999999995, 204.435, 208.565, 210.63000000000005, 212.695, 214.76000000000005, 216.825, 218.89000000000004, 220.95499999999998, 225.08499999999998, 227.15000000000003, 229.21499999999997, 231.28000000000003, 233.34499999999997, 237.47499999999997, 239.54000000000002, 241.60499999999996, 243.67000000000002, 245.73499999999996, 249.86499999999995, 251.93, 253.99499999999995, 258.12500000000006, 262.25500000000005, 264.32, 266.38500000000005, 270.51500000000004, 274.64500000000004, 278.77500000000003, 282.90500000000003, 284.96999999999997, 287.035, 291.165, 295.295, 299.425, 301.48999999999995, 303.555, 307.685, 311.815, 315.945, 320.075, 322.14000000000004, 324.205, 328.335, 332.465, 334.53000000000003, 336.59499999999997, 340.72499999999997, 342.79, 344.85499999999996, 348.98499999999996, 351.05, 353.11499999999995, 355.18, 357.24499999999995, 359.31, 361.37499999999994, 363.44, 365.50500000000005, 367.57, 369.63500000000005, 371.7, 373.76500000000004, 375.83, 377.89500000000004, 379.96, 379.96, 382.02500000000003, 384.09, 386.15500000000003, 388.21999999999997, 388.21999999999997, 390.285, 392.34999999999997, 392.34999999999997, 392.34999999999997, 394.415, 396.47999999999996, 396.47999999999996, 396.47999999999996, 398.545, 400.60999999999996, 400.60999999999996, 400.60999999999996, 402.675, 404.73999999999995, 404.73999999999995, 406.805, 408.86999999999995, 408.86999999999995, 410.935, 412.99999999999994, 412.99999999999994, 412.99999999999994, 415.065, 417.13000000000005, 417.13000000000005, 419.195, 421.26000000000005, 421.26000000000005, 421.26000000000005, 421.26000000000005, 423.325, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 425.39000000000004, 427.455, 429.52000000000004, 429.52000000000004, 429.52000000000004, 427.455]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 20.65, 22.715, 24.78, 26.845, 28.91, 33.04, 35.105, 37.17, 41.3, 43.365, 45.43, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 78.47, 82.6, 86.73, 90.86, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 117.705, 119.77, 123.89999999999999, 128.03, 130.095, 132.16, 134.225, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 146.615, 148.68, 150.745, 152.81, 154.875, 156.94, 159.005, 161.07, 163.135, 165.2, 167.265, 167.265, 169.32999999999998, 171.39499999999998, 171.39499999999998, 173.46, 175.525, 175.525, 175.525, 177.59, 179.655, 179.655, 179.655, 181.72, 183.785, 183.785, 183.785, 185.85, 187.915, 187.915, 189.98, 192.045, 192.045, 194.10999999999999, 196.17499999999998, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 204.435, 206.5, 208.565, 208.565, 208.565, 210.63, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 210.63, 208.565, 208.565, 208.565, 206.5, 204.435, 204.435, 204.435, 202.37, 200.305, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 192.045, 189.98, 187.915, 187.915, 187.915, 185.85, 183.785, 183.785, 183.785, 181.72, 179.655, 179.655, 179.655, 177.59, 175.525, 175.525, 173.46, 171.39499999999998, 171.39499999999998, 169.32999999999998, 167.265, 165.2, 163.135, 163.135, 161.07, 159.005, 156.94, 154.875, 152.81, 150.745, 148.68, 146.615, 144.54999999999998, 142.48499999999999, 140.42, 136.29, 134.225, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 86.73, 82.6, 78.47, 76.405, 74.34, 70.21, 66.08, 61.949999999999996, 59.885, 57.82, 53.69, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 20.65, 18.585, 16.52, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2.979520457346583e-09</v>
+        <v>2.177136069041874e-09</v>
       </c>
       <c r="I26" t="n">
-        <v>2.939553654594749e-09</v>
+        <v>2.016986296059329e-09</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9865861626647713</v>
+        <v>0.9264401636352364</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8192041101487068</v>
+        <v>1.524945799155137</v>
       </c>
       <c r="L26" t="n">
-        <v>2.173451115865507e-18</v>
+        <v>1.084252586313076e-18</v>
       </c>
       <c r="M26" t="n">
-        <v>4.725804583287951e-27</v>
+        <v>6.289865194973849e-27</v>
       </c>
       <c r="N26" t="n">
-        <v>3.90961286677442e-24</v>
+        <v>7.489831723424602e-25</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4734954553861177</v>
+        <v>0.1796396409073602</v>
       </c>
     </row>
     <row r="27">
@@ -1845,47 +1845,47 @@
         <v>0.001217255818482812</v>
       </c>
       <c r="C27" t="n">
-        <v>376.5726334106728</v>
+        <v>-218.8135185185185</v>
       </c>
       <c r="D27" t="n">
-        <v>231.1698027842227</v>
+        <v>141.7393055555556</v>
       </c>
       <c r="E27" t="n">
-        <v>431</v>
+        <v>216</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[394.41499999999996, 396.48, 400.61, 404.74, 408.87, 410.935, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 402.675, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 212.695, 210.63, 208.565, 208.565, 206.5, 204.435, 204.435, 204.435, 202.37, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 202.37, 204.435, 204.435, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 212.695, 210.63, 208.565, 208.565, 206.5, 204.435, 204.435, 204.435, 204.435, 202.37, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 200.305, 202.37, 204.435, 204.435, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 394.41499999999996]</t>
+          <t>[-72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -179.655, -181.72, -185.85, -189.98, -192.045, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -326.27, -328.335, -330.4, -332.465, -334.53, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -355.18, -357.245, -359.31, -361.375, -363.44, -365.505, -367.57, -369.635, -371.7, -373.765, -373.765, -375.83, -377.895, -379.96, -382.025, -382.025, -384.09, -386.155, -386.155, -388.21999999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -392.34999999999997, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -394.41499999999996, -392.34999999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -388.21999999999997, -386.155, -386.155, -384.09, -382.025, -382.025, -379.96, -377.895, -377.895, -375.83, -373.765, -371.7, -369.635, -367.57, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -359.31]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[460.49499999999995, 458.43, 458.43, 458.43, 458.43, 456.36499999999995, 454.3, 454.3, 454.3, 452.23499999999996, 450.17, 450.17, 450.17, 448.10499999999996, 446.04, 446.04, 443.97499999999997, 441.91, 441.91, 439.84499999999997, 437.78000000000003, 437.78000000000003, 435.715, 433.65000000000003, 433.65000000000003, 431.585, 429.5199999999999, 427.455, 425.38999999999993, 425.38999999999993, 423.325, 421.25999999999993, 419.195, 417.12999999999994, 415.065, 412.99999999999994, 410.935, 408.86999999999995, 408.86999999999995, 406.805, 404.73999999999995, 402.675, 400.60999999999996, 398.545, 394.415, 392.34999999999997, 390.285, 388.21999999999997, 386.15500000000003, 384.09, 382.02500000000003, 379.96, 377.8949999999999, 375.83, 373.76499999999993, 371.7, 369.63499999999993, 367.57, 365.50499999999994, 361.37499999999994, 359.31, 357.24499999999995, 355.18, 353.11499999999995, 348.98499999999996, 346.92, 344.85499999999996, 340.72499999999997, 336.59499999999997, 334.53000000000003, 332.465, 328.335, 324.205, 320.075, 315.945, 311.815, 307.685, 305.61999999999995, 303.555, 299.425, 295.295, 291.165, 287.035, 282.90500000000003, 280.84, 278.77500000000003, 274.64500000000004, 270.51499999999993, 268.45, 266.38499999999993, 262.25499999999994, 260.19, 258.12499999999994, 253.99499999999995, 251.93, 249.86499999999995, 247.8, 245.73499999999996, 243.67000000000002, 241.60499999999996, 237.47499999999997, 235.41000000000003, 233.34499999999997, 229.21499999999997, 225.08499999999998, 223.02000000000004, 220.95499999999998, 216.825, 214.75999999999993, 212.695, 210.62999999999994, 208.565, 206.49999999999994, 204.435, 200.305, 198.24, 196.175, 192.04499999999996, 189.97999999999996, 187.91499999999996, 183.78499999999997, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 156.94, 154.875, 150.745, 146.615, 142.485, 138.35499999999996, 134.22499999999997, 130.09499999999997, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 103.25, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 86.72999999999996, 84.66499999999996, 82.59999999999997, 80.53499999999997, 78.46999999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10499999999996, 33.039999999999964, 33.039999999999964, 30.974999999999966, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 28.909999999999968, 30.974999999999966, 33.039999999999964, 35.10499999999996, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.46999999999997, 80.53499999999997, 84.66499999999996, 86.72999999999996, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 119.76999999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35499999999996, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78499999999997, 187.91499999999996, 189.97999999999996, 192.04499999999996, 196.175, 198.24, 200.305, 204.435, 206.49999999999994, 208.565, 210.62999999999994, 212.695, 214.75999999999993, 216.825, 218.88999999999993, 220.95499999999998, 225.08499999999998, 227.15000000000003, 229.21499999999997, 231.28000000000003, 233.34499999999997, 235.41000000000003, 237.47499999999997, 241.60499999999996, 243.67000000000002, 245.73499999999996, 247.8, 249.86499999999995, 251.93, 253.99499999999995, 256.06, 258.12499999999994, 262.25499999999994, 264.32, 266.38499999999993, 270.51499999999993, 272.58, 274.64500000000004, 278.77500000000003, 282.90500000000003, 287.035, 289.09999999999997, 291.165, 295.295, 299.425, 303.555, 307.685, 311.815, 315.945, 320.075, 324.205, 328.335, 332.465, 336.59499999999997, 338.66, 340.72499999999997, 344.85499999999996, 348.98499999999996, 351.05, 353.11499999999995, 357.24499999999995, 359.31, 361.37499999999994, 365.50499999999994, 367.57, 369.63499999999993, 373.76499999999993, 375.83, 377.8949999999999, 379.96, 382.02500000000003, 384.09, 386.15500000000003, 388.21999999999997, 390.285, 392.34999999999997, 394.415, 396.47999999999996, 398.545, 400.60999999999996, 402.675, 404.73999999999995, 406.805, 408.86999999999995, 410.935, 412.99999999999994, 415.065, 417.12999999999994, 419.195, 421.25999999999993, 421.25999999999993, 423.325, 425.38999999999993, 427.455, 429.5199999999999, 429.5199999999999, 431.585, 433.65000000000003, 433.65000000000003, 435.715, 437.78000000000003, 437.78000000000003, 439.84499999999997, 441.91, 441.91, 443.97499999999997, 446.04, 446.04, 446.04, 448.10499999999996, 450.17, 450.17, 450.17, 452.23499999999996, 454.3, 454.3, 454.3, 454.3, 456.36499999999995, 458.43, 458.43, 458.43, 458.43, 458.43, 458.43, 460.49499999999995, 462.56, 462.56, 462.56, 462.56, 462.56, 460.49499999999995]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 33.04, 35.105, 37.17, 41.3, 43.365, 45.43, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 109.445, 111.50999999999999, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 130.095, 132.16, 134.225, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 146.615, 148.68, 150.745, 152.81, 154.875, 156.94, 159.005, 161.07, 163.135, 165.2, 167.265, 169.32999999999998, 171.39499999999998, 173.46, 175.525, 177.59, 179.655, 181.72, 183.785, 185.85, 187.915, 187.915, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 206.5, 208.565, 208.565, 210.63, 212.695, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 210.63, 208.565, 208.565, 206.5, 204.435, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 196.17499999999998, 194.10999999999999, 192.045, 189.98, 187.915, 187.915, 185.85, 183.785, 181.72, 179.655, 177.59, 175.525, 173.46, 171.39499999999998, 169.32999999999998, 167.265, 165.2, 163.135, 161.07, 159.005, 156.94, 154.875, 152.81, 148.68, 146.615, 144.54999999999998, 142.48499999999999, 140.42, 136.29, 134.225, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 99.12, 94.99, 90.86, 86.73, 82.6, 78.47, 74.34, 70.21, 66.08, 64.015, 61.949999999999996, 57.82, 53.69, 51.625, 49.56, 45.43, 43.365, 41.3, 37.17, 35.105, 33.04, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2.946618853906791e-09</v>
+        <v>2.100128964914124e-09</v>
       </c>
       <c r="I27" t="n">
-        <v>3.018985151842915e-09</v>
+        <v>2.068158265441487e-09</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9760295946166051</v>
+        <v>0.9847767922795428</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7296623790373605</v>
+        <v>1.379028787649246</v>
       </c>
       <c r="L27" t="n">
-        <v>2.2665512239007e-18</v>
+        <v>1.132184595059338e-18</v>
       </c>
       <c r="M27" t="n">
-        <v>5.404405962957843e-27</v>
+        <v>6.624253040047098e-27</v>
       </c>
       <c r="N27" t="n">
-        <v>1.673945883842693e-24</v>
+        <v>5.16493777587542e-25</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2897233789361708</v>
+        <v>0.1453620057734131</v>
       </c>
     </row>
     <row r="28">
@@ -1898,47 +1898,47 @@
         <v>0.001265946051222125</v>
       </c>
       <c r="C28" t="n">
-        <v>375.8534126984127</v>
+        <v>-218.0303619909503</v>
       </c>
       <c r="D28" t="n">
-        <v>243.2907142857142</v>
+        <v>147.7736425339367</v>
       </c>
       <c r="E28" t="n">
-        <v>441</v>
+        <v>221</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[398.545, 400.61, 404.74, 408.87, 413.0, 415.065, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 210.63, 208.565, 208.565, 208.565, 208.565, 206.5, 204.435, 204.435, 204.435, 204.435, 204.435, 204.435, 204.435, 204.435, 206.5, 208.565, 208.565, 208.565, 208.565, 210.63, 212.695, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 212.695, 212.695, 210.63, 208.565, 208.565, 208.565, 208.565, 206.5, 204.435, 204.435, 204.435, 204.435, 204.435, 204.435, 204.435, 206.5, 208.565, 208.565, 208.565, 208.565, 208.565, 210.63, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 398.545]</t>
+          <t>[-80.535, -80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -371.7, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -379.96, -382.025, -382.025, -382.025, -384.09, -386.155, -386.155, -386.155, -386.155, -388.21999999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -390.28499999999997, -388.21999999999997, -386.155, -386.155, -386.155, -386.155, -384.09, -382.025, -382.025, -379.96, -377.895, -377.895, -375.83, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -363.44, -361.375, -359.31, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[485.2749999999999, 483.21, 483.21, 483.21, 483.21, 481.1449999999999, 479.08, 479.08, 479.08, 477.01499999999993, 474.95, 474.95, 474.95, 472.88499999999993, 470.82, 470.82, 468.75499999999994, 466.69, 466.69, 464.62499999999994, 462.56, 462.56, 460.49499999999995, 458.43, 458.43, 456.36499999999995, 454.3, 452.23499999999996, 450.17, 448.10499999999996, 446.04, 446.04, 443.97499999999997, 441.9099999999999, 439.84499999999997, 437.7799999999999, 435.715, 433.6499999999999, 431.585, 429.5199999999999, 427.455, 423.325, 421.25999999999993, 419.195, 417.12999999999994, 415.065, 410.935, 408.86999999999995, 406.805, 402.675, 400.60999999999996, 398.545, 394.415, 392.34999999999997, 390.2849999999999, 386.1549999999999, 384.09, 382.0249999999999, 377.8949999999999, 373.76499999999993, 371.7, 369.63499999999993, 365.50499999999994, 363.44, 361.37499999999994, 357.24499999999995, 353.11499999999995, 351.05, 348.98499999999996, 344.85499999999996, 340.72499999999997, 338.6599999999999, 336.59499999999997, 332.465, 328.335, 324.205, 320.075, 315.945, 311.815, 307.685, 303.555, 299.425, 295.295, 291.165, 287.035, 284.96999999999997, 282.9049999999999, 278.7749999999999, 276.71, 274.6449999999999, 272.58, 270.51499999999993, 266.38499999999993, 264.32, 262.25499999999994, 260.19, 258.12499999999994, 256.06, 253.99499999999995, 251.93, 249.86499999999995, 247.8, 245.73499999999996, 241.60499999999996, 237.47499999999997, 233.34499999999997, 231.27999999999992, 229.21499999999997, 227.14999999999992, 225.08499999999998, 223.01999999999992, 220.95499999999998, 218.88999999999993, 216.825, 214.76, 212.695, 210.63, 208.565, 204.43499999999995, 202.36999999999995, 200.30499999999995, 198.23999999999995, 196.17499999999995, 192.04499999999996, 187.91499999999996, 183.78499999999997, 181.71999999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 165.2, 163.135, 159.005, 154.875, 150.74499999999995, 146.61499999999995, 144.54999999999995, 142.48499999999996, 138.35499999999996, 134.22499999999997, 132.15999999999997, 130.09499999999997, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.11999999999995, 97.05499999999995, 92.92499999999995, 90.85999999999996, 88.79499999999996, 84.66499999999996, 80.53499999999997, 78.46999999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.49499999999995, 45.42999999999995, 45.42999999999995, 43.36499999999995, 41.299999999999955, 39.23499999999996, 37.16999999999996, 35.10499999999996, 33.039999999999964, 33.039999999999964, 30.974999999999966, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 26.84499999999997, 28.909999999999968, 28.909999999999968, 30.974999999999966, 33.039999999999964, 33.039999999999964, 35.10499999999996, 37.16999999999996, 39.23499999999996, 41.299999999999955, 43.36499999999995, 45.42999999999995, 47.49499999999995, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.46999999999997, 80.53499999999997, 84.66499999999996, 86.72999999999996, 88.79499999999996, 90.85999999999996, 92.92499999999995, 97.05499999999995, 99.11999999999995, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35499999999996, 140.41999999999996, 142.48499999999996, 146.61499999999995, 150.74499999999995, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.97999999999996, 192.04499999999996, 196.17499999999995, 198.23999999999995, 200.30499999999995, 204.43499999999995, 206.49999999999994, 208.565, 210.63, 212.695, 216.825, 218.88999999999993, 220.95499999999998, 223.01999999999992, 225.08499999999998, 227.14999999999992, 229.21499999999997, 231.27999999999992, 233.34499999999997, 235.41000000000003, 237.47499999999997, 241.60499999999996, 245.73499999999996, 247.8, 249.86499999999995, 251.93, 253.99499999999995, 256.06, 258.12499999999994, 260.19, 262.25499999999994, 264.32, 266.38499999999993, 268.45, 270.51499999999993, 274.6449999999999, 276.71, 278.7749999999999, 280.84, 282.9049999999999, 287.035, 291.165, 293.22999999999996, 295.295, 299.425, 303.555, 307.685, 309.74999999999994, 311.815, 315.945, 320.075, 324.205, 328.335, 332.465, 336.59499999999997, 338.6599999999999, 340.72499999999997, 344.85499999999996, 348.98499999999996, 353.11499999999995, 357.24499999999995, 359.31, 361.37499999999994, 365.50499999999994, 369.63499999999993, 371.7, 373.76499999999993, 377.8949999999999, 382.0249999999999, 384.09, 386.1549999999999, 390.2849999999999, 392.34999999999997, 394.415, 396.47999999999996, 398.545, 402.675, 404.73999999999995, 406.805, 410.935, 412.99999999999994, 415.065, 417.12999999999994, 419.195, 421.25999999999993, 423.325, 427.455, 429.5199999999999, 431.585, 433.6499999999999, 435.715, 437.7799999999999, 439.84499999999997, 441.9099999999999, 443.97499999999997, 446.04, 448.10499999999996, 450.17, 450.17, 452.23499999999996, 454.3, 456.36499999999995, 458.43, 458.43, 460.49499999999995, 462.56, 462.56, 464.62499999999994, 466.69, 466.69, 468.75499999999994, 470.82, 470.82, 472.88499999999993, 474.95, 474.95, 474.95, 477.01499999999993, 479.08, 479.08, 479.08, 479.08, 481.1449999999999, 483.21, 483.21, 483.21, 483.21, 483.21, 485.2749999999999, 487.34, 487.34, 487.34, 487.34, 487.34, 487.34, 487.34, 487.34, 487.34, 485.2749999999999]</t>
+          <t>[4.13, 8.26, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 123.89999999999999, 125.965, 128.03, 132.16, 134.225, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 216.825, 214.76, 212.695, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 189.98, 187.915, 185.85, 183.785, 181.72, 179.655, 177.59, 175.525, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 159.005, 156.94, 154.875, 152.81, 148.68, 146.615, 144.54999999999998, 140.42, 136.29, 134.225, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 90.86, 86.73, 82.6, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 35.105, 33.04, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H28" t="n">
         <v>2.273624466290041e-09</v>
       </c>
       <c r="I28" t="n">
-        <v>3.882531940835582e-09</v>
+        <v>1.908156386928791e-09</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5856035445263383</v>
+        <v>0.839257500620761</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6781700998649036</v>
+        <v>1.285136039300177</v>
       </c>
       <c r="L28" t="n">
-        <v>2.335212553576651e-18</v>
+        <v>1.160623768685701e-18</v>
       </c>
       <c r="M28" t="n">
-        <v>5.775760642580692e-27</v>
+        <v>6.879980153832749e-27</v>
       </c>
       <c r="N28" t="n">
-        <v>9.751587679187859e-25</v>
+        <v>2.98615247520834e-25</v>
       </c>
       <c r="O28" t="n">
-        <v>0.2139044838882742</v>
+        <v>0.1084549088957394</v>
       </c>
     </row>
     <row r="29">
@@ -1951,47 +1951,47 @@
         <v>0.001314636283961437</v>
       </c>
       <c r="C29" t="n">
-        <v>377.2424040632054</v>
+        <v>-217.3528251121077</v>
       </c>
       <c r="D29" t="n">
-        <v>251.999920993228</v>
+        <v>152.3006950672646</v>
       </c>
       <c r="E29" t="n">
-        <v>443</v>
+        <v>223</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[402.675, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 402.675]</t>
+          <t>[-86.73, -88.795, -86.73, -84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -379.96, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -379.96, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -342.78999999999996]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[501.79499999999996, 499.73, 499.73, 499.73, 499.73, 497.66499999999996, 495.6, 495.6, 495.6, 493.53499999999997, 491.47, 491.47, 489.405, 487.34000000000003, 487.34000000000003, 487.34000000000003, 485.275, 483.21000000000004, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 474.95000000000005, 472.885, 470.82000000000005, 470.82000000000005, 468.755, 466.69000000000005, 464.625, 462.56000000000006, 460.495, 458.43000000000006, 456.365, 454.30000000000007, 452.235, 450.16999999999996, 448.105, 446.03999999999996, 443.975, 441.90999999999997, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 425.39, 423.32500000000005, 419.19500000000005, 417.13, 415.06500000000005, 410.93500000000006, 408.87, 406.80500000000006, 402.67500000000007, 398.54499999999996, 396.48, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.44000000000005, 361.375, 357.245, 353.115, 348.985, 344.855, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 320.07500000000005, 315.94500000000005, 311.81500000000005, 307.68500000000006, 305.62, 303.55500000000006, 299.42500000000007, 295.2950000000001, 293.23, 291.16499999999996, 287.03499999999997, 282.905, 280.84000000000003, 278.775, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 262.255, 260.19000000000005, 258.125, 256.06000000000006, 253.995, 251.93000000000006, 249.865, 247.80000000000007, 245.735, 241.60500000000002, 239.53999999999996, 237.47500000000002, 235.40999999999997, 233.34500000000003, 231.27999999999997, 229.21500000000003, 227.14999999999998, 225.08500000000004, 220.95500000000004, 218.89000000000004, 216.82500000000005, 212.695, 208.565, 206.5, 204.435, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65500000000003, 177.59000000000003, 175.52500000000003, 171.39500000000004, 167.26500000000004, 163.13500000000005, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.03000000000003, 125.96500000000003, 121.83500000000004, 117.70500000000004, 113.57500000000005, 111.51000000000005, 109.44500000000005, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40500000000003, 74.34000000000003, 72.27500000000003, 70.21000000000004, 68.14500000000004, 64.01500000000004, 61.950000000000045, 59.88500000000005, 57.82000000000005, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.585000000000036, 16.52000000000004, 16.52000000000004, 14.455000000000041, 12.390000000000043, 12.390000000000043, 12.390000000000043, 10.325000000000045, 8.260000000000048, 8.260000000000048, 8.260000000000048, 6.19500000000005, 4.130000000000052, 4.130000000000052, 4.130000000000052, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.130000000000052, 4.130000000000052, 4.130000000000052, 4.130000000000052, 4.130000000000052, 6.19500000000005, 8.260000000000048, 8.260000000000048, 8.260000000000048, 10.325000000000045, 12.390000000000043, 12.390000000000043, 12.390000000000043, 14.455000000000041, 16.52000000000004, 16.52000000000004, 18.585000000000036, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.82000000000005, 59.88500000000005, 61.950000000000045, 64.01500000000004, 66.08000000000004, 68.14500000000004, 72.27500000000003, 74.34000000000003, 76.40500000000003, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 103.25, 105.315, 109.44500000000005, 113.57500000000005, 117.70500000000004, 119.77000000000004, 121.83500000000004, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.13500000000005, 167.26500000000004, 171.39500000000004, 175.52500000000003, 179.65500000000003, 181.72000000000003, 183.78500000000003, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.82500000000005, 218.89000000000004, 220.95500000000004, 225.08500000000004, 227.14999999999998, 229.21500000000003, 231.27999999999997, 233.34500000000003, 235.40999999999997, 237.47500000000002, 239.53999999999996, 241.60500000000002, 245.735, 247.80000000000007, 249.865, 251.93000000000006, 253.995, 256.06000000000006, 258.125, 260.19000000000005, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 282.905, 284.97, 287.03499999999997, 291.16499999999996, 293.23, 295.2950000000001, 299.42500000000007, 301.49, 303.55500000000006, 307.68500000000006, 311.81500000000005, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 328.33500000000004, 332.46500000000003, 336.595, 340.725, 344.855, 348.985, 353.115, 357.245, 361.375, 365.505, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 396.48, 398.54499999999996, 402.67500000000007, 404.74, 406.80500000000006, 410.93500000000006, 413.0, 415.06500000000005, 419.19500000000005, 421.26, 423.32500000000005, 427.45500000000004, 429.52, 431.58500000000004, 433.65, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 446.03999999999996, 448.105, 450.16999999999996, 452.235, 454.30000000000007, 456.365, 458.43000000000006, 460.495, 462.56000000000006, 464.625, 466.69000000000005, 466.69000000000005, 468.755, 470.82000000000005, 472.885, 474.95000000000005, 474.95000000000005, 477.015, 479.08000000000004, 479.08000000000004, 481.145, 483.21000000000004, 483.21000000000004, 485.275, 487.34000000000003, 487.34000000000003, 489.405, 491.47, 491.47, 491.47, 493.53499999999997, 495.6, 495.6, 495.6, 495.6, 497.66499999999996, 499.73, 499.73, 499.73, 499.73, 499.73, 501.79499999999996, 503.86, 503.86, 503.86, 503.86, 503.86, 503.86, 503.86, 503.86, 503.86, 503.86, 501.79499999999996]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 33.04, 35.105, 37.17, 41.3, 45.43, 47.495, 49.56, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 125.965, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 192.045, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 175.525, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 159.005, 156.94, 152.81, 150.745, 148.68, 144.54999999999998, 140.42, 136.29, 134.225, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 103.25, 99.12, 94.99, 90.86, 86.73, 82.6, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 61.949999999999996, 59.885, 57.82, 53.69, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 35.105, 33.04, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3.037756356658624e-09</v>
+        <v>2.143022269041874e-09</v>
       </c>
       <c r="I29" t="n">
-        <v>3.212464054594749e-09</v>
+        <v>2.051676786240833e-09</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9456156722792765</v>
+        <v>0.9573753926309497</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6256709830587869</v>
+        <v>1.187600323707755</v>
       </c>
       <c r="L29" t="n">
-        <v>2.380598856243828e-18</v>
+        <v>1.19139044501295e-18</v>
       </c>
       <c r="M29" t="n">
-        <v>6.099870683896228e-27</v>
+        <v>6.963935038869896e-27</v>
       </c>
       <c r="N29" t="n">
-        <v>6.861143712958145e-25</v>
+        <v>2.039132246903359e-25</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1745921692224632</v>
+        <v>0.08908039981900462</v>
       </c>
     </row>
     <row r="30">
@@ -2004,47 +2004,47 @@
         <v>0.00136332651670075</v>
       </c>
       <c r="C30" t="n">
-        <v>377.6809179265659</v>
+        <v>-216.9233333333333</v>
       </c>
       <c r="D30" t="n">
-        <v>260.2925809935205</v>
+        <v>156.4483333333334</v>
       </c>
       <c r="E30" t="n">
-        <v>463</v>
+        <v>231</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[402.675, 404.74, 408.87, 413.0, 415.065, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 493.53499999999997, 493.53499999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 402.675]</t>
+          <t>[-101.185, -101.185, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -379.96, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -379.96, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -328.335, -328.335]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[518.315, 516.25, 516.25, 516.25, 514.1850000000001, 512.12, 512.12, 512.12, 510.05499999999995, 507.99, 507.99, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 499.73, 499.73, 497.66499999999996, 495.6, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 470.82000000000005, 468.755, 466.69000000000005, 464.625, 462.56000000000006, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 421.26, 419.19500000000005, 415.06500000000005, 410.93500000000006, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 357.245, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81500000000005, 307.68500000000006, 305.62, 303.55500000000006, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 258.125, 253.995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.53999999999996, 237.47500000000002, 235.40999999999997, 233.34500000000003, 231.28000000000003, 229.21500000000003, 225.08500000000004, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65500000000003, 175.52500000000003, 173.46000000000004, 171.39500000000004, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83500000000004, 119.77000000000004, 117.70500000000004, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 72.27500000000003, 70.21000000000004, 68.14500000000004, 66.08000000000004, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.585000000000036, 16.52000000000004, 16.52000000000004, 14.455000000000041, 12.390000000000043, 12.390000000000043, 12.390000000000043, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.390000000000043, 12.390000000000043, 12.390000000000043, 14.455000000000041, 16.52000000000004, 16.52000000000004, 18.585000000000036, 20.650000000000034, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.08000000000004, 68.14500000000004, 72.27500000000003, 74.34000000000003, 76.40500000000003, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70500000000004, 119.77000000000004, 121.83500000000004, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39500000000004, 175.52500000000003, 179.65500000000003, 181.72000000000003, 183.78500000000003, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 225.08500000000004, 227.15000000000003, 229.21500000000003, 231.28000000000003, 233.34500000000003, 235.40999999999997, 237.47500000000002, 239.53999999999996, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 253.995, 258.125, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 303.55500000000006, 305.62, 307.68500000000006, 311.81500000000005, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 357.245, 361.375, 365.505, 369.635, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 396.48, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93500000000006, 413.0, 415.06500000000005, 419.19500000000005, 421.26, 423.32500000000005, 427.45500000000004, 431.58500000000004, 433.65, 435.71500000000003, 437.78, 439.845, 443.975, 446.03999999999996, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 462.56000000000006, 464.625, 466.69000000000005, 468.755, 470.82000000000005, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 491.47, 493.53499999999997, 495.6, 495.6, 497.66499999999996, 499.73, 499.73, 501.79499999999996, 503.86, 503.86, 503.86, 505.92499999999995, 507.99, 507.99, 507.99, 510.05499999999995, 512.12, 512.12, 512.12, 512.12, 514.1850000000001, 516.25, 516.25, 516.25, 516.25, 516.25, 518.315, 520.38, 520.38, 520.38, 520.38, 520.38, 520.38, 520.38, 520.38, 520.38, 518.315]</t>
+          <t>[4.13, 8.26, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 210.63, 212.695, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 262.255, 262.255, 262.255, 262.255, 262.255, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 183.785, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 159.005, 156.94, 152.81, 148.68, 144.54999999999998, 142.48499999999999, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 82.6, 80.535, 78.47, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3.209537553218832e-09</v>
+        <v>2.135957069729833e-09</v>
       </c>
       <c r="I30" t="n">
-        <v>3.281903851154957e-09</v>
+        <v>2.035832082801041e-09</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9779499030994897</v>
+        <v>0.9531240639862411</v>
       </c>
       <c r="K30" t="n">
-        <v>0.6066915191003399</v>
+        <v>1.153357140861802</v>
       </c>
       <c r="L30" t="n">
-        <v>2.414347645406668e-18</v>
+        <v>1.198154749737365e-18</v>
       </c>
       <c r="M30" t="n">
-        <v>6.500113904077346e-27</v>
+        <v>7.050866342616297e-27</v>
       </c>
       <c r="N30" t="n">
-        <v>6.876130076708686e-25</v>
+        <v>4.042674337561074e-26</v>
       </c>
       <c r="O30" t="n">
-        <v>0.1693161463205413</v>
+        <v>0.03941848735425846</v>
       </c>
     </row>
     <row r="31">
@@ -2057,47 +2057,47 @@
         <v>0.001412016749440062</v>
       </c>
       <c r="C31" t="n">
-        <v>377.6416257668712</v>
+        <v>-217.3222857142857</v>
       </c>
       <c r="D31" t="n">
-        <v>268.4880061349693</v>
+        <v>156.1392857142857</v>
       </c>
       <c r="E31" t="n">
-        <v>489</v>
+        <v>245</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[402.675, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 477.015, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 214.76, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 212.695, 214.76, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 402.675]</t>
+          <t>[-117.705, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -379.96, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -382.025, -379.96, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -307.685, -309.75]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[534.835, 532.77, 532.77, 532.77, 532.77, 530.705, 528.64, 528.64, 528.64, 526.575, 524.51, 524.51, 522.445, 520.38, 520.38, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.82000000000005, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19500000000005, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81500000000005, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.54000000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65500000000003, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 74.34000000000003, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.34000000000003, 76.40500000000003, 80.53500000000003, 82.60000000000002, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 179.65500000000003, 181.72000000000003, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34500000000003, 235.41000000000003, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 307.68499999999995, 309.75, 311.81500000000005, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 361.375, 365.505, 367.57000000000005, 369.635, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 408.87, 410.93499999999995, 415.06499999999994, 419.19500000000005, 423.32500000000005, 425.39, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 454.29999999999995, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 470.82000000000005, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 520.38, 522.445, 524.51, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 534.835]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 183.785, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 146.615, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3.378392248403124e-09</v>
+        <v>2.160079169041874e-09</v>
       </c>
       <c r="I31" t="n">
-        <v>3.40665304565129e-09</v>
+        <v>2.020639328197799e-09</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9917042337832899</v>
+        <v>0.9354468841501187</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5888296222011162</v>
+        <v>1.121033345507179</v>
       </c>
       <c r="L31" t="n">
-        <v>2.455951756184811e-18</v>
+        <v>1.22172071458378e-18</v>
       </c>
       <c r="M31" t="n">
-        <v>6.839763423429284e-27</v>
+        <v>7.204371467365901e-27</v>
       </c>
       <c r="N31" t="n">
-        <v>7.191418273917861e-25</v>
+        <v>1.292172173701981e-26</v>
       </c>
       <c r="O31" t="n">
-        <v>0.1688004310745685</v>
+        <v>0.02204697249999876</v>
       </c>
     </row>
     <row r="32">
@@ -2110,47 +2110,47 @@
         <v>0.001460706982179375</v>
       </c>
       <c r="C32" t="n">
-        <v>379.7269207920792</v>
+        <v>-214.8419444444444</v>
       </c>
       <c r="D32" t="n">
-        <v>276.7304455445545</v>
+        <v>158.5952777777778</v>
       </c>
       <c r="E32" t="n">
-        <v>505</v>
+        <v>252</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[394.41499999999996, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 464.625, 464.625, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 402.675, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 373.765, 371.7, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 299.425, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 377.895, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 394.41499999999996]</t>
+          <t>[-130.095, -130.095, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -179.655, -181.72, -185.85, -189.98, -192.045, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -220.95499999999998, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -295.295]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[551.355, 549.29, 549.29, 549.29, 549.29, 549.29, 547.225, 545.16, 545.16, 545.16, 543.095, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.5749999999999, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 274.645, 270.515, 268.45000000000005, 266.385, 264.31999999999994, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.8, 245.735, 243.67000000000002, 241.60500000000002, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78499999999997, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09499999999997, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 82.60000000000002, 80.53499999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.46999999999997, 80.53499999999997, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 185.84999999999997, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 241.60500000000002, 243.67000000000002, 245.735, 247.8, 247.8, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.31999999999994, 266.385, 268.45000000000005, 270.515, 274.645, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.94999999999993, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.5749999999999, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 547.225, 549.29, 549.29, 549.29, 549.29, 549.29, 549.29, 549.29, 551.355, 553.42, 553.42, 553.42, 553.42, 551.355]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3.42370994565129e-09</v>
+        <v>2.091851569041874e-09</v>
       </c>
       <c r="I32" t="n">
-        <v>3.574295544275374e-09</v>
+        <v>2.072370275921458e-09</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9578698524621829</v>
+        <v>0.9906870576245811</v>
       </c>
       <c r="K32" t="n">
-        <v>0.564839539297172</v>
+        <v>1.076841060278745</v>
       </c>
       <c r="L32" t="n">
-        <v>2.472826150766133e-18</v>
+        <v>1.227103064579542e-18</v>
       </c>
       <c r="M32" t="n">
-        <v>7.291455424625325e-27</v>
+        <v>7.197358500018647e-27</v>
       </c>
       <c r="N32" t="n">
-        <v>4.337205441100862e-25</v>
+        <v>1.980443603762727e-26</v>
       </c>
       <c r="O32" t="n">
-        <v>0.1269652000578039</v>
+        <v>0.02730747149999968</v>
       </c>
     </row>
     <row r="33">
@@ -2163,47 +2163,47 @@
         <v>0.001509397214918687</v>
       </c>
       <c r="C33" t="n">
-        <v>379.6854624277457</v>
+        <v>-215.0935769230769</v>
       </c>
       <c r="D33" t="n">
-        <v>280.851936416185</v>
+        <v>158.7985</v>
       </c>
       <c r="E33" t="n">
-        <v>519</v>
+        <v>260</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[402.675, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 456.365, 456.365, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 402.675]</t>
+          <t>[-138.355, -138.355, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -282.905, -284.96999999999997]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[559.615, 557.55, 557.55, 557.55, 557.55, 555.485, 553.42, 553.42, 553.42, 551.355, 549.29, 549.29, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 530.7049999999999, 528.64, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 481.145, 479.0799999999999, 477.015, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 278.775, 274.645, 272.58000000000004, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.93, 249.865, 247.8, 247.8, 245.735, 243.66999999999996, 241.60499999999996, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 189.97999999999996, 187.91499999999996, 183.78499999999997, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22499999999997, 130.09499999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66499999999996, 80.53499999999997, 78.46999999999997, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 55.754999999999995, 53.69, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.974999999999966, 28.909999999999968, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 30.974999999999966, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.46999999999997, 80.53499999999997, 82.59999999999997, 84.66499999999996, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78499999999997, 187.91499999999996, 189.97999999999996, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 241.60499999999996, 243.66999999999996, 245.735, 247.8, 249.865, 251.93, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.58000000000004, 274.645, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.8299999999999, 377.895, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.94999999999993, 477.015, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 532.77, 534.835, 536.9, 536.9, 538.965, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 547.225, 549.29, 549.29, 549.29, 551.355, 553.42, 553.42, 553.42, 555.485, 557.55, 557.55, 557.55, 557.55, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 559.615]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3.560165145651291e-09</v>
+        <v>2.128891870417791e-09</v>
       </c>
       <c r="I33" t="n">
-        <v>3.646661842211499e-09</v>
+        <v>2.08010163004239e-09</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9762805819944763</v>
+        <v>0.9770818607307535</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5568763548985296</v>
+        <v>1.062360136034626</v>
       </c>
       <c r="L33" t="n">
-        <v>2.498428680475843e-18</v>
+        <v>1.241722690919482e-18</v>
       </c>
       <c r="M33" t="n">
-        <v>7.472593433589898e-27</v>
+        <v>7.221829832540483e-27</v>
       </c>
       <c r="N33" t="n">
-        <v>1.75932960827083e-25</v>
+        <v>4.574989018608685e-27</v>
       </c>
       <c r="O33" t="n">
-        <v>0.07987755184180756</v>
+        <v>0.01310262221910063</v>
       </c>
     </row>
     <row r="34">
@@ -2216,47 +2216,47 @@
         <v>0.001558087447658</v>
       </c>
       <c r="C34" t="n">
-        <v>380.9866885553471</v>
+        <v>-212.9502247191011</v>
       </c>
       <c r="D34" t="n">
-        <v>284.5089587242027</v>
+        <v>159.8712172284644</v>
       </c>
       <c r="E34" t="n">
-        <v>533</v>
+        <v>267</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[406.805, 408.87, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 448.10499999999996, 448.10499999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 406.805, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 320.075, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 406.805]</t>
+          <t>[-146.615, -146.615, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -185.85, -187.915, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -274.645, -274.645]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[567.875, 565.81, 565.81, 565.81, 565.81, 563.745, 561.68, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 541.03, 538.965, 536.9, 534.8349999999999, 532.77, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 485.275, 483.2099999999999, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 435.71500000000003, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 375.8299999999999, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 359.30999999999995, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.2049999999999, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 282.905, 278.775, 276.71000000000004, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.06, 253.995, 251.93, 249.865, 247.79999999999995, 247.79999999999995, 245.73499999999996, 243.66999999999996, 241.60499999999996, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.10999999999996, 192.04499999999996, 187.91499999999996, 183.78499999999997, 181.71999999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35499999999996, 136.28999999999996, 134.22499999999997, 130.09499999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 92.92500000000001, 90.86000000000001, 88.79499999999996, 84.66499999999996, 82.59999999999997, 80.53499999999997, 78.46999999999997, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10499999999996, 33.039999999999964, 33.039999999999964, 30.974999999999966, 28.909999999999968, 28.909999999999968, 26.84499999999997, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 30.974999999999966, 33.039999999999964, 33.039999999999964, 35.10499999999996, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.46999999999997, 80.53499999999997, 84.66499999999996, 86.72999999999996, 88.79499999999996, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35499999999996, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.97999999999996, 192.04499999999996, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 241.60499999999996, 243.66999999999996, 245.73499999999996, 247.79999999999995, 249.865, 251.93, 251.93, 253.995, 256.06, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.71000000000004, 278.775, 282.905, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 375.8299999999999, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 404.74, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 472.885, 474.94999999999993, 477.015, 481.145, 483.2099999999999, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 536.9, 538.965, 541.03, 543.095, 545.16, 545.16, 547.225, 549.29, 549.29, 551.355, 553.42, 553.42, 553.42, 555.485, 557.55, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 76.405, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 125.965, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>2.091851569041874e-09</v>
       </c>
       <c r="I34" t="n">
-        <v>5.273838413317248e-09</v>
+        <v>2.114761471793708e-09</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3966468831808782</v>
+        <v>0.9891666729050055</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5560856517764192</v>
+        <v>1.061532669513675</v>
       </c>
       <c r="L34" t="n">
-        <v>2.513557448031585e-18</v>
+        <v>1.247905119968675e-18</v>
       </c>
       <c r="M34" t="n">
-        <v>7.717752377148384e-27</v>
+        <v>7.241199939369654e-27</v>
       </c>
       <c r="N34" t="n">
-        <v>2.041186831641563e-25</v>
+        <v>2.41944661645733e-27</v>
       </c>
       <c r="O34" t="n">
-        <v>0.08466087948847489</v>
+        <v>-0.009515674315884848</v>
       </c>
     </row>
     <row r="35">
@@ -2269,47 +2269,47 @@
         <v>0.001606777680397312</v>
       </c>
       <c r="C35" t="n">
-        <v>382.0324954627949</v>
+        <v>-212.4788086642599</v>
       </c>
       <c r="D35" t="n">
-        <v>289.0962522686025</v>
+        <v>157.8718592057762</v>
       </c>
       <c r="E35" t="n">
-        <v>551</v>
+        <v>277</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[398.545, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 439.84499999999997, 437.78, 435.715, 437.78, 439.84499999999997, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 402.675, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 332.465, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 377.895, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 398.545]</t>
+          <t>[-156.94, -159.005, -156.94, -154.875, -152.81, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -86.73, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -189.98, -192.045, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -375.83, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -377.895, -375.83, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -262.255, -264.32]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[576.135, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 565.81, 563.745, 561.68, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 538.9649999999999, 536.9, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 491.47, 489.405, 485.275, 483.2099999999999, 481.145, 477.015, 472.885, 470.81999999999994, 468.755, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 448.105, 443.975, 439.845, 435.7149999999999, 433.65, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 379.9599999999999, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.3349999999999, 326.27, 324.2049999999999, 322.14, 320.07499999999993, 318.01, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 262.255, 260.19000000000005, 260.19000000000005, 258.125, 256.06000000000006, 256.06000000000006, 253.99500000000003, 251.92999999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 239.54, 237.475, 235.41, 233.345, 229.215, 227.15, 225.085, 223.02, 220.955, 218.89000000000001, 216.82500000000002, 212.69500000000002, 210.63000000000002, 208.56500000000003, 206.50000000000003, 204.43500000000003, 200.30500000000004, 198.23999999999998, 196.17499999999998, 192.045, 187.915, 185.85, 183.785, 179.655, 175.525, 171.395, 169.33, 167.26500000000001, 163.13500000000002, 159.00500000000002, 154.87500000000003, 150.74500000000003, 146.61500000000004, 142.48499999999999, 138.355, 134.225, 132.16, 130.095, 125.965, 121.83500000000001, 117.70500000000001, 113.57500000000002, 111.51000000000002, 109.44500000000002, 105.31500000000003, 103.25000000000003, 101.18500000000003, 97.05500000000004, 92.92499999999998, 90.85999999999999, 88.79499999999999, 84.66499999999999, 82.6, 80.535, 78.47, 76.405, 72.275, 70.21000000000001, 68.14500000000001, 66.08000000000001, 64.01500000000001, 61.95000000000002, 59.88500000000002, 57.82000000000002, 55.755000000000024, 53.690000000000026, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 43.36500000000004, 41.30000000000004, 39.234999999999985, 37.16999999999999, 37.16999999999999, 35.10499999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 28.909999999999997, 26.845, 24.78, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 2.065000000000026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.065000000000026, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 24.78, 26.845, 28.909999999999997, 28.909999999999997, 30.974999999999994, 33.03999999999999, 35.10499999999999, 37.16999999999999, 39.234999999999985, 41.30000000000004, 41.30000000000004, 43.36500000000004, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 53.690000000000026, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 66.08000000000001, 68.14500000000001, 72.275, 74.34, 76.405, 78.47, 80.535, 84.66499999999999, 86.72999999999999, 88.79499999999999, 92.92499999999998, 94.99000000000004, 97.05500000000004, 101.18500000000003, 105.31500000000003, 107.38000000000002, 109.44500000000002, 113.57500000000002, 117.70500000000001, 121.83500000000001, 125.965, 128.03, 130.095, 134.225, 138.355, 142.48499999999999, 146.61500000000004, 150.74500000000003, 154.87500000000003, 156.94000000000003, 159.00500000000002, 163.13500000000002, 167.26500000000001, 171.395, 175.525, 177.59, 179.655, 183.785, 187.915, 189.98, 192.045, 196.17499999999998, 198.23999999999998, 200.30500000000004, 204.43500000000003, 206.50000000000003, 208.56500000000003, 210.63000000000002, 212.69500000000002, 216.82500000000002, 218.89000000000001, 220.955, 223.02, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.92999999999998, 251.92999999999998, 253.99500000000003, 256.06000000000006, 258.125, 260.19000000000005, 260.19000000000005, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.905, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 355.17999999999995, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 375.8299999999999, 377.895, 382.025, 384.0899999999999, 386.155, 390.28499999999997, 394.41499999999996, 396.48, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 417.13, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.7149999999999, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 477.015, 479.0799999999999, 481.145, 485.275, 487.3399999999999, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.9649999999999, 541.03, 541.03, 543.095, 545.16, 547.225, 549.29, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 134.225, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3.716101638771707e-09</v>
+        <v>2.133030568353916e-09</v>
       </c>
       <c r="I35" t="n">
-        <v>3.86668723739579e-09</v>
+        <v>2.118900169729833e-09</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9610556558162429</v>
+        <v>0.9933754354795824</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5484608712498483</v>
+        <v>1.047631481473733</v>
       </c>
       <c r="L35" t="n">
-        <v>2.516466826407583e-18</v>
+        <v>1.252196453073438e-18</v>
       </c>
       <c r="M35" t="n">
-        <v>7.924825893180984e-27</v>
+        <v>7.284217699339752e-27</v>
       </c>
       <c r="N35" t="n">
-        <v>7.99976991269609e-26</v>
+        <v>1.966656149044403e-26</v>
       </c>
       <c r="O35" t="n">
-        <v>0.05230349380710875</v>
+        <v>-0.0270495207982373</v>
       </c>
     </row>
     <row r="36">
@@ -2322,47 +2322,47 @@
         <v>0.001655467913136625</v>
       </c>
       <c r="C36" t="n">
-        <v>383.0816846846847</v>
+        <v>-210.8825539568346</v>
       </c>
       <c r="D36" t="n">
-        <v>289.6022972972973</v>
+        <v>157.2371223021583</v>
       </c>
       <c r="E36" t="n">
-        <v>555</v>
+        <v>278</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[410.935, 413.0, 417.13, 421.26, 423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 431.585, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 410.935, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 365.505, 363.44, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 218.89, 216.825, 216.825, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 410.935]</t>
+          <t>[-161.07, -163.135, -163.135, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -229.215, -231.28, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -272.58, -270.515, -268.45, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[576.135, 574.0699999999999, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 565.81, 563.745, 561.68, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 538.9649999999999, 536.9, 534.8349999999999, 532.77, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 489.405, 487.3399999999999, 485.275, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.7149999999999, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 379.9599999999999, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 359.30999999999995, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.3349999999999, 326.27, 324.2049999999999, 322.14, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.19000000000005, 260.19000000000005, 258.125, 256.06000000000006, 253.99500000000003, 251.92999999999998, 251.92999999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.02, 220.955, 218.89000000000001, 216.82500000000002, 212.69500000000002, 210.63000000000002, 208.56500000000003, 206.50000000000003, 204.43500000000003, 200.30500000000004, 198.23999999999998, 196.17499999999998, 192.045, 187.915, 185.85, 183.785, 179.655, 175.525, 173.46, 171.395, 167.26500000000001, 163.13500000000002, 159.00500000000002, 154.87500000000003, 150.74500000000003, 146.61500000000004, 142.48499999999999, 138.355, 134.225, 130.095, 125.965, 123.9, 121.83500000000001, 117.70500000000001, 113.57500000000002, 109.44500000000002, 107.38000000000002, 105.31500000000003, 101.18500000000003, 99.12000000000003, 97.05500000000004, 92.92499999999998, 88.79499999999999, 86.72999999999999, 84.66499999999999, 82.6, 80.535, 76.405, 74.34, 72.275, 68.14500000000001, 66.08000000000001, 64.01500000000001, 61.95000000000002, 59.88500000000002, 57.82000000000002, 55.755000000000024, 53.690000000000026, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 43.36500000000004, 41.30000000000004, 41.30000000000004, 39.234999999999985, 37.16999999999999, 35.10499999999999, 33.03999999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 26.845, 24.78, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.130000000000024, 4.130000000000024, 4.130000000000024, 2.065000000000026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.065000000000026, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 24.78, 26.845, 28.909999999999997, 28.909999999999997, 30.974999999999994, 33.03999999999999, 35.10499999999999, 37.16999999999999, 37.16999999999999, 39.234999999999985, 41.30000000000004, 43.36500000000004, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 53.690000000000026, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 66.08000000000001, 68.14500000000001, 72.275, 74.34, 76.405, 78.47, 80.535, 84.66499999999999, 86.72999999999999, 88.79499999999999, 92.92499999999998, 94.99000000000004, 97.05500000000004, 101.18500000000003, 105.31500000000003, 107.38000000000002, 109.44500000000002, 113.57500000000002, 117.70500000000001, 121.83500000000001, 125.965, 130.095, 134.225, 138.355, 142.48499999999999, 146.61500000000004, 150.74500000000003, 154.87500000000003, 159.00500000000002, 163.13500000000002, 167.26500000000001, 169.33, 171.395, 175.525, 179.655, 181.72, 183.785, 187.915, 192.045, 194.10999999999999, 196.17499999999998, 200.30500000000004, 202.37000000000003, 204.43500000000003, 206.50000000000003, 208.56500000000003, 212.69500000000002, 214.76000000000002, 216.82500000000002, 218.89000000000001, 220.955, 223.02, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.92999999999998, 251.92999999999998, 253.99500000000003, 256.06000000000006, 258.125, 260.19000000000005, 260.19000000000005, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 355.17999999999995, 357.245, 359.30999999999995, 361.375, 363.43999999999994, 365.505, 369.635, 371.69999999999993, 373.765, 377.895, 379.9599999999999, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 429.52, 431.5849999999999, 435.7149999999999, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 477.015, 479.0799999999999, 481.145, 485.275, 487.3399999999999, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.9649999999999, 541.03, 543.095, 545.16, 545.16, 547.225, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135]</t>
+          <t>[2.065, 4.13, 8.26, 10.325, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 117.705, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5.586213507813581e-09</v>
+        <v>2.067729469729833e-09</v>
       </c>
       <c r="I36" t="n">
-        <v>2.074794669041874e-09</v>
+        <v>2.160079169041874e-09</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3714134209406434</v>
+        <v>0.9572470765721962</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5484608712498483</v>
+        <v>1.034536087955311</v>
       </c>
       <c r="L36" t="n">
-        <v>2.513557448031585e-18</v>
+        <v>1.248996136859699e-18</v>
       </c>
       <c r="M36" t="n">
-        <v>7.984408832877118e-27</v>
+        <v>7.176856158835433e-27</v>
       </c>
       <c r="N36" t="n">
-        <v>1.68955787346757e-31</v>
+        <v>4.003739669129744e-27</v>
       </c>
       <c r="O36" t="n">
-        <v>-7.572721234749835e-05</v>
+        <v>-0.01229568168411554</v>
       </c>
     </row>
     <row r="37">
@@ -2375,47 +2375,47 @@
         <v>0.001704158145875937</v>
       </c>
       <c r="C37" t="n">
-        <v>384.0343895870736</v>
+        <v>-210.55625</v>
       </c>
       <c r="D37" t="n">
-        <v>289.0888779174147</v>
+        <v>156.6745</v>
       </c>
       <c r="E37" t="n">
-        <v>557</v>
+        <v>280</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[415.065, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 427.455, 429.52, 431.585, 433.65, 435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 344.855, 344.855, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065]</t>
+          <t>[-165.2, -167.265, -165.2, -163.135, -161.07, -159.005, -156.94, -152.81, -150.745, -148.68, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -117.705, -115.64, -111.50999999999999, -109.445, -107.38, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -179.655, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -260.19, -258.125, -256.06, -251.93, -249.86499999999998, -249.86499999999998, -251.93]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[576.135, 574.0699999999999, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 565.81, 565.81, 563.745, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 543.095, 541.03, 541.03, 538.9649999999999, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 497.66499999999996, 495.6, 493.53499999999997, 489.405, 487.3399999999999, 485.275, 481.145, 479.0799999999999, 477.015, 472.885, 468.755, 466.68999999999994, 464.625, 460.495, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 435.7149999999999, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 404.74, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 379.9599999999999, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.3349999999999, 326.27, 324.2049999999999, 322.14, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 274.645, 272.5799999999999, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.19000000000005, 258.125, 256.06000000000006, 256.06000000000006, 253.99500000000003, 251.92999999999998, 251.92999999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.02, 220.955, 218.89000000000001, 216.82500000000002, 214.76000000000002, 212.69500000000002, 208.56500000000003, 206.50000000000003, 204.43500000000003, 200.30500000000004, 198.23999999999998, 196.17499999999998, 192.045, 189.98, 187.915, 183.785, 179.655, 177.59, 175.525, 171.395, 167.26500000000001, 163.13500000000002, 159.00500000000002, 154.87500000000003, 150.74500000000003, 146.61500000000004, 142.48499999999999, 138.355, 134.225, 130.095, 125.965, 121.83500000000001, 119.77000000000001, 117.70500000000001, 113.57500000000002, 109.44500000000002, 107.38000000000002, 105.31500000000003, 101.18500000000003, 97.05500000000004, 94.99000000000004, 92.92499999999998, 88.79499999999999, 86.72999999999999, 84.66499999999999, 80.535, 78.47, 76.405, 72.275, 70.21000000000001, 68.14500000000001, 66.08000000000001, 64.01500000000001, 61.95000000000002, 59.88500000000002, 57.82000000000002, 55.755000000000024, 53.690000000000026, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 43.36500000000004, 41.30000000000004, 39.234999999999985, 37.16999999999999, 35.10499999999999, 33.03999999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 28.909999999999997, 26.845, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.130000000000024, 4.130000000000024, 4.130000000000024, 2.065000000000026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.065000000000026, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 24.78, 26.845, 28.909999999999997, 30.974999999999994, 33.03999999999999, 33.03999999999999, 35.10499999999999, 37.16999999999999, 39.234999999999985, 41.30000000000004, 43.36500000000004, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 53.690000000000026, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 66.08000000000001, 68.14500000000001, 72.275, 74.34, 76.405, 78.47, 80.535, 84.66499999999999, 86.72999999999999, 88.79499999999999, 92.92499999999998, 97.05500000000004, 99.12000000000003, 101.18500000000003, 105.31500000000003, 109.44500000000002, 111.51000000000002, 113.57500000000002, 117.70500000000001, 121.83500000000001, 125.965, 130.095, 134.225, 138.355, 142.48499999999999, 146.61500000000004, 150.74500000000003, 154.87500000000003, 159.00500000000002, 163.13500000000002, 165.20000000000002, 167.26500000000001, 171.395, 175.525, 179.655, 181.72, 183.785, 187.915, 189.98, 192.045, 196.17499999999998, 198.23999999999998, 200.30500000000004, 204.43500000000003, 206.50000000000003, 208.56500000000003, 210.63000000000002, 212.69500000000002, 214.76000000000002, 216.82500000000002, 220.955, 223.02, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.92999999999998, 253.99500000000003, 256.06000000000006, 256.06000000000006, 258.125, 260.19000000000005, 260.19000000000005, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 326.27, 328.3349999999999, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 367.56999999999994, 369.635, 373.765, 375.8299999999999, 377.895, 382.025, 384.0899999999999, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 408.87, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.7149999999999, 439.845, 443.975, 448.105, 452.235, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 477.015, 479.0799999999999, 481.145, 485.275, 487.3399999999999, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.9649999999999, 541.03, 543.095, 545.16, 547.225, 549.29, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 559.615, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 35.105, 37.17, 39.235, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 76.405, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3.777264039459666e-09</v>
+        <v>2.101843269729833e-09</v>
       </c>
       <c r="I37" t="n">
-        <v>3.937841338771707e-09</v>
+        <v>2.125965369041874e-09</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9592219986795791</v>
+        <v>0.9886535784339174</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5416051103592253</v>
+        <v>1.034536087955311</v>
       </c>
       <c r="L37" t="n">
-        <v>2.515594012894991e-18</v>
+        <v>1.2498689503726e-18</v>
       </c>
       <c r="M37" t="n">
-        <v>8.105016800775393e-27</v>
+        <v>7.160711263462274e-27</v>
       </c>
       <c r="N37" t="n">
-        <v>1.03454004746763e-27</v>
+        <v>1.647794178991763e-28</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.005881437831045222</v>
+        <v>0.002497239627523129</v>
       </c>
     </row>
     <row r="38">
@@ -2428,47 +2428,47 @@
         <v>0.00175284837861525</v>
       </c>
       <c r="C38" t="n">
-        <v>384.5015170556553</v>
+        <v>-209.8898566308244</v>
       </c>
       <c r="D38" t="n">
-        <v>289.0295601436265</v>
+        <v>157.4803046594982</v>
       </c>
       <c r="E38" t="n">
-        <v>557</v>
+        <v>279</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 427.455, 429.52, 431.585, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 344.855, 344.855, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195]</t>
+          <t>[-165.2, -167.265, -165.2, -163.135, -161.07, -159.005, -156.94, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -264.32, -262.255, -260.19, -256.06, -253.995, -251.93, -249.86499999999998, -249.86499999999998]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[576.135, 574.0699999999999, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 565.81, 563.745, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 538.9649999999999, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 491.47, 489.405, 485.275, 481.145, 479.0799999999999, 477.015, 472.885, 470.81999999999994, 468.755, 464.625, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 439.845, 435.7149999999999, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 400.61, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 379.9599999999999, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 351.04999999999995, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.3349999999999, 326.27, 324.2049999999999, 322.14, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 276.7099999999999, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.19000000000005, 260.19000000000005, 258.125, 256.06000000000006, 253.99500000000003, 251.92999999999998, 251.92999999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 225.085, 223.02, 220.955, 218.89000000000001, 216.82500000000002, 214.76000000000002, 212.69500000000002, 208.56500000000003, 206.50000000000003, 204.43500000000003, 200.30500000000004, 198.23999999999998, 196.17499999999998, 192.045, 189.98, 187.915, 183.785, 179.655, 177.59, 175.525, 171.395, 167.26500000000001, 163.13500000000002, 159.00500000000002, 154.87500000000003, 150.74500000000003, 146.61500000000004, 142.48499999999999, 138.355, 134.225, 130.095, 125.965, 121.83500000000001, 117.70500000000001, 115.64000000000001, 113.57500000000002, 109.44500000000002, 105.31500000000003, 103.25000000000003, 101.18500000000003, 97.05500000000004, 92.92499999999998, 90.85999999999999, 88.79499999999999, 84.66499999999999, 82.6, 80.535, 78.47, 76.405, 72.275, 70.21000000000001, 68.14500000000001, 66.08000000000001, 64.01500000000001, 59.88500000000002, 57.82000000000002, 55.755000000000024, 53.690000000000026, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 45.430000000000035, 43.36500000000004, 41.30000000000004, 39.234999999999985, 37.16999999999999, 35.10499999999999, 33.03999999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 26.845, 24.78, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.130000000000024, 4.130000000000024, 4.130000000000024, 2.065000000000026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.065000000000026, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 24.78, 26.845, 28.909999999999997, 30.974999999999994, 33.03999999999999, 33.03999999999999, 35.10499999999999, 37.16999999999999, 39.234999999999985, 41.30000000000004, 43.36500000000004, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 53.690000000000026, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 68.14500000000001, 70.21000000000001, 72.275, 74.34, 76.405, 80.535, 82.6, 84.66499999999999, 88.79499999999999, 90.85999999999999, 92.92499999999998, 97.05500000000004, 99.12000000000003, 101.18500000000003, 105.31500000000003, 109.44500000000002, 113.57500000000002, 115.64000000000001, 117.70500000000001, 121.83500000000001, 125.965, 130.095, 134.225, 138.355, 142.48499999999999, 146.61500000000004, 150.74500000000003, 154.87500000000003, 159.00500000000002, 161.07000000000002, 163.13500000000002, 167.26500000000001, 171.395, 175.525, 177.59, 179.655, 183.785, 185.85, 187.915, 192.045, 194.10999999999999, 196.17499999999998, 200.30500000000004, 202.37000000000003, 204.43500000000003, 208.56500000000003, 210.63000000000002, 212.69500000000002, 214.76000000000002, 216.82500000000002, 218.89000000000001, 220.955, 223.02, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.92999999999998, 251.92999999999998, 253.99500000000003, 256.06000000000006, 258.125, 260.19000000000005, 260.19000000000005, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 272.5799999999999, 274.645, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.905, 287.03499999999997, 291.16499999999996, 293.23, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.46500000000003, 334.53, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 363.43999999999994, 365.505, 369.635, 371.69999999999993, 373.765, 375.8299999999999, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 396.48, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 413.0, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.7149999999999, 439.845, 443.975, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 468.755, 472.885, 474.94999999999993, 477.015, 481.145, 485.275, 487.3399999999999, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.9649999999999, 541.03, 543.095, 545.16, 547.225, 549.29, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 559.615, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 76.405, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 130.095, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3.831361240835583e-09</v>
+        <v>2.128891870417791e-09</v>
       </c>
       <c r="I38" t="n">
-        <v>3.903727538771707e-09</v>
+        <v>2.088422959410457e-09</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9814622569794167</v>
+        <v>0.9809906216611216</v>
       </c>
       <c r="K38" t="n">
-        <v>0.5416051103592253</v>
+        <v>1.034536087955311</v>
       </c>
       <c r="L38" t="n">
-        <v>2.516175888570151e-18</v>
+        <v>1.248050588887502e-18</v>
       </c>
       <c r="M38" t="n">
-        <v>8.070635332105938e-27</v>
+        <v>7.116824352852067e-27</v>
       </c>
       <c r="N38" t="n">
-        <v>6.051094687415216e-30</v>
+        <v>5.065742569206047e-28</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.0004507647318008345</v>
+        <v>-0.004392029528269559</v>
       </c>
     </row>
     <row r="39">
@@ -2481,47 +2481,47 @@
         <v>0.001801538611354562</v>
       </c>
       <c r="C39" t="n">
-        <v>386.0816429840142</v>
+        <v>-208.4701413427562</v>
       </c>
       <c r="D39" t="n">
-        <v>289.0449822380107</v>
+        <v>156.2468021201413</v>
       </c>
       <c r="E39" t="n">
-        <v>563</v>
+        <v>283</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[419.195, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 427.455, 429.52, 431.585, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 419.195, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 344.855, 346.92, 348.985, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 419.195]</t>
+          <t>[-165.2, -167.265, -165.2, -163.135, -161.07, -159.005, -156.94, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -175.525, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -272.58, -270.515, -268.45, -264.32, -262.255, -260.19, -256.06, -253.995, -251.93, -249.86499999999998, -247.79999999999998, -245.73499999999999, -247.79999999999998]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[576.135, 574.0699999999999, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 565.81, 565.81, 563.745, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 538.9649999999999, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 491.47, 489.405, 485.275, 483.2099999999999, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 448.105, 443.975, 439.845, 435.7149999999999, 433.65, 431.5849999999999, 427.4549999999999, 423.32499999999993, 421.26, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 396.48, 394.41499999999996, 390.28499999999997, 386.155, 384.0899999999999, 382.025, 377.895, 375.8299999999999, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 359.30999999999995, 357.245, 355.17999999999995, 353.115, 351.04999999999995, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 334.53, 334.53, 332.46500000000003, 330.4, 328.3349999999999, 326.27, 324.2049999999999, 322.14, 320.07499999999993, 318.01, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 276.7099999999999, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.19000000000005, 260.19000000000005, 258.125, 256.06000000000006, 256.06000000000006, 253.99500000000003, 251.92999999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.02, 220.955, 216.82500000000002, 214.76000000000002, 212.69500000000002, 210.63000000000002, 208.56500000000003, 204.43500000000003, 202.37000000000003, 200.30500000000004, 196.17499999999998, 194.10999999999999, 192.045, 187.915, 183.785, 181.72, 179.655, 175.525, 171.395, 167.26500000000001, 165.20000000000002, 163.13500000000002, 159.00500000000002, 154.87500000000003, 150.74500000000003, 146.61500000000004, 142.48499999999999, 138.355, 134.225, 132.16, 130.095, 125.965, 121.83500000000001, 117.70500000000001, 113.57500000000002, 111.51000000000002, 109.44500000000002, 105.31500000000003, 101.18500000000003, 99.12000000000003, 97.05500000000004, 92.92499999999998, 90.85999999999999, 88.79499999999999, 84.66499999999999, 82.6, 80.535, 76.405, 74.34, 72.275, 70.21000000000001, 68.14500000000001, 64.01500000000001, 61.95000000000002, 59.88500000000002, 57.82000000000002, 55.755000000000024, 53.690000000000026, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 43.36500000000004, 41.30000000000004, 41.30000000000004, 39.234999999999985, 37.16999999999999, 35.10499999999999, 33.03999999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 26.845, 24.78, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.130000000000024, 4.130000000000024, 4.130000000000024, 2.065000000000026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.065000000000026, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 26.845, 28.909999999999997, 28.909999999999997, 30.974999999999994, 33.03999999999999, 35.10499999999999, 37.16999999999999, 37.16999999999999, 39.234999999999985, 41.30000000000004, 43.36500000000004, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 53.690000000000026, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 68.14500000000001, 70.21000000000001, 72.275, 74.34, 76.405, 80.535, 82.6, 84.66499999999999, 88.79499999999999, 90.85999999999999, 92.92499999999998, 97.05500000000004, 101.18500000000003, 103.25000000000003, 105.31500000000003, 109.44500000000002, 113.57500000000002, 117.70500000000001, 119.77000000000001, 121.83500000000001, 125.965, 130.095, 134.225, 138.355, 142.48499999999999, 146.61500000000004, 150.74500000000003, 152.81000000000003, 154.87500000000003, 159.00500000000002, 163.13500000000002, 167.26500000000001, 171.395, 173.46, 175.525, 179.655, 183.785, 185.85, 187.915, 192.045, 194.10999999999999, 196.17499999999998, 200.30500000000004, 202.37000000000003, 204.43500000000003, 206.50000000000003, 208.56500000000003, 212.69500000000002, 214.76000000000002, 216.82500000000002, 218.89000000000001, 220.955, 223.02, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 247.79999999999998, 249.86499999999998, 251.92999999999998, 253.99500000000003, 256.06000000000006, 256.06000000000006, 258.125, 260.19000000000005, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 355.17999999999995, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 371.69999999999993, 373.765, 377.895, 379.9599999999999, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 417.13, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.7149999999999, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 468.755, 472.885, 474.94999999999993, 477.015, 481.145, 483.2099999999999, 485.275, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.9649999999999, 541.03, 543.095, 545.16, 545.16, 547.225, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 563.745, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 80.535, 82.6, 86.73, 88.795, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 109.445, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 125.965, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 138.355, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 43.365, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3.794320939459665e-09</v>
+        <v>2.101843269729833e-09</v>
       </c>
       <c r="I39" t="n">
-        <v>3.983159036019874e-09</v>
+        <v>2.140095767665957e-09</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9525908720057276</v>
+        <v>0.9821258008571068</v>
       </c>
       <c r="K39" t="n">
-        <v>0.5484608712498483</v>
+        <v>1.047631481473733</v>
       </c>
       <c r="L39" t="n">
-        <v>2.515594012894892e-18</v>
+        <v>1.251323639560574e-18</v>
       </c>
       <c r="M39" t="n">
-        <v>8.235773953726792e-27</v>
+        <v>7.146137075299716e-27</v>
       </c>
       <c r="N39" t="n">
-        <v>7.429439330932336e-31</v>
+        <v>3.345278254133378e-27</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0001563553075594193</v>
+        <v>-0.01126334195264267</v>
       </c>
     </row>
     <row r="40">
@@ -2534,47 +2534,47 @@
         <v>0.001850228844093875</v>
       </c>
       <c r="C40" t="n">
-        <v>386.4494741532977</v>
+        <v>-208.0817021276596</v>
       </c>
       <c r="D40" t="n">
-        <v>289.0447860962567</v>
+        <v>156.383475177305</v>
       </c>
       <c r="E40" t="n">
-        <v>561</v>
+        <v>282</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[415.065, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 435.715, 433.65, 431.585, 431.585, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 369.635, 367.57, 363.44, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 344.855, 346.92, 348.985, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 223.01999999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065]</t>
+          <t>[-161.07, -163.135, -163.135, -161.07, -156.94, -154.875, -152.81, -148.68, -146.615, -144.54999999999998, -140.42, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -119.77, -117.705, -115.64, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -179.655, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -225.085, -227.15, -231.28, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -371.7, -373.765, -373.765, -373.765, -371.7, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -359.31, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -272.58, -270.515, -268.45, -264.32, -262.255, -260.19, -256.06, -253.995, -251.93, -249.86499999999998, -247.79999999999998, -245.73499999999999, -247.79999999999998]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[576.135, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 565.81, 565.81, 563.745, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 538.9649999999999, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 491.47, 489.405, 485.275, 483.2099999999999, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.7149999999999, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 379.9599999999999, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.3349999999999, 326.27, 324.2049999999999, 322.14, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 274.645, 272.5799999999999, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.19000000000005, 260.19000000000005, 258.125, 256.06000000000006, 253.99500000000003, 251.92999999999998, 251.92999999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.02, 220.955, 218.89000000000001, 216.82500000000002, 212.69500000000002, 210.63000000000002, 208.56500000000003, 206.50000000000003, 204.43500000000003, 200.30500000000004, 198.23999999999998, 196.17499999999998, 192.045, 187.915, 185.85, 183.785, 179.655, 175.525, 171.395, 169.33, 167.26500000000001, 163.13500000000002, 159.00500000000002, 154.87500000000003, 150.74500000000003, 146.61500000000004, 142.48499999999999, 138.355, 134.225, 130.095, 128.03, 125.965, 121.83500000000001, 117.70500000000001, 113.57500000000002, 111.51000000000002, 109.44500000000002, 105.31500000000003, 101.18500000000003, 99.12000000000003, 97.05500000000004, 92.92499999999998, 90.85999999999999, 88.79499999999999, 84.66499999999999, 82.6, 80.535, 76.405, 74.34, 72.275, 70.21000000000001, 68.14500000000001, 64.01500000000001, 61.95000000000002, 59.88500000000002, 57.82000000000002, 55.755000000000024, 53.690000000000026, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 45.430000000000035, 43.36500000000004, 41.30000000000004, 39.234999999999985, 37.16999999999999, 35.10499999999999, 33.03999999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 26.845, 24.78, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 2.065000000000026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.065000000000026, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 24.78, 26.845, 28.909999999999997, 30.974999999999994, 33.03999999999999, 33.03999999999999, 35.10499999999999, 37.16999999999999, 39.234999999999985, 41.30000000000004, 43.36500000000004, 45.430000000000035, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 66.08000000000001, 68.14500000000001, 70.21000000000001, 72.275, 76.405, 78.47, 80.535, 84.66499999999999, 86.72999999999999, 88.79499999999999, 92.92499999999998, 94.99000000000004, 97.05500000000004, 101.18500000000003, 105.31500000000003, 107.38000000000002, 109.44500000000002, 113.57500000000002, 117.70500000000001, 121.83500000000001, 125.965, 130.095, 132.16, 134.225, 138.355, 142.48499999999999, 144.54999999999998, 146.61500000000004, 150.74500000000003, 154.87500000000003, 159.00500000000002, 163.13500000000002, 167.26500000000001, 169.33, 171.395, 175.525, 179.655, 181.72, 183.785, 187.915, 192.045, 194.10999999999999, 196.17499999999998, 198.23999999999998, 200.30500000000004, 204.43500000000003, 206.50000000000003, 208.56500000000003, 210.63000000000002, 212.69500000000002, 216.82500000000002, 218.89000000000001, 220.955, 223.02, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 247.79999999999998, 249.86499999999998, 251.92999999999998, 253.99500000000003, 256.06000000000006, 256.06000000000006, 258.125, 260.19000000000005, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 355.17999999999995, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 371.69999999999993, 373.765, 377.895, 379.9599999999999, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 404.74, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 425.39, 427.4549999999999, 431.5849999999999, 435.7149999999999, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 460.495, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 481.145, 483.2099999999999, 485.275, 489.405, 491.47, 493.53499999999997, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 536.9, 538.9649999999999, 541.03, 543.095, 545.16, 547.225, 549.29, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 559.615, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135]</t>
+          <t>[2.065, 4.13, 8.26, 10.325, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 84.66499999999999, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 159.005, 156.94, 152.81, 148.68, 146.615, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 43.365, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3.855483340147624e-09</v>
+        <v>2.170070869729833e-09</v>
       </c>
       <c r="I40" t="n">
-        <v>3.897874536019874e-09</v>
+        <v>2.081859868353916e-09</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9891245355691888</v>
+        <v>0.9593510964981069</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5484608712498483</v>
+        <v>1.047631481473733</v>
       </c>
       <c r="L40" t="n">
-        <v>2.511520883168376e-18</v>
+        <v>1.247250509834046e-18</v>
       </c>
       <c r="M40" t="n">
-        <v>8.247387313326104e-27</v>
+        <v>7.018319964050216e-27</v>
       </c>
       <c r="N40" t="n">
-        <v>8.4402597950519e-30</v>
+        <v>8.548795138319998e-28</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0005266311320455408</v>
+        <v>0.005745432013880558</v>
       </c>
     </row>
     <row r="41">
@@ -2587,47 +2587,47 @@
         <v>0.001898919076833187</v>
       </c>
       <c r="C41" t="n">
-        <v>388.1565189873418</v>
+        <v>-206.3514388489209</v>
       </c>
       <c r="D41" t="n">
-        <v>289.0962658227848</v>
+        <v>156.8062949640288</v>
       </c>
       <c r="E41" t="n">
-        <v>553</v>
+        <v>278</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[410.935, 413.0, 417.13, 421.26, 425.39, 427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 435.715, 437.78, 439.84499999999997, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 413.0, 410.935, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 344.855, 344.855, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 410.935]</t>
+          <t>[-156.94, -159.005, -156.94, -154.875, -152.81, -150.745, -148.68, -144.54999999999998, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -101.185, -99.12, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -183.785, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -260.19, -256.06, -253.995, -251.93, -249.86499999999998, -249.86499999999998, -251.93]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[576.135, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 572.005, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875, 565.81, 565.81, 563.745, 561.68, 561.68, 561.68, 559.615, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 543.095, 541.03, 541.03, 538.9649999999999, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 501.79499999999996, 499.73, 497.66499999999996, 493.53499999999997, 491.47, 489.405, 485.275, 483.2099999999999, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.7149999999999, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 400.61, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.0899999999999, 382.025, 377.895, 375.8299999999999, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 359.30999999999995, 357.245, 355.17999999999995, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.3349999999999, 326.27, 326.27, 324.2049999999999, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.7099999999999, 276.7099999999999, 276.7099999999999, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.19000000000005, 260.19000000000005, 258.125, 256.06000000000006, 253.99500000000003, 251.92999999999998, 251.92999999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.02, 220.955, 216.82500000000002, 214.76000000000002, 212.69500000000002, 210.63000000000002, 208.56500000000003, 204.43500000000003, 202.37000000000003, 200.30500000000004, 196.17499999999998, 192.045, 189.98, 187.915, 183.785, 179.655, 177.59, 175.525, 171.395, 167.26500000000001, 163.13500000000002, 159.00500000000002, 154.87500000000003, 150.74500000000003, 146.61500000000004, 142.48499999999999, 138.355, 134.225, 130.095, 125.965, 123.9, 121.83500000000001, 117.70500000000001, 113.57500000000002, 111.51000000000002, 109.44500000000002, 105.31500000000003, 101.18500000000003, 99.12000000000003, 97.05500000000004, 92.92499999999998, 90.85999999999999, 88.79499999999999, 84.66499999999999, 82.6, 80.535, 76.405, 74.34, 72.275, 70.21000000000001, 68.14500000000001, 64.01500000000001, 61.95000000000002, 59.88500000000002, 57.82000000000002, 55.755000000000024, 53.690000000000026, 51.62500000000003, 49.56000000000003, 47.49500000000003, 45.430000000000035, 45.430000000000035, 43.36500000000004, 41.30000000000004, 39.234999999999985, 37.16999999999999, 35.10499999999999, 33.03999999999999, 33.03999999999999, 30.974999999999994, 28.909999999999997, 28.909999999999997, 26.845, 24.78, 22.715000000000003, 20.650000000000006, 20.650000000000006, 18.585000000000008, 16.52000000000001, 16.52000000000001, 16.52000000000001, 14.455000000000013, 12.390000000000015, 12.390000000000015, 10.325000000000017, 8.26000000000002, 8.26000000000002, 8.26000000000002, 6.195000000000022, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 2.065000000000026, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.065000000000026, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 4.130000000000024, 6.195000000000022, 8.26000000000002, 8.26000000000002, 8.26000000000002, 8.26000000000002, 10.325000000000017, 12.390000000000015, 12.390000000000015, 12.390000000000015, 14.455000000000013, 16.52000000000001, 16.52000000000001, 16.52000000000001, 18.585000000000008, 20.650000000000006, 20.650000000000006, 22.715000000000003, 24.78, 24.78, 26.845, 28.909999999999997, 28.909999999999997, 30.974999999999994, 33.03999999999999, 35.10499999999999, 37.16999999999999, 37.16999999999999, 39.234999999999985, 41.30000000000004, 43.36500000000004, 45.430000000000035, 47.49500000000003, 49.56000000000003, 51.62500000000003, 53.690000000000026, 55.755000000000024, 57.82000000000002, 59.88500000000002, 61.95000000000002, 64.01500000000001, 66.08000000000001, 68.14500000000001, 72.275, 74.34, 76.405, 80.535, 82.6, 84.66499999999999, 88.79499999999999, 90.85999999999999, 92.92499999999998, 97.05500000000004, 99.12000000000003, 101.18500000000003, 105.31500000000003, 109.44500000000002, 111.51000000000002, 113.57500000000002, 117.70500000000001, 121.83500000000001, 125.965, 130.095, 134.225, 138.355, 142.48499999999999, 146.61500000000004, 150.74500000000003, 154.87500000000003, 159.00500000000002, 163.13500000000002, 165.20000000000002, 167.26500000000001, 171.395, 175.525, 179.655, 181.72, 183.785, 187.915, 189.98, 192.045, 196.17499999999998, 198.23999999999998, 200.30500000000004, 204.43500000000003, 206.50000000000003, 208.56500000000003, 210.63000000000002, 212.69500000000002, 216.82500000000002, 218.89000000000001, 220.955, 223.02, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.92999999999998, 251.92999999999998, 253.99500000000003, 256.06000000000006, 258.125, 260.19000000000005, 260.19000000000005, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.7099999999999, 276.7099999999999, 276.7099999999999, 278.775, 280.84000000000003, 282.905, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 322.14, 324.2049999999999, 326.27, 328.3349999999999, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 355.17999999999995, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 375.8299999999999, 377.895, 382.025, 384.0899999999999, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 404.74, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.7149999999999, 439.845, 443.975, 448.105, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 472.885, 477.015, 479.0799999999999, 481.145, 485.275, 487.3399999999999, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.9649999999999, 541.03, 543.095, 545.16, 545.16, 547.225, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 557.55, 559.615, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 572.005, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 574.0699999999999, 576.135, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 578.1999999999999, 576.135]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 80.535, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3.746076740835583e-09</v>
+        <v>2.101843269729833e-09</v>
       </c>
       <c r="I41" t="n">
-        <v>3.910792738083748e-09</v>
+        <v>2.135957069729833e-09</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9578816858167548</v>
+        <v>0.9840287988539417</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5416051103592252</v>
+        <v>1.034536087955311</v>
       </c>
       <c r="L41" t="n">
-        <v>2.512393696681166e-18</v>
+        <v>1.248705199022119e-18</v>
       </c>
       <c r="M41" t="n">
-        <v>8.310220798465516e-27</v>
+        <v>6.961857651913938e-27</v>
       </c>
       <c r="N41" t="n">
-        <v>5.379168308818481e-26</v>
+        <v>3.657116017126904e-28</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.04188303088102252</v>
+        <v>0.003773059173485693</v>
       </c>
     </row>
     <row r="42">
@@ -2640,47 +2640,47 @@
         <v>0.0019476093095725</v>
       </c>
       <c r="C42" t="n">
-        <v>388.4139502762432</v>
+        <v>-206.1369230769231</v>
       </c>
       <c r="D42" t="n">
-        <v>284.966197053407</v>
+        <v>156.7508974358974</v>
       </c>
       <c r="E42" t="n">
-        <v>543</v>
+        <v>273</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[423.325, 425.39, 429.52, 433.65, 435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 443.97499999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325]</t>
+          <t>[-148.68, -150.745, -150.745, -148.68, -144.54999999999998, -142.48499999999999, -140.42, -136.29, -134.225, -132.16, -128.03, -125.965, -123.89999999999999, -119.77, -117.705, -115.64, -111.50999999999999, -109.445, -107.38, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -260.19, -258.125, -256.06, -253.995, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[567.875, 565.81, 565.81, 565.81, 563.745, 561.68, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 543.095, 541.03, 541.03, 538.965, 536.9, 534.8349999999999, 532.77, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 497.66499999999996, 495.6, 493.53499999999997, 489.405, 487.34000000000003, 485.275, 483.2099999999999, 481.145, 477.015, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 375.8299999999999, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 359.30999999999995, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.2049999999999, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 284.97, 282.905, 278.775, 276.71000000000004, 276.71000000000004, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.06, 256.06, 253.995, 251.93, 249.865, 247.79999999999995, 245.73499999999996, 243.66999999999996, 243.66999999999996, 241.60499999999996, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 202.37, 200.305, 196.175, 192.04499999999996, 189.97999999999996, 187.91499999999996, 183.78499999999997, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35499999999996, 134.22499999999997, 130.09499999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79499999999996, 86.72999999999996, 84.66499999999996, 80.53499999999997, 78.46999999999997, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 55.754999999999995, 53.69, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10499999999996, 33.039999999999964, 33.039999999999964, 30.974999999999966, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 28.909999999999968, 30.974999999999966, 33.039999999999964, 35.10499999999996, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.46999999999997, 80.53499999999997, 84.66499999999996, 86.72999999999996, 88.79499999999996, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35499999999996, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 185.84999999999997, 187.91499999999996, 192.04499999999996, 194.10999999999996, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 241.60499999999996, 243.66999999999996, 245.73499999999996, 247.79999999999995, 247.79999999999995, 249.865, 251.93, 253.995, 256.06, 256.06, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.71000000000004, 278.775, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 363.43999999999994, 365.505, 369.635, 371.69999999999993, 373.765, 377.895, 379.9599999999999, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 404.74, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.71500000000003, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.0799999999999, 481.145, 485.275, 487.34000000000003, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 528.64, 530.7049999999999, 532.77, 534.8349999999999, 536.9, 538.965, 541.03, 541.03, 543.095, 545.16, 547.225, 549.29, 549.29, 551.355, 553.42, 553.42, 553.42, 555.485, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875]</t>
+          <t>[2.065, 4.13, 8.26, 10.325, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 109.445, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 130.095, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3.734872843587416e-09</v>
+        <v>2.138883571105749e-09</v>
       </c>
       <c r="I42" t="n">
-        <v>3.811377839459664e-09</v>
+        <v>2.104769771105749e-09</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9799272076674787</v>
+        <v>0.9840506512552415</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5491345811292139</v>
+        <v>1.048263511144754</v>
       </c>
       <c r="L42" t="n">
-        <v>2.506865877766503e-18</v>
+        <v>1.24579582064601e-18</v>
       </c>
       <c r="M42" t="n">
-        <v>8.166864209179615e-27</v>
+        <v>6.876396369018484e-27</v>
       </c>
       <c r="N42" t="n">
-        <v>6.650092102452474e-26</v>
+        <v>7.13310708814628e-27</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.04697566964326816</v>
+        <v>0.01676662834772125</v>
       </c>
     </row>
     <row r="43">
@@ -2693,47 +2693,47 @@
         <v>0.001996299542311812</v>
       </c>
       <c r="C43" t="n">
-        <v>389.3348701298701</v>
+        <v>-204.6185555555555</v>
       </c>
       <c r="D43" t="n">
-        <v>284.5217532467532</v>
+        <v>158.439037037037</v>
       </c>
       <c r="E43" t="n">
-        <v>539</v>
+        <v>270</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[415.065, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 452.235, 452.235, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065]</t>
+          <t>[-142.48499999999999, -142.48499999999999, -140.42, -138.355, -136.29, -132.16, -130.095, -128.03, -123.89999999999999, -119.77, -117.705, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -99.12, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -78.47, -76.405, -74.34, -72.27499999999999, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -179.655, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -365.505, -365.505, -367.57, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -369.635, -367.57, -365.505, -365.505, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -272.58, -270.515, -268.45, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[567.875, 565.81, 565.81, 565.81, 565.81, 563.745, 561.68, 561.68, 561.68, 559.615, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 541.03, 538.965, 536.9, 534.8349999999999, 532.77, 530.7049999999999, 528.64, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 489.405, 487.34000000000003, 485.275, 483.2099999999999, 481.145, 477.015, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 431.5849999999999, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.9599999999999, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.2049999999999, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 282.905, 278.775, 276.71000000000004, 274.645, 272.5799999999999, 272.5799999999999, 270.515, 268.44999999999993, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.06, 256.06, 253.995, 251.93, 249.865, 247.79999999999995, 245.73499999999996, 243.66999999999996, 241.60499999999996, 239.53999999999996, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 206.5, 204.435, 200.305, 196.175, 194.10999999999996, 192.04499999999996, 187.91499999999996, 185.84999999999997, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 165.2, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35499999999996, 136.28999999999996, 134.22499999999997, 130.09499999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79499999999996, 86.72999999999996, 84.66499999999996, 80.53499999999997, 78.46999999999997, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10499999999996, 33.039999999999964, 30.974999999999966, 28.909999999999968, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 28.909999999999968, 30.974999999999966, 33.039999999999964, 35.10499999999996, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53499999999997, 82.59999999999997, 84.66499999999996, 88.79499999999996, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35499999999996, 142.485, 146.615, 150.745, 152.81, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 185.84999999999997, 187.91499999999996, 192.04499999999996, 194.10999999999996, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 241.60499999999996, 243.66999999999996, 245.73499999999996, 247.79999999999995, 249.865, 251.93, 251.93, 253.995, 256.06, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.5799999999999, 272.5799999999999, 274.645, 276.71000000000004, 278.775, 282.905, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.2049999999999, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 363.43999999999994, 365.505, 369.635, 371.69999999999993, 373.765, 377.895, 379.9599999999999, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 408.87, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.5849999999999, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 472.885, 474.94999999999993, 477.015, 481.145, 483.2099999999999, 485.275, 489.405, 491.47, 493.53499999999997, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 532.77, 534.8349999999999, 536.9, 538.965, 541.03, 541.03, 543.095, 545.16, 547.225, 549.29, 549.29, 549.29, 551.355, 553.42, 553.42, 555.485, 557.55, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 561.68, 563.745, 565.81, 565.81, 565.81, 565.81, 565.81, 565.81, 567.875, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 569.9399999999999, 567.875]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 80.535, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 134.225, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2.108908469041875e-09</v>
+        <v>2.108908469041874e-09</v>
       </c>
       <c r="I43" t="n">
-        <v>5.359122913317248e-09</v>
+        <v>2.097704571793708e-09</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3935174660393224</v>
+        <v>0.9946873477855317</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5560856517764191</v>
+        <v>1.061532669513675</v>
       </c>
       <c r="L43" t="n">
-        <v>2.502792748040086e-18</v>
+        <v>1.241068080784828e-18</v>
       </c>
       <c r="M43" t="n">
-        <v>8.270209987907282e-27</v>
+        <v>6.823169661768894e-27</v>
       </c>
       <c r="N43" t="n">
-        <v>4.22326236981202e-26</v>
+        <v>5.486551063214404e-27</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.03720082573614336</v>
+        <v>0.01476194029540845</v>
       </c>
     </row>
     <row r="44">
@@ -2746,47 +2746,47 @@
         <v>0.002044989775051125</v>
       </c>
       <c r="C44" t="n">
-        <v>390.8315028355387</v>
+        <v>-203.1394676806083</v>
       </c>
       <c r="D44" t="n">
-        <v>281.3435633270321</v>
+        <v>158.1884220532319</v>
       </c>
       <c r="E44" t="n">
-        <v>529</v>
+        <v>263</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[427.455, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 460.495, 460.495, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 332.465, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 227.15, 225.085, 225.085, 225.085, 227.15, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 427.455]</t>
+          <t>[-134.225, -134.225, -132.16, -130.095, -128.03, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -101.185, -99.12, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -262.255]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[559.615, 557.55, 557.55, 557.55, 555.485, 553.42, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 530.7049999999999, 528.64, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 485.275, 483.21000000000004, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 431.58500000000004, 427.4549999999999, 425.39, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 371.69999999999993, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 278.775, 274.645, 272.58000000000004, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.93, 251.93, 249.865, 247.8, 245.735, 243.66999999999996, 241.60499999999996, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91499999999996, 185.84999999999997, 183.78499999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 169.32999999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22499999999997, 130.09499999999997, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66499999999996, 82.59999999999997, 80.53499999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.974999999999966, 28.909999999999968, 28.909999999999968, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 30.974999999999966, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53499999999997, 82.59999999999997, 84.66499999999996, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78499999999997, 187.91499999999996, 189.97999999999996, 192.04500000000002, 196.175, 198.24, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 239.53999999999996, 241.60499999999996, 243.66999999999996, 245.735, 247.8, 249.865, 251.93, 251.93, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.58000000000004, 274.645, 278.775, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 375.8299999999999, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 417.13, 419.19499999999994, 423.32499999999993, 427.4549999999999, 429.52, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.94999999999993, 477.015, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.7049999999999, 532.77, 532.77, 534.835, 536.9, 536.9, 538.965, 541.03, 541.03, 543.095, 545.16, 545.16, 547.225, 549.29, 549.29, 549.29, 551.355, 553.42, 553.42, 553.42, 555.485, 557.55, 557.55, 557.55, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 559.615]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 76.405, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>5.262634516069081e-09</v>
+        <v>2.043607370417791e-09</v>
       </c>
       <c r="I44" t="n">
-        <v>2.084786369729832e-09</v>
+        <v>2.134744873169625e-09</v>
       </c>
       <c r="J44" t="n">
-        <v>0.3961488040569956</v>
+        <v>0.9573075434459226</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5639254226820553</v>
+        <v>1.062360136034626</v>
       </c>
       <c r="L44" t="n">
-        <v>2.498137742638213e-18</v>
+        <v>1.238304171327571e-18</v>
       </c>
       <c r="M44" t="n">
-        <v>8.188407192609064e-27</v>
+        <v>6.776682444721951e-27</v>
       </c>
       <c r="N44" t="n">
-        <v>4.217395758818852e-26</v>
+        <v>3.263833952998568e-28</v>
       </c>
       <c r="O44" t="n">
-        <v>-0.03736020751701252</v>
+        <v>-0.00361278633333284</v>
       </c>
     </row>
     <row r="45">
@@ -2799,47 +2799,47 @@
         <v>0.002093680007790437</v>
       </c>
       <c r="C45" t="n">
-        <v>391.6960172744722</v>
+        <v>-203.1453639846743</v>
       </c>
       <c r="D45" t="n">
-        <v>280.8835988483685</v>
+        <v>158.0872222222222</v>
       </c>
       <c r="E45" t="n">
-        <v>521</v>
+        <v>261</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[415.065, 417.13, 421.26, 425.39, 429.52, 431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 468.755, 468.755, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 415.065, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 328.335, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 377.895, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 415.065]</t>
+          <t>[-125.965, -125.965, -123.89999999999999, -121.835, -119.77, -115.64, -113.575, -111.50999999999999, -107.38, -105.315, -103.25, -101.185, -99.12, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -179.655, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -272.58, -270.515, -268.45, -266.385, -266.385, -268.45]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[559.615, 557.55, 557.55, 557.55, 557.55, 555.485, 553.42, 553.42, 553.42, 551.355, 549.29, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.7049999999999, 528.64, 526.5749999999999, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 485.275, 483.21000000000004, 481.145, 477.015, 474.94999999999993, 472.885, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.4549999999999, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.8299999999999, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 322.14, 320.07499999999993, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 278.775, 274.645, 272.58000000000004, 270.515, 268.44999999999993, 268.44999999999993, 266.385, 264.31999999999994, 264.31999999999994, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.93, 249.865, 247.8, 245.735, 243.66999999999996, 241.60499999999996, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91499999999996, 183.78499999999997, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22499999999997, 130.09499999999997, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66499999999996, 82.59999999999997, 80.53499999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.974999999999966, 28.909999999999968, 28.909999999999968, 26.84499999999997, 24.779999999999973, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.909999999999968, 30.974999999999966, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.46999999999997, 80.53499999999997, 84.66499999999996, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 134.22499999999997, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78499999999997, 187.91499999999996, 189.97999999999996, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 241.60499999999996, 243.66999999999996, 245.735, 247.8, 247.8, 249.865, 251.93, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.44999999999993, 268.44999999999993, 270.515, 272.58000000000004, 274.645, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 320.07499999999993, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.4549999999999, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.0799999999999, 481.145, 485.275, 487.34000000000003, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 528.64, 530.7049999999999, 532.77, 534.835, 536.9, 536.9, 538.965, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 547.225, 549.29, 549.29, 549.29, 551.355, 553.42, 553.42, 553.42, 553.42, 555.485, 557.55, 557.55, 557.55, 557.55, 557.55, 557.55, 559.615, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 561.68, 559.615]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 278.775, 280.84, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 282.905, 280.84, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3.499002744963332e-09</v>
+        <v>2.101843269729833e-09</v>
       </c>
       <c r="I45" t="n">
-        <v>3.711962940835581e-09</v>
+        <v>2.097160270631127e-09</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9426286848046196</v>
+        <v>0.9977719560891392</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5568763548985295</v>
+        <v>1.062360136034626</v>
       </c>
       <c r="L45" t="n">
-        <v>2.492609923723649e-18</v>
+        <v>1.238595109165176e-18</v>
       </c>
       <c r="M45" t="n">
-        <v>8.219692718116511e-27</v>
+        <v>6.781473166673227e-27</v>
       </c>
       <c r="N45" t="n">
-        <v>7.022395361108123e-26</v>
+        <v>1.62277141198817e-27</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.04811734589267003</v>
+        <v>-0.008052921529755119</v>
       </c>
     </row>
     <row r="46">
@@ -2852,47 +2852,47 @@
         <v>0.00214237024052975</v>
       </c>
       <c r="C46" t="n">
-        <v>393.1719902912621</v>
+        <v>-201.7136821705427</v>
       </c>
       <c r="D46" t="n">
-        <v>276.6578737864078</v>
+        <v>157.4042248062015</v>
       </c>
       <c r="E46" t="n">
-        <v>515</v>
+        <v>258</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[423.325, 425.39, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 477.015, 477.015, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 369.635, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 324.205, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325]</t>
+          <t>[-117.705, -117.705, -115.64, -113.575, -111.50999999999999, -109.445, -107.38, -103.25, -101.185, -99.12, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -225.085, -227.15, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -326.27, -328.335, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -270.515, -270.515, -272.58]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[551.355, 549.29, 549.29, 549.29, 549.29, 547.225, 545.16, 545.16, 543.095, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32499999999993, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 375.83000000000004, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94499999999994, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 274.645, 270.515, 268.45000000000005, 266.385, 264.31999999999994, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.8, 245.735, 243.67000000000002, 241.60500000000002, 239.53999999999996, 237.47499999999997, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78499999999997, 181.71999999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 156.94, 154.875, 150.745, 146.615, 144.55, 142.485, 138.35500000000002, 134.22500000000002, 130.09499999999997, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53499999999997, 78.46999999999997, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.84499999999997, 24.779999999999973, 24.779999999999973, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.779999999999973, 24.779999999999973, 26.84499999999997, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 45.43000000000001, 47.495000000000005, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.46999999999997, 80.53499999999997, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09499999999997, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78499999999997, 185.84999999999997, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47499999999997, 239.53999999999996, 241.60500000000002, 243.67000000000002, 245.735, 247.8, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.31999999999994, 264.31999999999994, 266.385, 268.45000000000005, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94499999999994, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32499999999993, 427.45500000000004, 431.58500000000004, 433.65, 435.71500000000003, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 547.225, 549.29, 549.29, 549.29, 549.29, 549.29, 549.29, 551.355, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 553.42, 551.355]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 134.225, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 276.71, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 278.775, 276.71, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3.294319944963332e-09</v>
+        <v>2.050672569729833e-09</v>
       </c>
       <c r="I46" t="n">
-        <v>3.814304340835581e-09</v>
+        <v>2.148326027320214e-09</v>
       </c>
       <c r="J46" t="n">
-        <v>0.8636751686787691</v>
+        <v>0.954544395800021</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5719894068832121</v>
+        <v>1.090471959775944</v>
       </c>
       <c r="L46" t="n">
-        <v>2.482427099407409e-18</v>
+        <v>1.234012838222809e-18</v>
       </c>
       <c r="M46" t="n">
-        <v>8.067896663123353e-27</v>
+        <v>6.673419163850257e-27</v>
       </c>
       <c r="N46" t="n">
-        <v>2.170965539415416e-25</v>
+        <v>1.478607312682816e-26</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.0853951328164988</v>
+        <v>-0.02450411600000035</v>
       </c>
     </row>
     <row r="47">
@@ -2905,47 +2905,47 @@
         <v>0.002191060473269062</v>
       </c>
       <c r="C47" t="n">
-        <v>393.624842209073</v>
+        <v>-200.9123529411764</v>
       </c>
       <c r="D47" t="n">
-        <v>272.5677810650888</v>
+        <v>155.701</v>
       </c>
       <c r="E47" t="n">
-        <v>507</v>
+        <v>255</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 481.145, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 315.945, 318.01, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 231.28, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 229.215, 231.28, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585]</t>
+          <t>[-111.50999999999999, -113.575, -111.50999999999999, -109.445, -107.38, -105.315, -103.25, -101.185, -99.12, -94.99, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -351.05, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -361.375, -361.375, -363.44, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -365.505, -363.44, -361.375, -361.375, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -278.775, -276.71, -274.645, -276.71]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 400.61, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 206.5, 204.435, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 165.2, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 132.16000000000003, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 119.76999999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 148.68, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 421.26, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 68.145, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 109.445, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 154.875, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>3.37253924565129e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I47" t="n">
-        <v>3.639596642899457e-09</v>
+        <v>2.093565873857583e-09</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9266244522537482</v>
+        <v>0.9913491836170354</v>
       </c>
       <c r="K47" t="n">
-        <v>0.5802873624905316</v>
+        <v>1.105541484643099</v>
       </c>
       <c r="L47" t="n">
-        <v>2.474862715629538e-18</v>
+        <v>1.23299455579118e-18</v>
       </c>
       <c r="M47" t="n">
-        <v>8.036318822378201e-27</v>
+        <v>6.604630242934667e-27</v>
       </c>
       <c r="N47" t="n">
-        <v>3.872837922601534e-26</v>
+        <v>2.416740043232693e-28</v>
       </c>
       <c r="O47" t="n">
-        <v>-0.03613873105290288</v>
+        <v>-0.00314903531801658</v>
       </c>
     </row>
     <row r="48">
@@ -2958,47 +2958,47 @@
         <v>0.002239750706008375</v>
       </c>
       <c r="C48" t="n">
-        <v>395.8220140280561</v>
+        <v>-199.7659437751004</v>
       </c>
       <c r="D48" t="n">
-        <v>273.1386673346694</v>
+        <v>157.0975702811245</v>
       </c>
       <c r="E48" t="n">
-        <v>499</v>
+        <v>249</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[423.325, 425.39, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 489.405, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 311.815, 313.88, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 423.325]</t>
+          <t>[-105.315, -105.315, -103.25, -101.185, -99.12, -97.05499999999999, -94.99, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -70.21, -68.145, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -282.905, -280.84, -278.775, -280.84]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 239.54000000000002, 237.47500000000002, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 35.105, 37.17, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>3.180774647715165e-09</v>
+        <v>2.084786369729833e-09</v>
       </c>
       <c r="I48" t="n">
-        <v>3.734872843587416e-09</v>
+        <v>2.095936442570562e-09</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8516420185968022</v>
+        <v>0.9946801474442355</v>
       </c>
       <c r="K48" t="n">
-        <v>0.5802873624905316</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L48" t="n">
-        <v>2.467007394014136e-18</v>
+        <v>1.225502906472716e-18</v>
       </c>
       <c r="M48" t="n">
-        <v>8.109322279432082e-27</v>
+        <v>6.550264805436863e-27</v>
       </c>
       <c r="N48" t="n">
-        <v>4.052472385425121e-26</v>
+        <v>1.810712395210294e-27</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.03680057197532083</v>
+        <v>0.008655299999999144</v>
       </c>
     </row>
     <row r="49">
@@ -3011,47 +3011,47 @@
         <v>0.002288440938747687</v>
       </c>
       <c r="C49" t="n">
-        <v>396.3159775967413</v>
+        <v>-198.6445714285714</v>
       </c>
       <c r="D49" t="n">
-        <v>268.9841242362525</v>
+        <v>156.5438571428571</v>
       </c>
       <c r="E49" t="n">
-        <v>491</v>
+        <v>245</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[435.715, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 311.815, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 435.715]</t>
+          <t>[-99.12, -101.185, -101.185, -99.12, -97.05499999999999, -94.99, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -282.905]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 528.64, 526.575, 524.51, 524.51, 522.445, 520.38, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.82000000000005, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19500000000005, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81500000000005, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65500000000003, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 74.34000000000003, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.34000000000003, 76.40500000000003, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65500000000003, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34500000000003, 235.41000000000003, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 266.385, 270.515, 272.58000000000004, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81500000000005, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19500000000005, 423.32500000000005, 425.39, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 470.82000000000005, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 520.38, 522.445, 524.51, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 534.835]</t>
+          <t>[2.065, 4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>3.173709448403123e-09</v>
+        <v>2.094778070417791e-09</v>
       </c>
       <c r="I49" t="n">
-        <v>3.635457944963332e-09</v>
+        <v>2.061820388081737e-09</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8729875290677126</v>
+        <v>0.9842667427153842</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5888296222011161</v>
+        <v>1.107020428688339</v>
       </c>
       <c r="L49" t="n">
-        <v>2.458570196723377e-18</v>
+        <v>1.221284307827386e-18</v>
       </c>
       <c r="M49" t="n">
-        <v>7.881912717107048e-27</v>
+        <v>6.437486338783161e-27</v>
       </c>
       <c r="N49" t="n">
-        <v>5.363514869793061e-26</v>
+        <v>1.209278082060784e-27</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.04294333320657673</v>
+        <v>-0.007134963363208735</v>
       </c>
     </row>
     <row r="50">
@@ -3064,47 +3064,47 @@
         <v>0.002337131171487</v>
       </c>
       <c r="C50" t="n">
-        <v>397.9250811359026</v>
+        <v>-197.7363414634146</v>
       </c>
       <c r="D50" t="n">
-        <v>268.9568255578094</v>
+        <v>156.4027642276423</v>
       </c>
       <c r="E50" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 497.66499999999996, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 369.635, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585]</t>
+          <t>[-97.05499999999999, -97.05499999999999, -94.99, -92.925, -90.86, -88.795, -86.73, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -225.085, -227.15, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -282.905, -284.96999999999997]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[534.835, 532.77, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 524.51, 522.445, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19500000000005, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 371.70000000000005, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81500000000005, 309.75, 307.68499999999995, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65500000000003, 175.52499999999998, 171.39499999999998, 167.265, 165.2, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 136.29000000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40500000000003, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 152.81, 154.875, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65500000000003, 181.72000000000003, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34500000000003, 235.41000000000003, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81500000000005, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 417.13, 419.19500000000005, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 462.55999999999995, 464.625, 468.755, 470.82000000000005, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 520.38, 522.445, 524.51, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 534.835]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 134.225, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 154.875, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>3.190766348403124e-09</v>
+        <v>2.084786369729833e-09</v>
       </c>
       <c r="I50" t="n">
-        <v>3.632531443587415e-09</v>
+        <v>2.095933135154192e-09</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8783864360034244</v>
+        <v>0.9946817170655877</v>
       </c>
       <c r="K50" t="n">
-        <v>0.59618999247863</v>
+        <v>1.121033345507179</v>
       </c>
       <c r="L50" t="n">
-        <v>2.458861134560908e-18</v>
+        <v>1.222084386880805e-18</v>
       </c>
       <c r="M50" t="n">
-        <v>8.127360078366738e-27</v>
+        <v>6.477313315536351e-27</v>
       </c>
       <c r="N50" t="n">
-        <v>5.593830505206176e-30</v>
+        <v>8.666243424564287e-29</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0004318836048877728</v>
+        <v>0.001904166000000762</v>
       </c>
     </row>
     <row r="51">
@@ -3117,47 +3117,47 @@
         <v>0.002385821404226312</v>
       </c>
       <c r="C51" t="n">
-        <v>398.0655498981669</v>
+        <v>-197.65</v>
       </c>
       <c r="D51" t="n">
-        <v>269.0261812627291</v>
+        <v>156.7292857142857</v>
       </c>
       <c r="E51" t="n">
-        <v>491</v>
+        <v>245</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[431.585, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 429.52, 427.455, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 373.765, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 235.41, 233.345, 233.345, 233.345, 233.345, 233.345, 235.41, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -165.2, -167.265, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -220.95499999999998, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -357.245, -357.245, -359.31, -361.375, -361.375, -361.375, -361.375, -361.375, -359.31, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -282.905, -284.96999999999997]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[534.835, 532.77, 532.77, 532.77, 530.705, 528.64, 528.64, 528.64, 526.575, 524.51, 524.51, 522.445, 520.38, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19500000000005, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 396.48, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81500000000005, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65500000000003, 175.52499999999998, 173.45999999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 132.16000000000003, 130.09500000000003, 125.96500000000003, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 45.43000000000001, 47.495000000000005, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.34000000000003, 76.40500000000003, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 144.55, 146.615, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65500000000003, 181.72000000000003, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34500000000003, 235.41000000000003, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81500000000005, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 408.87, 410.93499999999995, 415.06499999999994, 419.19500000000005, 423.32500000000005, 427.45500000000004, 431.58500000000004, 433.65, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 520.38, 520.38, 522.445, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 534.835]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 138.355, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 146.615, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>3.207823248403124e-09</v>
+        <v>2.153013969729833e-09</v>
       </c>
       <c r="I51" t="n">
-        <v>3.571369042899457e-09</v>
+        <v>2.02770452750984e-09</v>
       </c>
       <c r="J51" t="n">
-        <v>0.8982054808311872</v>
+        <v>0.9417981285854282</v>
       </c>
       <c r="K51" t="n">
-        <v>0.59618999247863</v>
+        <v>1.121033345507179</v>
       </c>
       <c r="L51" t="n">
-        <v>2.457697383210489e-18</v>
+        <v>1.220266025395757e-18</v>
       </c>
       <c r="M51" t="n">
-        <v>8.10900008308119e-27</v>
+        <v>6.375647375041361e-27</v>
       </c>
       <c r="N51" t="n">
-        <v>2.615785385655905e-29</v>
+        <v>4.564450453099578e-27</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0009349840860743974</v>
+        <v>0.01392896736948113</v>
       </c>
     </row>
     <row r="52">
@@ -3170,47 +3170,47 @@
         <v>0.002434511636965625</v>
       </c>
       <c r="C52" t="n">
-        <v>399.9442813141683</v>
+        <v>-195.3728925619835</v>
       </c>
       <c r="D52" t="n">
-        <v>269.0478747433265</v>
+        <v>157.759173553719</v>
       </c>
       <c r="E52" t="n">
-        <v>487</v>
+        <v>242</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[431.585, 433.65, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 369.635, 367.57, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 311.815, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 365.505, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -68.145, -70.21, -72.27499999999999, -74.34, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -225.085, -227.15, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -282.905]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[534.835, 532.77, 532.77, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.445, 520.38, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 470.82000000000005, 468.755, 464.625, 462.55999999999995, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 421.26, 419.19500000000005, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 400.61, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81500000000005, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65500000000003, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.03000000000003, 125.96500000000003, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40500000000003, 74.34000000000003, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 55.754999999999995, 53.69, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.34000000000003, 76.40500000000003, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65500000000003, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21499999999997, 231.27999999999997, 233.34500000000003, 235.41000000000003, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.66999999999996, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 266.385, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 311.81500000000005, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19500000000005, 423.32500000000005, 427.45500000000004, 429.52, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 520.38, 522.445, 524.51, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 534.835]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3.152513850466999e-09</v>
+        <v>2.094778070417791e-09</v>
       </c>
       <c r="I52" t="n">
-        <v>3.62839274565129e-09</v>
+        <v>2.061166378673291e-09</v>
       </c>
       <c r="J52" t="n">
-        <v>0.8688458145125985</v>
+        <v>0.9839545333134999</v>
       </c>
       <c r="K52" t="n">
-        <v>0.5888296222011161</v>
+        <v>1.107020428688339</v>
       </c>
       <c r="L52" t="n">
-        <v>2.455951756184713e-18</v>
+        <v>1.216920240263228e-18</v>
       </c>
       <c r="M52" t="n">
-        <v>8.092963019551274e-27</v>
+        <v>6.275746368992696e-27</v>
       </c>
       <c r="N52" t="n">
-        <v>3.745372887091755e-28</v>
+        <v>1.89298176979946e-28</v>
       </c>
       <c r="O52" t="n">
-        <v>0.003541445560082401</v>
+        <v>0.002859086803278288</v>
       </c>
     </row>
     <row r="53">
@@ -3223,47 +3223,47 @@
         <v>0.002483201869704937</v>
       </c>
       <c r="C53" t="n">
-        <v>400.8413136456212</v>
+        <v>-195.5487295081967</v>
       </c>
       <c r="D53" t="n">
-        <v>269.3710488798371</v>
+        <v>157.0077049180328</v>
       </c>
       <c r="E53" t="n">
-        <v>491</v>
+        <v>244</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[435.715, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 365.505, 363.44, 359.31, 355.18, 351.05, 348.985, 346.92, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 342.78999999999996, 344.855, 346.92, 351.05, 355.18, 359.31, 361.375, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 435.715]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -229.215, -231.28, -235.41, -239.54, -243.67, -245.73499999999999, -247.79999999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -278.775, -280.84]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[534.835, 532.77, 532.77, 532.77, 530.705, 528.64, 528.64, 528.64, 526.575, 524.51, 524.51, 522.445, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.95000000000005, 472.885, 470.82000000000005, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19500000000005, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 367.57000000000005, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81500000000005, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 181.72000000000003, 179.65500000000003, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 74.34000000000003, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.34000000000003, 76.40500000000003, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65500000000003, 181.72000000000003, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34500000000003, 235.41000000000003, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81500000000005, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19500000000005, 423.32500000000005, 425.39, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 520.38, 522.445, 524.51, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 534.835]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 159.005, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>3.14252214977904e-09</v>
+        <v>2.128891870417791e-09</v>
       </c>
       <c r="I53" t="n">
-        <v>3.666645243587415e-09</v>
+        <v>2.037697235842151e-09</v>
       </c>
       <c r="J53" t="n">
-        <v>0.8570565028822976</v>
+        <v>0.957163331852198</v>
       </c>
       <c r="K53" t="n">
-        <v>0.59618999247863</v>
+        <v>1.107020428688339</v>
       </c>
       <c r="L53" t="n">
-        <v>2.460315823748956e-18</v>
+        <v>1.222375324718434e-18</v>
       </c>
       <c r="M53" t="n">
-        <v>8.289965301260808e-27</v>
+        <v>6.32000354557066e-27</v>
       </c>
       <c r="N53" t="n">
-        <v>7.345486779205995e-27</v>
+        <v>1.45298127864695e-28</v>
       </c>
       <c r="O53" t="n">
-        <v>0.01549604080236255</v>
+        <v>0.002496078073155328</v>
       </c>
     </row>
     <row r="54">
@@ -3276,47 +3276,47 @@
         <v>0.00253189210244425</v>
       </c>
       <c r="C54" t="n">
-        <v>401.1670892494929</v>
+        <v>-194.8408230452675</v>
       </c>
       <c r="D54" t="n">
-        <v>270.5568864097363</v>
+        <v>158.0022427983539</v>
       </c>
       <c r="E54" t="n">
-        <v>493</v>
+        <v>243</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[410.935, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 315.945, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 355.18, 357.245, 359.31, 363.44, 367.57, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 390.28499999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 410.935]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -278.775]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[538.965, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.445, 520.38, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19500000000005, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 369.635, 367.57000000000005, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81500000000005, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 266.385, 262.255, 260.19000000000005, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 247.79999999999995, 245.735, 243.66999999999996, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.41000000000003, 233.34500000000003, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 181.72000000000003, 179.65500000000003, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96500000000003, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40500000000003, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.715000000000032, 20.650000000000034, 20.650000000000034, 18.58499999999998, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.650000000000034, 20.650000000000034, 22.715000000000032, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40500000000003, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96500000000003, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 148.68, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65500000000003, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21499999999997, 231.27999999999997, 233.34500000000003, 235.41000000000003, 237.47500000000002, 239.54000000000002, 239.54000000000002, 241.60500000000002, 243.66999999999996, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.19000000000005, 262.255, 266.385, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 311.81500000000005, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19500000000005, 421.26, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 520.38, 522.445, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 154.875, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 82.6, 80.535, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>3.15957904977904e-09</v>
+        <v>2.145948770417791e-09</v>
       </c>
       <c r="I54" t="n">
-        <v>3.673710442899457e-09</v>
+        <v>2.000003977985333e-09</v>
       </c>
       <c r="J54" t="n">
-        <v>0.8600511931706186</v>
+        <v>0.931990551478056</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5918338760084317</v>
+        <v>1.107020428688339</v>
       </c>
       <c r="L54" t="n">
-        <v>2.462061450774634e-18</v>
+        <v>1.218229460532487e-18</v>
       </c>
       <c r="M54" t="n">
-        <v>8.437236316374292e-27</v>
+        <v>6.23898350552007e-27</v>
       </c>
       <c r="N54" t="n">
-        <v>4.599107157383573e-26</v>
+        <v>6.590041231623824e-27</v>
       </c>
       <c r="O54" t="n">
-        <v>0.03843469814112987</v>
+        <v>0.01691897170478507</v>
       </c>
     </row>
     <row r="55">
@@ -3329,47 +3329,47 @@
         <v>0.002580582335183562</v>
       </c>
       <c r="C55" t="n">
-        <v>402.1784068136272</v>
+        <v>-193.1274596774194</v>
       </c>
       <c r="D55" t="n">
-        <v>273.1138376753507</v>
+        <v>158.6552822580645</v>
       </c>
       <c r="E55" t="n">
-        <v>499</v>
+        <v>248</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[427.455, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 443.97499999999997, 441.90999999999997, 437.78, 433.65, 429.52, 425.39, 423.325, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 320.075, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 239.54, 237.475, 237.475, 237.475, 239.54, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 326.27, 328.335, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 375.83, 377.895, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 427.455]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -150.745, -152.81, -156.94, -161.07, -165.2, -169.32999999999998, -171.39499999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -355.18, -357.245, -357.245, -357.245, -355.18, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -274.645]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 421.26, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 396.48, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 169.32999999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 140.42000000000002, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 128.02999999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 140.42000000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 413.0, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 105.315, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 134.225, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 146.615, 144.54999999999998, 140.42, 136.29, 134.225, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>3.249002247715166e-09</v>
+        <v>2.143022269041874e-09</v>
       </c>
       <c r="I55" t="n">
-        <v>3.63667014152354e-09</v>
+        <v>2.031191276609416e-09</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8934003143749613</v>
+        <v>0.9478162247551182</v>
       </c>
       <c r="K55" t="n">
-        <v>0.5875409545216632</v>
+        <v>1.105541484643099</v>
       </c>
       <c r="L55" t="n">
-        <v>2.468462083202086e-18</v>
+        <v>1.223320872690631e-18</v>
       </c>
       <c r="M55" t="n">
-        <v>8.563456736836504e-27</v>
+        <v>6.237866211722622e-27</v>
       </c>
       <c r="N55" t="n">
-        <v>2.196453552607368e-26</v>
+        <v>1.5419218179139e-29</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0263647267682785</v>
+        <v>-0.0008184647237150511</v>
       </c>
     </row>
     <row r="56">
@@ -3382,47 +3382,47 @@
         <v>0.002629272567922875</v>
       </c>
       <c r="C56" t="n">
-        <v>403.6638732394366</v>
+        <v>-191.9284274193548</v>
       </c>
       <c r="D56" t="n">
-        <v>273.1242957746479</v>
+        <v>157.9225403225807</v>
       </c>
       <c r="E56" t="n">
-        <v>497</v>
+        <v>248</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[431.585, 433.65, 437.78, 441.90999999999997, 446.03999999999996, 448.10499999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 448.10499999999996, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 324.205, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 431.585]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -146.615, -148.68, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -270.515, -270.515, -272.58]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 400.61, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 173.45999999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 136.29000000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 138.355, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>3.173709448403123e-09</v>
+        <v>2.067729469729833e-09</v>
       </c>
       <c r="I56" t="n">
-        <v>3.717815943587415e-09</v>
+        <v>2.112992189415053e-09</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8536488886377549</v>
+        <v>0.9785788513975763</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5802873624905316</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L56" t="n">
-        <v>2.470498648065492e-18</v>
+        <v>1.226593923363777e-18</v>
       </c>
       <c r="M56" t="n">
-        <v>8.585983198643473e-27</v>
+        <v>6.234109636123401e-27</v>
       </c>
       <c r="N56" t="n">
-        <v>1.26841798382093e-31</v>
+        <v>1.508789341297163e-28</v>
       </c>
       <c r="O56" t="n">
-        <v>-6.327366563985137e-05</v>
+        <v>0.002561025500033232</v>
       </c>
     </row>
     <row r="57">
@@ -3435,47 +3435,47 @@
         <v>0.002677962800662187</v>
       </c>
       <c r="C57" t="n">
-        <v>404.1209154929577</v>
+        <v>-191.2173279352226</v>
       </c>
       <c r="D57" t="n">
-        <v>273.1076760563381</v>
+        <v>158.9046761133603</v>
       </c>
       <c r="E57" t="n">
-        <v>497</v>
+        <v>247</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[435.715, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 373.765, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 324.205, 324.205, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 435.715]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -220.95499999999998, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -270.515, -270.515]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 404.74, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 433.65, 435.71500000000003, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>3.190766348403124e-09</v>
+        <v>2.101843269729833e-09</v>
       </c>
       <c r="I57" t="n">
-        <v>3.690767342899457e-09</v>
+        <v>2.048248176609416e-09</v>
       </c>
       <c r="J57" t="n">
-        <v>0.8645265474513671</v>
+        <v>0.9745009088487815</v>
       </c>
       <c r="K57" t="n">
-        <v>0.5802873624905316</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L57" t="n">
-        <v>2.472244275091071e-18</v>
+        <v>1.224921030797494e-18</v>
       </c>
       <c r="M57" t="n">
-        <v>8.751571336140971e-27</v>
+        <v>6.221508251020646e-27</v>
       </c>
       <c r="N57" t="n">
-        <v>1.265077455578963e-31</v>
+        <v>6.3155426585844e-29</v>
       </c>
       <c r="O57" t="n">
-        <v>6.258962601135565e-05</v>
+        <v>-0.00165861012679791</v>
       </c>
     </row>
     <row r="58">
@@ -3488,47 +3488,47 @@
         <v>0.0027266530334015</v>
       </c>
       <c r="C58" t="n">
-        <v>404.1730561122244</v>
+        <v>-191.4561847389558</v>
       </c>
       <c r="D58" t="n">
-        <v>273.1303907815631</v>
+        <v>157.7610240963855</v>
       </c>
       <c r="E58" t="n">
-        <v>499</v>
+        <v>249</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 373.765, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 324.205, 326.27, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -64.015, -66.08, -68.145, -70.21, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -220.95499999999998, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -266.385, -268.45, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -272.58, -270.515, -270.515, -268.45, -266.385, -268.45]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 181.71999999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 55.754999999999995, 53.69, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 148.68, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 429.52, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 159.005, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>3.234871849091082e-09</v>
+        <v>2.145948770417791e-09</v>
       </c>
       <c r="I58" t="n">
-        <v>3.680775642211499e-09</v>
+        <v>2.034774041882604e-09</v>
       </c>
       <c r="J58" t="n">
-        <v>0.8788560247990267</v>
+        <v>0.9481932047643695</v>
       </c>
       <c r="K58" t="n">
-        <v>0.5802873624905316</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L58" t="n">
-        <v>2.473698964278823e-18</v>
+        <v>1.2284122848488e-18</v>
       </c>
       <c r="M58" t="n">
-        <v>8.774729198861384e-27</v>
+        <v>6.217864703980007e-27</v>
       </c>
       <c r="N58" t="n">
-        <v>1.296301665341352e-31</v>
+        <v>2.952255643579724e-28</v>
       </c>
       <c r="O58" t="n">
-        <v>6.327366563985137e-05</v>
+        <v>-0.003587097354870172</v>
       </c>
     </row>
     <row r="59">
@@ -3541,47 +3541,47 @@
         <v>0.002775343266140812</v>
       </c>
       <c r="C59" t="n">
-        <v>404.6530961923847</v>
+        <v>-190.6461290322581</v>
       </c>
       <c r="D59" t="n">
-        <v>273.1138376753507</v>
+        <v>158.5553629032258</v>
       </c>
       <c r="E59" t="n">
-        <v>499</v>
+        <v>248</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 501.79499999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 375.83, 373.765, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 324.205, 326.27, 328.335, 328.335, 328.335, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 241.605, 241.605, 241.605, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-92.925, -92.925, -90.86, -88.795, -86.73, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -218.89, -220.95499999999998, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -348.985, -351.05, -353.115, -353.115, -353.115, -353.115, -353.115, -351.05, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -270.515, -268.45, -266.385, -266.385]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 119.76999999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 140.42000000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 421.26, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 154.875, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 134.225, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>3.268985649091082e-09</v>
+        <v>2.180062570417791e-09</v>
       </c>
       <c r="I59" t="n">
-        <v>3.656653542899457e-09</v>
+        <v>1.980020576609416e-09</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8939828755280482</v>
+        <v>0.9082402512098364</v>
       </c>
       <c r="K59" t="n">
-        <v>0.5802873624905316</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L59" t="n">
-        <v>2.471953337253343e-18</v>
+        <v>1.224193686203495e-18</v>
       </c>
       <c r="M59" t="n">
-        <v>8.828117653875837e-27</v>
+        <v>6.078265989472157e-27</v>
       </c>
       <c r="N59" t="n">
-        <v>6.596457392781279e-28</v>
+        <v>1.626686239453316e-29</v>
       </c>
       <c r="O59" t="n">
-        <v>-0.004499954696433939</v>
+        <v>-0.0008516259036139839</v>
       </c>
     </row>
     <row r="60">
@@ -3594,47 +3594,47 @@
         <v>0.002824033498880125</v>
       </c>
       <c r="C60" t="n">
-        <v>407.1041549295774</v>
+        <v>-187.0773895582329</v>
       </c>
       <c r="D60" t="n">
-        <v>272.6921830985916</v>
+        <v>157.6780923694779</v>
       </c>
       <c r="E60" t="n">
-        <v>497</v>
+        <v>249</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 452.235, 454.3, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 324.205, 326.27, 328.335, 328.335, 328.335, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-90.86, -92.925, -90.86, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -270.515, -268.45, -266.385, -266.385]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 421.26, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 210.63, 208.565, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 165.2, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 140.42000000000002, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 109.445, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 134.225, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>3.224880148403124e-09</v>
+        <v>2.026550470417791e-09</v>
       </c>
       <c r="I60" t="n">
-        <v>3.676636944275374e-09</v>
+        <v>2.144180641194645e-09</v>
       </c>
       <c r="J60" t="n">
-        <v>0.877127711351634</v>
+        <v>0.9451398037474514</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5730337704594</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L60" t="n">
-        <v>2.469334896714777e-18</v>
+        <v>1.226957595660814e-18</v>
       </c>
       <c r="M60" t="n">
-        <v>8.714750009620807e-27</v>
+        <v>6.058830274111857e-27</v>
       </c>
       <c r="N60" t="n">
-        <v>9.172079501377978e-30</v>
+        <v>2.607933581958192e-28</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0005340639399928904</v>
+        <v>0.00341539302288707</v>
       </c>
     </row>
     <row r="61">
@@ -3647,47 +3647,47 @@
         <v>0.002872723731619437</v>
       </c>
       <c r="C61" t="n">
-        <v>407.8271126760563</v>
+        <v>-187.5053441295547</v>
       </c>
       <c r="D61" t="n">
-        <v>273.1658450704225</v>
+        <v>158.887955465587</v>
       </c>
       <c r="E61" t="n">
-        <v>497</v>
+        <v>247</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 505.925, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 379.96, 377.895, 375.83, 371.7, 367.57, 363.44, 359.31, 355.18, 353.115, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 324.205, 326.27, 328.335, 328.335, 328.335, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 348.985, 351.05, 355.18, 359.31, 363.44, 367.57, 369.635, 371.7, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-88.795, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -214.76, -216.825, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -239.54, -241.605, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -270.515, -268.45, -266.385, -266.385]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 423.32500000000005, 421.26, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 400.61, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 173.45999999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 136.29000000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 138.355, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 82.6, 80.535, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>3.166644249091082e-09</v>
+        <v>2.077721170417791e-09</v>
       </c>
       <c r="I61" t="n">
-        <v>3.734872843587415e-09</v>
+        <v>2.082361976609416e-09</v>
       </c>
       <c r="J61" t="n">
-        <v>0.847858650536938</v>
+        <v>0.9977713739283782</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5802873624905316</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L61" t="n">
-        <v>2.473117088603663e-18</v>
+        <v>1.225211968635136e-18</v>
       </c>
       <c r="M61" t="n">
-        <v>8.770512064365428e-27</v>
+        <v>6.039223067145435e-27</v>
       </c>
       <c r="N61" t="n">
-        <v>7.581028198030932e-28</v>
+        <v>4.137567845496239e-29</v>
       </c>
       <c r="O61" t="n">
-        <v>0.004839922391825624</v>
+        <v>-0.001362601445782596</v>
       </c>
     </row>
     <row r="62">
@@ -3700,47 +3700,47 @@
         <v>0.00292141396435875</v>
       </c>
       <c r="C62" t="n">
-        <v>407.8809519038076</v>
+        <v>-187.8071887550201</v>
       </c>
       <c r="D62" t="n">
-        <v>273.163496993988</v>
+        <v>157.5454016064257</v>
       </c>
       <c r="E62" t="n">
-        <v>499</v>
+        <v>249</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 505.925, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 324.205, 326.27, 328.335, 330.4, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 336.59499999999997, 338.65999999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-88.795, -88.795, -86.73, -84.66499999999999, -82.6, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -309.75, -311.815, -313.88, -315.945, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -274.645, -272.58, -270.515, -268.45, -266.385, -264.32, -262.255, -264.32]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 404.74, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 132.16000000000003, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 152.81, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 433.65, 435.71500000000003, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 468.755, 470.81999999999994, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>3.200758049091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I62" t="n">
-        <v>3.70489774152354e-09</v>
+        <v>2.058896141194645e-09</v>
       </c>
       <c r="J62" t="n">
-        <v>0.863926151919879</v>
+        <v>0.9749323077017363</v>
       </c>
       <c r="K62" t="n">
-        <v>0.5802873624905316</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L62" t="n">
-        <v>2.470207710227567e-18</v>
+        <v>1.226375719985555e-18</v>
       </c>
       <c r="M62" t="n">
-        <v>8.903845488945128e-27</v>
+        <v>6.04595346309624e-27</v>
       </c>
       <c r="N62" t="n">
-        <v>7.75512836677708e-30</v>
+        <v>1.001835931067667e-26</v>
       </c>
       <c r="O62" t="n">
-        <v>0.0004858391461786127</v>
+        <v>-0.02119106183611286</v>
       </c>
     </row>
     <row r="63">
@@ -3753,47 +3753,47 @@
         <v>0.002970104197098062</v>
       </c>
       <c r="C63" t="n">
-        <v>408.1871843687374</v>
+        <v>-187.03944</v>
       </c>
       <c r="D63" t="n">
-        <v>273.2131563126252</v>
+        <v>156.82436</v>
       </c>
       <c r="E63" t="n">
-        <v>499</v>
+        <v>250</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[435.715, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 342.78999999999996, 340.72499999999997, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 324.205, 326.27, 328.335, 330.4, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 435.715]</t>
+          <t>[-86.73, -88.795, -86.73, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -57.82, -55.754999999999995, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -251.93, -253.995, -256.06, -260.19, -262.255, -264.32, -268.45, -272.58, -274.645, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -274.645, -272.58, -270.515, -268.45, -266.385, -264.32, -262.255, -264.32]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 243.67000000000002, 241.60500000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 181.71999999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 148.68, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 429.52, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 30.974999999999998, 33.04, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 159.005, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>3.214888447715165e-09</v>
+        <v>2.135957069729833e-09</v>
       </c>
       <c r="I63" t="n">
-        <v>3.67078394152354e-09</v>
+        <v>2.0453216752335e-09</v>
       </c>
       <c r="J63" t="n">
-        <v>0.875804323798159</v>
+        <v>0.9575668463655981</v>
       </c>
       <c r="K63" t="n">
-        <v>0.5802873624905316</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L63" t="n">
-        <v>2.470207710227665e-18</v>
+        <v>1.230085177415083e-18</v>
       </c>
       <c r="M63" t="n">
-        <v>9.05226367896925e-27</v>
+        <v>6.058298260379234e-27</v>
       </c>
       <c r="N63" t="n">
-        <v>4.461030049061246e-30</v>
+        <v>5.746183009177404e-28</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0003654481715527069</v>
+        <v>0.005069921306840142</v>
       </c>
     </row>
     <row r="64">
@@ -3806,47 +3806,47 @@
         <v>0.003018794429837374</v>
       </c>
       <c r="C64" t="n">
-        <v>408.1678169014085</v>
+        <v>-187.4487096774193</v>
       </c>
       <c r="D64" t="n">
-        <v>273.1990845070422</v>
+        <v>158.0391129032258</v>
       </c>
       <c r="E64" t="n">
-        <v>497</v>
+        <v>248</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[435.715, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 328.335, 330.4, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 435.715]</t>
+          <t>[-84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -346.92, -348.985, -348.985, -348.985, -348.985, -346.92, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -266.385, -264.32, -262.255, -264.32]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 140.42000000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 421.26, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 150.745, 148.68, 144.54999999999998, 140.42, 136.29, 134.225, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>3.24486354977904e-09</v>
+        <v>2.187127769729833e-09</v>
       </c>
       <c r="I64" t="n">
-        <v>3.646661842211499e-09</v>
+        <v>1.993593889415054e-09</v>
       </c>
       <c r="J64" t="n">
-        <v>0.8898175071289883</v>
+        <v>0.9115123117207342</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5802873624905316</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L64" t="n">
-        <v>2.469043958877246e-18</v>
+        <v>1.225139234175692e-18</v>
       </c>
       <c r="M64" t="n">
-        <v>8.889316772041769e-27</v>
+        <v>6.008370817779207e-27</v>
       </c>
       <c r="N64" t="n">
-        <v>8.947202117308561e-31</v>
+        <v>4.205642846043547e-27</v>
       </c>
       <c r="O64" t="n">
-        <v>0.0001651567201754744</v>
+        <v>0.01377287630634072</v>
       </c>
     </row>
     <row r="65">
@@ -3859,47 +3859,47 @@
         <v>0.003067484662576687</v>
       </c>
       <c r="C65" t="n">
-        <v>409.7956896551724</v>
+        <v>-185.85</v>
       </c>
       <c r="D65" t="n">
-        <v>273.2292393509128</v>
+        <v>158.165569105691</v>
       </c>
       <c r="E65" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[435.715, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 464.625, 466.69, 470.82, 474.95, 477.015, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 510.055, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 464.625, 462.56, 458.43, 454.3, 452.235, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 433.65, 431.585, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 435.715]</t>
+          <t>[-84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -130.095, -132.16, -136.29, -140.42, -142.48499999999999, -144.54999999999998, -148.68, -152.81, -156.94, -161.07, -163.135, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -262.255, -264.32]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 532.77, 530.705, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>3.169570750466998e-09</v>
+        <v>2.094778070417791e-09</v>
       </c>
       <c r="I65" t="n">
-        <v>3.693693844275374e-09</v>
+        <v>2.071813190103012e-09</v>
       </c>
       <c r="J65" t="n">
-        <v>0.8581032657536896</v>
+        <v>0.9890370819519801</v>
       </c>
       <c r="K65" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L65" t="n">
-        <v>2.46526176698836e-18</v>
+        <v>1.223393607150051e-18</v>
       </c>
       <c r="M65" t="n">
-        <v>8.9427195180234e-27</v>
+        <v>5.978085659974128e-27</v>
       </c>
       <c r="N65" t="n">
-        <v>7.248027569524705e-28</v>
+        <v>7.860744487231112e-28</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.004686643620997799</v>
+        <v>0.005969494961147292</v>
       </c>
     </row>
     <row r="66">
@@ -3912,47 +3912,47 @@
         <v>0.003116174895315999</v>
       </c>
       <c r="C66" t="n">
-        <v>410.8432222222222</v>
+        <v>-183.7431983805668</v>
       </c>
       <c r="D66" t="n">
-        <v>272.742696969697</v>
+        <v>158.6204251012146</v>
       </c>
       <c r="E66" t="n">
-        <v>495</v>
+        <v>247</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[435.715, 437.78, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 510.055, 510.055, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 534.835, 532.77, 530.705, 528.64, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 503.86, 501.79499999999996, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 328.335, 330.4, 332.465, 332.465, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 435.715]</t>
+          <t>[-84.66499999999999, -84.66499999999999, -82.6, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -59.885, -61.949999999999996, -64.015, -66.08, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -90.86, -92.925, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -299.425, -297.36, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -272.58, -270.515, -268.45, -266.385, -264.32, -262.255, -262.255]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 165.2, 163.135, 159.005, 154.875, 150.745, 146.615, 144.55, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 55.754999999999995, 53.69, 51.625, 49.56, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 237.47500000000002, 239.54000000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 109.445, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 130.095, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>3.21074974977904e-09</v>
+        <v>2.026550470417791e-09</v>
       </c>
       <c r="I66" t="n">
-        <v>3.686628644963333e-09</v>
+        <v>2.143524377297374e-09</v>
       </c>
       <c r="J66" t="n">
-        <v>0.8709175940911659</v>
+        <v>0.945429168840586</v>
       </c>
       <c r="K66" t="n">
-        <v>0.5730337704594</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L66" t="n">
-        <v>2.469334896714876e-18</v>
+        <v>1.222884465934212e-18</v>
       </c>
       <c r="M66" t="n">
-        <v>9.122567442405568e-27</v>
+        <v>5.909544232626461e-27</v>
       </c>
       <c r="N66" t="n">
-        <v>8.403130521220775e-28</v>
+        <v>1.345612695611095e-29</v>
       </c>
       <c r="O66" t="n">
-        <v>-0.004996303712704986</v>
+        <v>-0.0007855428156959832</v>
       </c>
     </row>
     <row r="67">
@@ -3965,47 +3965,47 @@
         <v>0.003164865128055312</v>
       </c>
       <c r="C67" t="n">
-        <v>411.1185555555555</v>
+        <v>-183.1022177419355</v>
       </c>
       <c r="D67" t="n">
-        <v>272.742696969697</v>
+        <v>158.0890725806451</v>
       </c>
       <c r="E67" t="n">
-        <v>495</v>
+        <v>248</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 512.12, 514.185, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 491.46999999999997, 489.405, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 328.335, 330.4, 332.465, 332.465, 332.465, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-82.6, -84.66499999999999, -82.6, -80.535, -80.535, -78.47, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -74.34, -76.405, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -103.25, -105.315, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -291.165, -293.23, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -272.58, -270.515, -268.45, -266.385, -264.32, -262.255, -262.255]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 421.26, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 396.48, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 173.45999999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 140.42000000000002, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 134.225, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>3.234871849091082e-09</v>
+        <v>2.077721170417791e-09</v>
       </c>
       <c r="I67" t="n">
-        <v>3.632531443587415e-09</v>
+        <v>2.103000488727095e-09</v>
       </c>
       <c r="J67" t="n">
-        <v>0.8905282443739529</v>
+        <v>0.9879794044533936</v>
       </c>
       <c r="K67" t="n">
-        <v>0.5730337704594</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L67" t="n">
-        <v>2.469334896714876e-18</v>
+        <v>1.226593923363728e-18</v>
       </c>
       <c r="M67" t="n">
-        <v>9.02781183412993e-27</v>
+        <v>5.888375412701277e-27</v>
       </c>
       <c r="N67" t="n">
-        <v>9.781711939475357e-31</v>
+        <v>4.948773266772929e-28</v>
       </c>
       <c r="O67" t="n">
-        <v>-0.0001713574545449958</v>
+        <v>-0.004772411130501419</v>
       </c>
     </row>
     <row r="68">
@@ -4018,47 +4018,47 @@
         <v>0.003213555360794625</v>
       </c>
       <c r="C68" t="n">
-        <v>411.2854242424242</v>
+        <v>-182.8690725806452</v>
       </c>
       <c r="D68" t="n">
-        <v>272.7260101010102</v>
+        <v>158.155685483871</v>
       </c>
       <c r="E68" t="n">
-        <v>495</v>
+        <v>248</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 456.365, 458.43, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 489.405, 491.46999999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 501.79499999999996, 503.86, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 328.335, 330.4, 332.465, 332.465, 332.465, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-82.6, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -315.945, -318.01, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -272.58, -270.515, -268.45, -266.385, -264.32, -262.255, -262.255]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 421.26, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 396.48, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 173.45999999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 136.29000000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 152.81, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 433.65, 435.71500000000003, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 99.12, 101.185, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 138.355, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>3.224880148403123e-09</v>
+        <v>2.077721170417791e-09</v>
       </c>
       <c r="I68" t="n">
-        <v>3.632531443587415e-09</v>
+        <v>2.093008788039136e-09</v>
       </c>
       <c r="J68" t="n">
-        <v>0.8877776279393459</v>
+        <v>0.9926958655363948</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5730337704594</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L68" t="n">
-        <v>2.468753021039617e-18</v>
+        <v>1.227757674714184e-18</v>
       </c>
       <c r="M68" t="n">
-        <v>9.050288927141198e-27</v>
+        <v>5.875661648629357e-27</v>
       </c>
       <c r="N68" t="n">
-        <v>7.255668262400834e-28</v>
+        <v>3.375989442834792e-27</v>
       </c>
       <c r="O68" t="n">
-        <v>0.004661163144835445</v>
+        <v>-0.01247840185064475</v>
       </c>
     </row>
     <row r="69">
@@ -4071,47 +4071,47 @@
         <v>0.003262245593533937</v>
       </c>
       <c r="C69" t="n">
-        <v>411.9033567134268</v>
+        <v>-183.2894</v>
       </c>
       <c r="D69" t="n">
-        <v>273.1966032064129</v>
+        <v>156.87392</v>
       </c>
       <c r="E69" t="n">
-        <v>499</v>
+        <v>250</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 516.25, 514.185, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 318.01, 320.075, 322.14, 324.205, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 334.53, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-82.6, -84.66499999999999, -82.6, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -57.82, -55.754999999999995, -53.69, -51.625, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -78.47, -80.535, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -276.71, -274.645, -272.58, -270.515, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -260.19]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 495.6, 493.53499999999997, 491.47, 489.405, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 456.365, 454.29999999999995, 452.235, 448.105, 446.03999999999996, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 400.61, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 371.70000000000005, 369.635, 365.505, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 136.29000000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 111.50999999999999, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 148.68, 150.745, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 429.52, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 448.105, 450.16999999999996, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 468.755, 470.81999999999994, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 26.845, 28.91, 30.974999999999998, 33.04, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 138.355, 140.42, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 204.435, 206.5, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 233.345, 235.41, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 163.135, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 22.715, 20.65, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>3.173709448403123e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I69" t="n">
-        <v>3.731946342211499e-09</v>
+        <v>2.0794354752335e-09</v>
       </c>
       <c r="J69" t="n">
-        <v>0.8504166880712511</v>
+        <v>0.9846581311332857</v>
       </c>
       <c r="K69" t="n">
-        <v>0.5802873624905316</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L69" t="n">
-        <v>2.469625834552505e-18</v>
+        <v>1.230376115252651e-18</v>
       </c>
       <c r="M69" t="n">
-        <v>9.080406490876661e-27</v>
+        <v>5.892298283191279e-27</v>
       </c>
       <c r="N69" t="n">
-        <v>8.473010616237416e-28</v>
+        <v>9.647927924182703e-54</v>
       </c>
       <c r="O69" t="n">
-        <v>0.00502866896286891</v>
+        <v>-6.661338147750939e-16</v>
       </c>
     </row>
     <row r="70">
@@ -4124,47 +4124,47 @@
         <v>0.00331093582627325</v>
       </c>
       <c r="C70" t="n">
-        <v>411.7493661971831</v>
+        <v>-183.8349596774193</v>
       </c>
       <c r="D70" t="n">
-        <v>273.2157042253522</v>
+        <v>158.155685483871</v>
       </c>
       <c r="E70" t="n">
-        <v>497</v>
+        <v>248</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 477.015, 479.08, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 538.965, 536.9, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 499.72999999999996, 497.66499999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 324.205, 326.27, 330.4, 332.465, 332.465, 334.53, 336.59499999999997, 334.53, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -94.99, -97.05499999999999, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -284.96999999999997, -287.03499999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -305.62, -307.685, -309.75, -311.815, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -274.645, -272.58, -270.515, -268.45, -264.32, -262.255, -262.255, -260.19, -258.125, -260.19]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 404.74, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 377.895, 375.83000000000004, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 346.91999999999996, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 295.29499999999996, 293.23, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 196.175, 194.11, 192.04500000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 177.58999999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 132.16000000000003, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 115.63999999999999, 113.57499999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 94.99000000000001, 92.92500000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 28.910000000000025, 26.845000000000027, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 148.68, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 392.35, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 429.52, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 41.3, 43.365, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 78.47, 80.535, 82.6, 86.73, 90.86, 94.99, 97.05499999999999, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 156.94, 159.005, 161.07, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 179.655, 181.72, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 245.73499999999999, 247.79999999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 229.215, 227.15, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 159.005, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 125.965, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>3.186627650466999e-09</v>
+        <v>2.128891870417791e-09</v>
       </c>
       <c r="I70" t="n">
-        <v>3.724881142899457e-09</v>
+        <v>2.061821489415053e-09</v>
       </c>
       <c r="J70" t="n">
-        <v>0.8554978073707123</v>
+        <v>0.968495167868918</v>
       </c>
       <c r="K70" t="n">
-        <v>0.5802873624905316</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L70" t="n">
-        <v>2.469043958877246e-18</v>
+        <v>1.226593923363752e-18</v>
       </c>
       <c r="M70" t="n">
-        <v>9.295265985662888e-27</v>
+        <v>5.861273892629514e-27</v>
       </c>
       <c r="N70" t="n">
-        <v>2.226913084187538e-32</v>
+        <v>3.747070246451658e-27</v>
       </c>
       <c r="O70" t="n">
-        <v>2.548047616279803e-05</v>
+        <v>0.01316244975387115</v>
       </c>
     </row>
     <row r="71">
@@ -4177,47 +4177,47 @@
         <v>0.003359626059012562</v>
       </c>
       <c r="C71" t="n">
-        <v>411.998661971831</v>
+        <v>-183.601814516129</v>
       </c>
       <c r="D71" t="n">
-        <v>273.1990845070422</v>
+        <v>158.155685483871</v>
       </c>
       <c r="E71" t="n">
-        <v>497</v>
+        <v>248</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[439.84499999999997, 441.90999999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 468.755, 470.82, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 497.66499999999996, 499.72999999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 514.185, 516.25, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 287.03499999999997, 289.09999999999997, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 439.84499999999997]</t>
+          <t>[-80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -305.62, -307.685, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -309.75, -307.685, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -280.84, -278.775, -276.71, -274.645, -272.58, -270.515, -268.45, -264.32, -262.255, -260.19, -258.125, -258.125, -260.19]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 534.835, 532.77, 532.77, 532.77, 530.705, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 427.45500000000004, 425.39, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 406.80499999999995, 404.74, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 367.56999999999994, 365.505, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 322.14, 320.07500000000005, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 183.78500000000003, 181.71999999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 132.16000000000003, 130.09500000000003, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 103.25, 101.185, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 41.30000000000001, 43.36500000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 94.99000000000001, 97.055, 101.185, 105.315, 109.445, 113.57499999999999, 115.63999999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 144.55, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 363.43999999999994, 365.505, 369.635, 373.765, 375.83000000000004, 377.895, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 396.48, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 425.39, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 501.79499999999996, 503.86, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 142.48499999999999, 144.54999999999998, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 171.39499999999998, 173.46, 177.59, 181.72, 183.785, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 233.345, 231.28, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 179.655, 177.59, 173.46, 169.32999999999998, 165.2, 161.07, 159.005, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 130.095, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 66.08, 64.015, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>3.203684550466999e-09</v>
+        <v>2.145948770417791e-09</v>
       </c>
       <c r="I71" t="n">
-        <v>3.707824242899457e-09</v>
+        <v>2.044764589415053e-09</v>
       </c>
       <c r="J71" t="n">
-        <v>0.8640335519144702</v>
+        <v>0.9528487434567051</v>
       </c>
       <c r="K71" t="n">
-        <v>0.5802873624905316</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L71" t="n">
-        <v>2.470207710227665e-18</v>
+        <v>1.226593923363752e-18</v>
       </c>
       <c r="M71" t="n">
-        <v>9.324098661531283e-27</v>
+        <v>5.844194887674533e-27</v>
       </c>
       <c r="N71" t="n">
-        <v>1.002159508304964e-30</v>
+        <v>1.006830810158174e-27</v>
       </c>
       <c r="O71" t="n">
-        <v>0.000170667887322562</v>
+        <v>0.00683286311430753</v>
       </c>
     </row>
     <row r="72">
@@ -4230,47 +4230,47 @@
         <v>0.003408316291751875</v>
       </c>
       <c r="C72" t="n">
-        <v>412.2396478873239</v>
+        <v>-183.0910931174089</v>
       </c>
       <c r="D72" t="n">
-        <v>273.232323943662</v>
+        <v>158.821072874494</v>
       </c>
       <c r="E72" t="n">
-        <v>497</v>
+        <v>247</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 512.12, 510.055, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 479.08, 477.015, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -82.6, -84.66499999999999, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -115.64, -117.705, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -342.78999999999996, -344.855, -344.855, -344.855, -342.78999999999996, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -270.515, -268.45, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 464.625, 462.55999999999995, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 439.845, 437.78, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 183.78500000000003, 181.71999999999997, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 86.73000000000002, 84.66500000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 37.170000000000016, 35.10500000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 123.89999999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 136.29000000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 163.135, 165.2, 167.265, 171.39499999999998, 175.52499999999998, 177.58999999999997, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 258.125, 260.18999999999994, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 338.65999999999997, 340.725, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 400.61, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 421.26, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 90.86, 92.925, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 187.915, 189.98, 194.10999999999999, 196.17499999999998, 198.24, 200.305, 202.37, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 237.475, 239.54, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 150.745, 148.68, 144.54999999999998, 140.42, 138.355, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 111.50999999999999, 109.445, 107.38, 103.25, 99.12, 97.05499999999999, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 16.52, 14.455, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>3.22780664977904e-09</v>
+        <v>2.170070869729833e-09</v>
       </c>
       <c r="I72" t="n">
-        <v>3.673710442899457e-09</v>
+        <v>1.990012277297375e-09</v>
       </c>
       <c r="J72" t="n">
-        <v>0.8786230433641663</v>
+        <v>0.9170263999466181</v>
       </c>
       <c r="K72" t="n">
-        <v>0.5802873624905316</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L72" t="n">
-        <v>2.469043958877246e-18</v>
+        <v>1.22172071458378e-18</v>
       </c>
       <c r="M72" t="n">
-        <v>9.167406001511859e-27</v>
+        <v>5.838501236433454e-27</v>
       </c>
       <c r="N72" t="n">
-        <v>1.298054784433704e-27</v>
+        <v>1.839750745808917e-27</v>
       </c>
       <c r="O72" t="n">
-        <v>0.006194554742639191</v>
+        <v>0.009240928766129253</v>
       </c>
     </row>
     <row r="73">
@@ -4283,47 +4283,47 @@
         <v>0.003457006524491187</v>
       </c>
       <c r="C73" t="n">
-        <v>413.0709191919191</v>
+        <v>-181.5851428571429</v>
       </c>
       <c r="D73" t="n">
-        <v>273.8023131313132</v>
+        <v>159.0555714285715</v>
       </c>
       <c r="E73" t="n">
-        <v>495</v>
+        <v>245</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 485.275, 487.34, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 549.29, 547.225, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 487.34, 485.275, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -107.38, -109.445, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 526.575, 524.51, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 410.93499999999995, 408.87, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 382.025, 379.96000000000004, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 355.17999999999995, 353.115, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 309.75, 307.68499999999995, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 208.565, 206.5, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 20.649999999999977, 18.58499999999998, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 61.94999999999999, 64.01499999999999, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 326.27, 328.33500000000004, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 346.91999999999996, 348.985, 353.115, 355.17999999999995, 357.245, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 408.87, 410.93499999999995, 415.06499999999994, 417.13, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 443.975, 446.03999999999996, 448.105, 452.235, 456.365, 458.42999999999995, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 481.145, 483.21000000000004, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 66.08, 68.145, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 253.995, 256.06, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 212.695, 210.63, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>4.72730752501254e-09</v>
+        <v>2.077721170417791e-09</v>
       </c>
       <c r="I73" t="n">
-        <v>2.160079169041874e-09</v>
+        <v>2.068231577985333e-09</v>
       </c>
       <c r="J73" t="n">
-        <v>0.4569364606835356</v>
+        <v>0.995432692043779</v>
       </c>
       <c r="K73" t="n">
-        <v>0.5802873624905316</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L73" t="n">
-        <v>2.46729833185147e-18</v>
+        <v>1.221720714583805e-18</v>
       </c>
       <c r="M73" t="n">
-        <v>9.399538078899372e-27</v>
+        <v>5.819641057296723e-27</v>
       </c>
       <c r="N73" t="n">
-        <v>1.024570787018896e-31</v>
+        <v>1.430725569461124e-28</v>
       </c>
       <c r="O73" t="n">
-        <v>5.435062537584301e-05</v>
+        <v>0.002581171651820924</v>
       </c>
     </row>
     <row r="74">
@@ -4336,47 +4336,47 @@
         <v>0.0035056967572305</v>
       </c>
       <c r="C74" t="n">
-        <v>413.8921805273833</v>
+        <v>-181.5008571428571</v>
       </c>
       <c r="D74" t="n">
-        <v>273.2376166328601</v>
+        <v>159.0724285714286</v>
       </c>
       <c r="E74" t="n">
-        <v>493</v>
+        <v>245</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 295.295, 297.36, 299.425, 301.49, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-80.535, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -299.425, -297.36, -295.295, -293.23, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 477.015, 474.95000000000005, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 223.01999999999998, 220.95499999999998, 216.825, 214.76, 212.695, 210.63, 208.565, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 128.02999999999997, 125.96499999999997, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 99.12, 101.185, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 200.305, 202.37, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 45.43, 47.495, 49.56, 51.625, 53.69, 57.82, 59.885, 61.949999999999996, 64.015, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 146.615, 148.68, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 175.525, 173.46, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 74.34, 72.27499999999999, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 41.3, 39.235, 37.17, 35.105, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>3.135456950466999e-09</v>
+        <v>2.077721170417791e-09</v>
       </c>
       <c r="I74" t="n">
-        <v>3.737799344963332e-09</v>
+        <v>2.068231577985333e-09</v>
       </c>
       <c r="J74" t="n">
-        <v>0.8388510621074438</v>
+        <v>0.995432692043779</v>
       </c>
       <c r="K74" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L74" t="n">
-        <v>2.46613458050115e-18</v>
+        <v>1.221429776746188e-18</v>
       </c>
       <c r="M74" t="n">
-        <v>9.223498047680374e-27</v>
+        <v>5.812395536938141e-27</v>
       </c>
       <c r="N74" t="n">
-        <v>1.044877352003371e-27</v>
+        <v>2.570785018842894e-30</v>
       </c>
       <c r="O74" t="n">
-        <v>-0.005540789417666669</v>
+        <v>0.0003462119999990687</v>
       </c>
     </row>
     <row r="75">
@@ -4389,47 +4389,47 @@
         <v>0.003554386989969812</v>
       </c>
       <c r="C75" t="n">
-        <v>414.0010851926977</v>
+        <v>-181.3491428571428</v>
       </c>
       <c r="D75" t="n">
-        <v>273.2627484787018</v>
+        <v>159.0892857142857</v>
       </c>
       <c r="E75" t="n">
-        <v>493</v>
+        <v>245</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 328.335, 330.4, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-80.535, -80.535, -78.47, -76.405, -74.34, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 86.73000000000002, 88.79500000000002, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 159.005, 161.07, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 183.78500000000003, 185.85000000000002, 187.91500000000002, 192.04500000000002, 194.11, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 379.96000000000004, 382.025, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 530.705, 532.77, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 187.915, 185.85, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 115.64, 113.575, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 90.86, 88.795, 86.73, 82.6, 80.535, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>3.152513850466999e-09</v>
+        <v>2.094778070417791e-09</v>
       </c>
       <c r="I75" t="n">
-        <v>3.700759043587415e-09</v>
+        <v>2.041182977297375e-09</v>
       </c>
       <c r="J75" t="n">
-        <v>0.8518560147625924</v>
+        <v>0.9744149063438843</v>
       </c>
       <c r="K75" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L75" t="n">
-        <v>2.465843642663422e-18</v>
+        <v>1.221720714583793e-18</v>
       </c>
       <c r="M75" t="n">
-        <v>9.265877261253438e-27</v>
+        <v>5.814935431559089e-27</v>
       </c>
       <c r="N75" t="n">
-        <v>2.53032019513649e-31</v>
+        <v>5.786793895151393e-30</v>
       </c>
       <c r="O75" t="n">
-        <v>8.602630831511249e-05</v>
+        <v>0.0005193179999996023</v>
       </c>
     </row>
     <row r="76">
@@ -4442,47 +4442,47 @@
         <v>0.003603077222709125</v>
       </c>
       <c r="C76" t="n">
-        <v>414.0513488843814</v>
+        <v>-181.2817142857143</v>
       </c>
       <c r="D76" t="n">
-        <v>273.2459939148073</v>
+        <v>159.123</v>
       </c>
       <c r="E76" t="n">
-        <v>493</v>
+        <v>245</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 510.055, 512.12, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 516.25, 514.185, 514.185, 514.185, 516.25, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-80.535, -80.535, -78.47, -76.405, -74.34, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 510.05499999999995, 507.99, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 386.155, 384.09000000000003, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 313.88, 311.81499999999994, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 270.515, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 200.305, 198.24, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[4.13, 8.26, 10.325, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 74.34, 76.405, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>3.152513850466999e-09</v>
+        <v>2.094778070417791e-09</v>
       </c>
       <c r="I76" t="n">
-        <v>3.700759043587415e-09</v>
+        <v>2.041182977297375e-09</v>
       </c>
       <c r="J76" t="n">
-        <v>0.8518560147625924</v>
+        <v>0.9744149063438843</v>
       </c>
       <c r="K76" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L76" t="n">
-        <v>2.464098015637842e-18</v>
+        <v>1.220556963233349e-18</v>
       </c>
       <c r="M76" t="n">
-        <v>9.278637795763391e-27</v>
+        <v>5.804890180812709e-27</v>
       </c>
       <c r="N76" t="n">
-        <v>1.013521933724732e-30</v>
+        <v>8.260452350597879e-28</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.0001720526166328895</v>
+        <v>-0.006210001829268341</v>
       </c>
     </row>
     <row r="77">
@@ -4495,47 +4495,47 @@
         <v>0.003651767455448437</v>
       </c>
       <c r="C77" t="n">
-        <v>414.1183671399594</v>
+        <v>-180.7966260162602</v>
       </c>
       <c r="D77" t="n">
-        <v>273.2459939148073</v>
+        <v>158.4845528455284</v>
       </c>
       <c r="E77" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 520.38, 518.3149999999999, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -76.405, -74.34, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 280.84000000000003, 278.775, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 464.625, 466.68999999999994, 468.755, 472.885, 474.95000000000005, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>3.169570750466999e-09</v>
+        <v>2.094778070417791e-09</v>
       </c>
       <c r="I77" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.061821489415053e-09</v>
       </c>
       <c r="J77" t="n">
-        <v>0.8604307913397897</v>
+        <v>0.9842672684671725</v>
       </c>
       <c r="K77" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L77" t="n">
-        <v>2.465843642663422e-18</v>
+        <v>1.224266420662914e-18</v>
       </c>
       <c r="M77" t="n">
-        <v>9.280754158084375e-27</v>
+        <v>5.802524376155549e-27</v>
       </c>
       <c r="N77" t="n">
-        <v>2.534382769184356e-31</v>
+        <v>9.693817663095391e-28</v>
       </c>
       <c r="O77" t="n">
-        <v>-8.602630831511249e-05</v>
+        <v>-0.006728616146341126</v>
       </c>
     </row>
     <row r="78">
@@ -4548,47 +4548,47 @@
         <v>0.00370045768818775</v>
       </c>
       <c r="C78" t="n">
-        <v>414.1770081135903</v>
+        <v>-180.779837398374</v>
       </c>
       <c r="D78" t="n">
-        <v>273.2376166328601</v>
+        <v>158.4677642276423</v>
       </c>
       <c r="E78" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 518.3149999999999, 520.38, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -76.405, -74.34, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 262.255, 260.18999999999994, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 439.845, 441.90999999999997, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 12.39, 14.455, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>3.159579049779041e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I78" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.044764589415053e-09</v>
       </c>
       <c r="J78" t="n">
-        <v>0.8577183840119194</v>
+        <v>0.9682407091736582</v>
       </c>
       <c r="K78" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L78" t="n">
-        <v>2.465552704825891e-18</v>
+        <v>1.224557358500507e-18</v>
       </c>
       <c r="M78" t="n">
-        <v>9.289461254631481e-27</v>
+        <v>5.802524376155549e-27</v>
       </c>
       <c r="N78" t="n">
-        <v>4.401130638571342e-31</v>
+        <v>3.688333259383013e-27</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.0001133114202467311</v>
+        <v>-0.01312482155782857</v>
       </c>
     </row>
     <row r="79">
@@ -4601,47 +4601,47 @@
         <v>0.003749147920927062</v>
       </c>
       <c r="C79" t="n">
-        <v>413.9219494949495</v>
+        <v>-181.3536290322581</v>
       </c>
       <c r="D79" t="n">
-        <v>273.2349595959596</v>
+        <v>157.2064516129032</v>
       </c>
       <c r="E79" t="n">
-        <v>495</v>
+        <v>248</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 70.20999999999998, 72.27499999999998, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 204.435, 202.37, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I79" t="n">
-        <v>3.697832542211498e-09</v>
+        <v>2.045321675233499e-09</v>
       </c>
       <c r="J79" t="n">
-        <v>0.8517387721423056</v>
+        <v>0.968504501480467</v>
       </c>
       <c r="K79" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L79" t="n">
-        <v>2.46613458050115e-18</v>
+        <v>1.227757674714196e-18</v>
       </c>
       <c r="M79" t="n">
-        <v>9.463860422982831e-27</v>
+        <v>5.83641670399391e-27</v>
       </c>
       <c r="N79" t="n">
-        <v>4.456291386167663e-31</v>
+        <v>3.518276800890618e-27</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.0001129638392041166</v>
+        <v>-0.01278140726494925</v>
       </c>
     </row>
     <row r="80">
@@ -4654,47 +4654,47 @@
         <v>0.003797838153666374</v>
       </c>
       <c r="C80" t="n">
-        <v>413.9636666666667</v>
+        <v>-181.3036693548387</v>
       </c>
       <c r="D80" t="n">
-        <v>273.2266161616162</v>
+        <v>157.2231048387097</v>
       </c>
       <c r="E80" t="n">
-        <v>495</v>
+        <v>248</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I80" t="n">
-        <v>3.697832542211498e-09</v>
+        <v>2.045321675233499e-09</v>
       </c>
       <c r="J80" t="n">
-        <v>0.8517387721423056</v>
+        <v>0.968504501480467</v>
       </c>
       <c r="K80" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L80" t="n">
-        <v>2.465261766988261e-18</v>
+        <v>1.227466736876603e-18</v>
       </c>
       <c r="M80" t="n">
-        <v>9.472667556300176e-27</v>
+        <v>5.831421361376239e-27</v>
       </c>
       <c r="N80" t="n">
-        <v>8.072795814597398e-28</v>
+        <v>2.035290599523141e-28</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.00480576635851504</v>
+        <v>-0.003075479372903089</v>
       </c>
     </row>
     <row r="81">
@@ -4707,47 +4707,47 @@
         <v>0.003846528386405687</v>
       </c>
       <c r="C81" t="n">
-        <v>414.6827464788732</v>
+        <v>-179.95236</v>
       </c>
       <c r="D81" t="n">
-        <v>272.7669718309859</v>
+        <v>156.90696</v>
       </c>
       <c r="E81" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -16.52, -14.455, -14.455, -16.52, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 152.81, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>3.180774647715165e-09</v>
+        <v>1.999501869729833e-09</v>
       </c>
       <c r="I81" t="n">
-        <v>3.680775642211499e-09</v>
+        <v>2.17178517454554e-09</v>
       </c>
       <c r="J81" t="n">
-        <v>0.8641587961074637</v>
+        <v>0.9206720320062232</v>
       </c>
       <c r="K81" t="n">
-        <v>0.5730337704594</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L81" t="n">
-        <v>2.466716456176408e-18</v>
+        <v>1.228048612551801e-18</v>
       </c>
       <c r="M81" t="n">
-        <v>9.3050695891461e-27</v>
+        <v>5.826396137645379e-27</v>
       </c>
       <c r="N81" t="n">
-        <v>7.649730141123867e-28</v>
+        <v>2.508975862780202e-28</v>
       </c>
       <c r="O81" t="n">
-        <v>-0.004720087631242098</v>
+        <v>-0.003416135228709649</v>
       </c>
     </row>
     <row r="82">
@@ -4760,47 +4760,47 @@
         <v>0.003895218619144999</v>
       </c>
       <c r="C82" t="n">
-        <v>414.6993661971832</v>
+        <v>-179.9028</v>
       </c>
       <c r="D82" t="n">
-        <v>272.7669718309859</v>
+        <v>156.89044</v>
       </c>
       <c r="E82" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -16.52, -14.455, -14.455, -16.52, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 152.81, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>3.180774647715165e-09</v>
+        <v>1.999501869729833e-09</v>
       </c>
       <c r="I82" t="n">
-        <v>3.680775642211499e-09</v>
+        <v>2.171785174545541e-09</v>
       </c>
       <c r="J82" t="n">
-        <v>0.8641587961074637</v>
+        <v>0.9206720320062229</v>
       </c>
       <c r="K82" t="n">
-        <v>0.5730337704594</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L82" t="n">
-        <v>2.467298331851569e-18</v>
+        <v>1.228339550389418e-18</v>
       </c>
       <c r="M82" t="n">
-        <v>9.304178352465807e-27</v>
+        <v>5.823904312641297e-27</v>
       </c>
       <c r="N82" t="n">
-        <v>1.000018462004521e-30</v>
+        <v>2.473870615112429e-30</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0001706678873243384</v>
+        <v>-0.0003392877599999178</v>
       </c>
     </row>
     <row r="83">
@@ -4813,47 +4813,47 @@
         <v>0.003943908851884312</v>
       </c>
       <c r="C83" t="n">
-        <v>414.6993661971832</v>
+        <v>-179.9193199999999</v>
       </c>
       <c r="D83" t="n">
-        <v>272.7835915492958</v>
+        <v>156.87392</v>
       </c>
       <c r="E83" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 359.31, 357.245, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -16.52, -14.455, -14.455, -16.52, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -235.41, -237.475, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 152.81, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>3.180774647715165e-09</v>
+        <v>1.999501869729833e-09</v>
       </c>
       <c r="I83" t="n">
-        <v>3.680775642211499e-09</v>
+        <v>2.171785174545541e-09</v>
       </c>
       <c r="J83" t="n">
-        <v>0.8641587961074637</v>
+        <v>0.9206720320062229</v>
       </c>
       <c r="K83" t="n">
-        <v>0.5730337704594</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L83" t="n">
-        <v>2.46671645617631e-18</v>
+        <v>1.228048612551801e-18</v>
       </c>
       <c r="M83" t="n">
-        <v>9.306108932213495e-27</v>
+        <v>5.823904312641297e-27</v>
       </c>
       <c r="N83" t="n">
-        <v>1.000225961830612e-30</v>
+        <v>2.473870615115666e-30</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0001706678873243384</v>
+        <v>-0.0003392877600001398</v>
       </c>
     </row>
     <row r="84">
@@ -4866,47 +4866,47 @@
         <v>0.003992599084623624</v>
       </c>
       <c r="C84" t="n">
-        <v>414.7326056338028</v>
+        <v>-179.86976</v>
       </c>
       <c r="D84" t="n">
-        <v>272.7835915492958</v>
+        <v>156.8574</v>
       </c>
       <c r="E84" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -16.52, -14.455, -14.455, -16.52, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 152.81, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 152.81, 154.875, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 282.905, 284.97, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 121.835, 119.77, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>3.180774647715166e-09</v>
+        <v>2.016558769729832e-09</v>
       </c>
       <c r="I84" t="n">
-        <v>3.680775642211499e-09</v>
+        <v>2.154728274545541e-09</v>
       </c>
       <c r="J84" t="n">
-        <v>0.8641587961074638</v>
+        <v>0.9358761350802572</v>
       </c>
       <c r="K84" t="n">
-        <v>0.5730337704594</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L84" t="n">
-        <v>2.464970829150731e-18</v>
+        <v>1.227175799038986e-18</v>
       </c>
       <c r="M84" t="n">
-        <v>9.356531361949367e-27</v>
+        <v>5.803035603026825e-27</v>
       </c>
       <c r="N84" t="n">
-        <v>1.0056453936845e-30</v>
+        <v>2.465006031366214e-30</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0001706678873234502</v>
+        <v>-0.0003392877599996957</v>
       </c>
     </row>
     <row r="85">
@@ -4919,47 +4919,47 @@
         <v>0.004041289317362937</v>
       </c>
       <c r="C85" t="n">
-        <v>414.715985915493</v>
+        <v>-179.88628</v>
       </c>
       <c r="D85" t="n">
-        <v>272.8002112676056</v>
+        <v>156.84088</v>
       </c>
       <c r="E85" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -16.52, -14.455, -14.455, -16.52, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 392.35, 390.28499999999997, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 152.81, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>3.197831547715165e-09</v>
+        <v>2.016558769729832e-09</v>
       </c>
       <c r="I85" t="n">
-        <v>3.663718742211498e-09</v>
+        <v>2.154728274545541e-09</v>
       </c>
       <c r="J85" t="n">
-        <v>0.8728376201129694</v>
+        <v>0.9358761350802572</v>
       </c>
       <c r="K85" t="n">
-        <v>0.5730337704594</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L85" t="n">
-        <v>2.466134580501248e-18</v>
+        <v>1.227466736876591e-18</v>
       </c>
       <c r="M85" t="n">
-        <v>9.349624927266522e-27</v>
+        <v>5.80558978861495e-27</v>
       </c>
       <c r="N85" t="n">
-        <v>2.721579272348549e-53</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>-8.881784197001252e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4972,47 +4972,47 @@
         <v>0.00408997955010225</v>
       </c>
       <c r="C86" t="n">
-        <v>414.7326056338028</v>
+        <v>-179.86976</v>
       </c>
       <c r="D86" t="n">
-        <v>272.7835915492957</v>
+        <v>156.8574</v>
       </c>
       <c r="E86" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -16.52, -14.455, -14.455, -16.52, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 474.95000000000005, 472.885, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 152.81, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 121.83499999999998, 119.76999999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 152.81, 154.875, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>3.180774647715166e-09</v>
+        <v>2.016558769729832e-09</v>
       </c>
       <c r="I86" t="n">
-        <v>3.680775642211499e-09</v>
+        <v>2.154728274545541e-09</v>
       </c>
       <c r="J86" t="n">
-        <v>0.8641587961074638</v>
+        <v>0.9358761350802572</v>
       </c>
       <c r="K86" t="n">
-        <v>0.5730337704594</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L86" t="n">
-        <v>2.46613458050115e-18</v>
+        <v>1.227757674714196e-18</v>
       </c>
       <c r="M86" t="n">
-        <v>9.35171790436849e-27</v>
+        <v>5.80558978861495e-27</v>
       </c>
       <c r="N86" t="n">
-        <v>2.261538091109044e-30</v>
+        <v>6.165227487622828e-31</v>
       </c>
       <c r="O86" t="n">
-        <v>-0.0002560018309862855</v>
+        <v>0.0001696438799998479</v>
       </c>
     </row>
     <row r="87">
@@ -5025,47 +5025,47 @@
         <v>0.004138669782841562</v>
       </c>
       <c r="C87" t="n">
-        <v>414.6910563380281</v>
+        <v>-179.9028</v>
       </c>
       <c r="D87" t="n">
-        <v>272.7752816901408</v>
+        <v>156.8574</v>
       </c>
       <c r="E87" t="n">
-        <v>497</v>
+        <v>250</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -16.52, -14.455, -14.455, -16.52, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 340.725, 338.65999999999997, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 161.07, 159.005, 154.875, 152.81, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 386.155, 388.22, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 113.575, 115.64, 119.77, 121.835, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>3.163717747715165e-09</v>
+        <v>1.999501869729833e-09</v>
       </c>
       <c r="I87" t="n">
-        <v>3.697832542211498e-09</v>
+        <v>2.171785174545541e-09</v>
       </c>
       <c r="J87" t="n">
-        <v>0.8555600372923042</v>
+        <v>0.9206720320062229</v>
       </c>
       <c r="K87" t="n">
-        <v>0.5730337704594</v>
+        <v>1.09172221608506</v>
       </c>
       <c r="L87" t="n">
-        <v>2.466425518338878e-18</v>
+        <v>1.227757674714196e-18</v>
       </c>
       <c r="M87" t="n">
-        <v>9.345601370416865e-27</v>
+        <v>5.808143974203075e-27</v>
       </c>
       <c r="N87" t="n">
-        <v>8.253353050899689e-28</v>
+        <v>1.802886906371064e-28</v>
       </c>
       <c r="O87" t="n">
-        <v>0.004892134653009528</v>
+        <v>0.00290036310967734</v>
       </c>
     </row>
     <row r="88">
@@ -5078,47 +5078,47 @@
         <v>0.004187360015580874</v>
       </c>
       <c r="C88" t="n">
-        <v>414.0137272727272</v>
+        <v>-181.2537096774194</v>
       </c>
       <c r="D88" t="n">
-        <v>273.2599898989899</v>
+        <v>157.1398387096774</v>
       </c>
       <c r="E88" t="n">
-        <v>495</v>
+        <v>248</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 105.315, 107.38, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 169.32999999999998, 171.39499999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 336.595, 338.65999999999997, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 483.21000000000004, 485.275, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 169.32999999999998, 167.265, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 105.315, 103.25, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>3.166644249091082e-09</v>
+        <v>2.128891870417791e-09</v>
       </c>
       <c r="I88" t="n">
-        <v>3.680775642211499e-09</v>
+        <v>2.028264775233499e-09</v>
       </c>
       <c r="J88" t="n">
-        <v>0.8603198230219992</v>
+        <v>0.9527326415293494</v>
       </c>
       <c r="K88" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L88" t="n">
-        <v>2.464098015637842e-18</v>
+        <v>1.226012047688543e-18</v>
       </c>
       <c r="M88" t="n">
-        <v>9.444432502695534e-27</v>
+        <v>5.805848325202966e-27</v>
       </c>
       <c r="N88" t="n">
-        <v>8.634144063152227e-28</v>
+        <v>1.595919111323693e-28</v>
       </c>
       <c r="O88" t="n">
-        <v>0.004977468596672363</v>
+        <v>0.002729351133871738</v>
       </c>
     </row>
     <row r="89">
@@ -5131,47 +5131,47 @@
         <v>0.004236050248320187</v>
       </c>
       <c r="C89" t="n">
-        <v>413.9970404040404</v>
+        <v>-181.2370564516129</v>
       </c>
       <c r="D89" t="n">
-        <v>273.25998989899</v>
+        <v>157.123185483871</v>
       </c>
       <c r="E89" t="n">
-        <v>495</v>
+        <v>248</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 338.65999999999997, 340.72499999999997, 338.65999999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -256.06, -253.995, -256.06]</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 268.45000000000005, 270.515, 272.58000000000004, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 6.195, 4.13, 2.065]</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I89" t="n">
-        <v>3.697832542211498e-09</v>
+        <v>2.045321675233499e-09</v>
       </c>
       <c r="J89" t="n">
-        <v>0.8517387721423056</v>
+        <v>0.968504501480467</v>
       </c>
       <c r="K89" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L89" t="n">
-        <v>2.465261766988261e-18</v>
+        <v>1.226884861201369e-18</v>
       </c>
       <c r="M89" t="n">
-        <v>9.40438271677227e-27</v>
+        <v>5.788996676543976e-27</v>
       </c>
       <c r="N89" t="n">
-        <v>1.155274009026422e-31</v>
+        <v>3.580621602467565e-27</v>
       </c>
       <c r="O89" t="n">
-        <v>-5.769845325387379e-05</v>
+        <v>0.01294685787568928</v>
       </c>
     </row>
     <row r="90">
@@ -5184,47 +5184,47 @@
         <v>0.004284740481059499</v>
       </c>
       <c r="C90" t="n">
-        <v>414.2775354969573</v>
+        <v>-180.6791056910569</v>
       </c>
       <c r="D90" t="n">
-        <v>273.2543711967546</v>
+        <v>158.4006097560976</v>
       </c>
       <c r="E90" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 472.885, 470.82, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 318.01, 315.945, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -37.17, -35.105, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -39.235, -41.3, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -121.835, -123.89999999999999, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -260.19, -262.255, -264.32, -268.45, -270.515, -272.58, -276.71, -278.775, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 454.29999999999995, 452.235, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 361.375, 359.30999999999995, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 324.20500000000004, 322.14, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 227.14999999999998, 225.08499999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 76.40499999999997, 74.33999999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 47.495, 49.56, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 198.24, 200.305, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I90" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J90" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9635094205891236</v>
       </c>
       <c r="K90" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L90" t="n">
-        <v>2.466716456176211e-18</v>
+        <v>1.224557358500507e-18</v>
       </c>
       <c r="M90" t="n">
-        <v>9.337004704070668e-27</v>
+        <v>5.781254220281294e-27</v>
       </c>
       <c r="N90" t="n">
-        <v>1.021425999245504e-29</v>
+        <v>3.204320092718876e-27</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0005444857049594631</v>
+        <v>0.01225585826612896</v>
       </c>
     </row>
     <row r="91">
@@ -5237,47 +5237,47 @@
         <v>0.004333430713798812</v>
       </c>
       <c r="C91" t="n">
-        <v>414.2356490872211</v>
+        <v>-180.7294715447155</v>
       </c>
       <c r="D91" t="n">
-        <v>273.3130121703854</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="E91" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 324.20500000000004, 326.27, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I91" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J91" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9635094205891238</v>
       </c>
       <c r="K91" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L91" t="n">
-        <v>2.463516139962584e-18</v>
+        <v>1.222520793637224e-18</v>
       </c>
       <c r="M91" t="n">
-        <v>9.378135406784023e-27</v>
+        <v>5.75755719834467e-27</v>
       </c>
       <c r="N91" t="n">
-        <v>4.097560931435889e-30</v>
+        <v>5.683205153373387e-30</v>
       </c>
       <c r="O91" t="n">
-        <v>0.000344105233265779</v>
+        <v>-0.0005172069512202615</v>
       </c>
     </row>
     <row r="92">
@@ -5290,47 +5290,47 @@
         <v>0.004382120946538125</v>
       </c>
       <c r="C92" t="n">
-        <v>414.2440263691684</v>
+        <v>-180.6958943089431</v>
       </c>
       <c r="D92" t="n">
-        <v>273.2878803245437</v>
+        <v>158.350243902439</v>
       </c>
       <c r="E92" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I92" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J92" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9635094205891238</v>
       </c>
       <c r="K92" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L92" t="n">
-        <v>2.464388953475472e-18</v>
+        <v>1.223102669312458e-18</v>
       </c>
       <c r="M92" t="n">
-        <v>9.375987864171016e-27</v>
+        <v>5.75755719834467e-27</v>
       </c>
       <c r="N92" t="n">
-        <v>4.096622611991019e-30</v>
+        <v>5.683205153353867e-30</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.0003441052332653349</v>
+        <v>0.0005172069512193733</v>
       </c>
     </row>
     <row r="93">
@@ -5343,41 +5343,41 @@
         <v>0.004430811179277437</v>
       </c>
       <c r="C93" t="n">
-        <v>414.2188945233266</v>
+        <v>-180.7126829268292</v>
       </c>
       <c r="D93" t="n">
-        <v>273.2795030425964</v>
+        <v>158.3670325203252</v>
       </c>
       <c r="E93" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 460.495, 458.43, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -134.225, -136.29, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I93" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J93" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9635094205891238</v>
       </c>
       <c r="K93" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L93" t="n">
-        <v>2.464098015637744e-18</v>
+        <v>1.223393607150063e-18</v>
       </c>
       <c r="M93" t="n">
-        <v>9.373996223018119e-27</v>
+        <v>5.760049023348752e-27</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -5396,47 +5396,47 @@
         <v>0.004479501412016749</v>
       </c>
       <c r="C94" t="n">
-        <v>414.2272718052738</v>
+        <v>-180.7294715447154</v>
       </c>
       <c r="D94" t="n">
-        <v>273.2878803245437</v>
+        <v>158.350243902439</v>
       </c>
       <c r="E94" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -313.88, -311.815, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 332.46500000000003, 330.4, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 210.63, 212.695, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 64.015, 61.949999999999996, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I94" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J94" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9635094205891238</v>
       </c>
       <c r="K94" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L94" t="n">
-        <v>2.464388953475373e-18</v>
+        <v>1.223102669312471e-18</v>
       </c>
       <c r="M94" t="n">
-        <v>9.373996223018119e-27</v>
+        <v>5.760049023348752e-27</v>
       </c>
       <c r="N94" t="n">
-        <v>1.02393810252736e-30</v>
+        <v>2.526962133053999e-30</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0001720526166324454</v>
+        <v>-0.0003448046341458788</v>
       </c>
     </row>
     <row r="95">
@@ -5449,47 +5449,47 @@
         <v>0.004528191644756062</v>
       </c>
       <c r="C95" t="n">
-        <v>414.202139959432</v>
+        <v>-180.7462601626016</v>
       </c>
       <c r="D95" t="n">
-        <v>273.2962576064909</v>
+        <v>158.3334552845529</v>
       </c>
       <c r="E95" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 439.84499999999997, 437.78, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -154.875, -156.94, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I95" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J95" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9635094205891236</v>
       </c>
       <c r="K95" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L95" t="n">
-        <v>2.464098015637842e-18</v>
+        <v>1.223393607150075e-18</v>
       </c>
       <c r="M95" t="n">
-        <v>9.371879860697134e-27</v>
+        <v>5.76241482800591e-27</v>
       </c>
       <c r="N95" t="n">
-        <v>2.559267321301322e-31</v>
+        <v>2.52800002331476e-30</v>
       </c>
       <c r="O95" t="n">
-        <v>8.602630831511249e-05</v>
+        <v>-0.0003448046341458788</v>
       </c>
     </row>
     <row r="96">
@@ -5502,47 +5502,47 @@
         <v>0.004576881877495375</v>
       </c>
       <c r="C96" t="n">
-        <v>414.168630831643</v>
+        <v>-180.7966260162602</v>
       </c>
       <c r="D96" t="n">
-        <v>273.2962576064909</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="E96" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.094778070417791e-09</v>
       </c>
       <c r="I96" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.051829788727095e-09</v>
       </c>
       <c r="J96" t="n">
-        <v>0.855005976684049</v>
+        <v>0.9794974549823645</v>
       </c>
       <c r="K96" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L96" t="n">
-        <v>2.462934264287325e-18</v>
+        <v>1.222520793637237e-18</v>
       </c>
       <c r="M96" t="n">
-        <v>9.371879860697134e-27</v>
+        <v>5.76241482800591e-27</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>6.32000005834388e-31</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>-0.0001724023170737166</v>
       </c>
     </row>
     <row r="97">
@@ -5555,47 +5555,47 @@
         <v>0.004625572110234687</v>
       </c>
       <c r="C97" t="n">
-        <v>414.1853853955375</v>
+        <v>-180.7630487804878</v>
       </c>
       <c r="D97" t="n">
-        <v>273.2962576064909</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="E97" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I97" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J97" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9635094205891236</v>
       </c>
       <c r="K97" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L97" t="n">
-        <v>2.464098015637842e-18</v>
+        <v>1.223102669312458e-18</v>
       </c>
       <c r="M97" t="n">
-        <v>9.369912903942086e-27</v>
+        <v>5.76241482800591e-27</v>
       </c>
       <c r="N97" t="n">
-        <v>1.023492074404698e-30</v>
+        <v>6.320000058295042e-31</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0001720526166328895</v>
+        <v>-0.0001724023170730504</v>
       </c>
     </row>
     <row r="98">
@@ -5608,47 +5608,47 @@
         <v>0.004674262342973999</v>
       </c>
       <c r="C98" t="n">
-        <v>414.202139959432</v>
+        <v>-180.7462601626016</v>
       </c>
       <c r="D98" t="n">
-        <v>273.3130121703854</v>
+        <v>158.2998780487805</v>
       </c>
       <c r="E98" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I98" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J98" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9635094205891236</v>
       </c>
       <c r="K98" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L98" t="n">
-        <v>2.463516139962682e-18</v>
+        <v>1.222811731474854e-18</v>
       </c>
       <c r="M98" t="n">
-        <v>9.37458085349353e-27</v>
+        <v>5.759859343238951e-27</v>
       </c>
       <c r="N98" t="n">
-        <v>2.560004906923435e-31</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>8.602630831733293e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -5661,47 +5661,47 @@
         <v>0.004722952575713312</v>
       </c>
       <c r="C99" t="n">
-        <v>414.1937626774848</v>
+        <v>-180.7630487804878</v>
       </c>
       <c r="D99" t="n">
-        <v>273.3046348884382</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="E99" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I99" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J99" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9635094205891236</v>
       </c>
       <c r="K99" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L99" t="n">
-        <v>2.463807077800114e-18</v>
+        <v>1.223102669312458e-18</v>
       </c>
       <c r="M99" t="n">
-        <v>9.371879860697134e-27</v>
+        <v>5.76241482800591e-27</v>
       </c>
       <c r="N99" t="n">
-        <v>1.023706928552237e-30</v>
+        <v>6.320000058295042e-31</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.0001720526166328895</v>
+        <v>0.0001724023170730504</v>
       </c>
     </row>
     <row r="100">
@@ -5714,47 +5714,47 @@
         <v>0.004771642808452625</v>
       </c>
       <c r="C100" t="n">
-        <v>414.168630831643</v>
+        <v>-180.7966260162602</v>
       </c>
       <c r="D100" t="n">
-        <v>273.2962576064909</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="E100" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.094778070417791e-09</v>
       </c>
       <c r="I100" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.051829788727095e-09</v>
       </c>
       <c r="J100" t="n">
-        <v>0.855005976684049</v>
+        <v>0.9794974549823645</v>
       </c>
       <c r="K100" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L100" t="n">
-        <v>2.462934264287325e-18</v>
+        <v>1.222520793637237e-18</v>
       </c>
       <c r="M100" t="n">
-        <v>9.371879860697134e-27</v>
+        <v>5.76241482800591e-27</v>
       </c>
       <c r="N100" t="n">
-        <v>2.728057453666349e-53</v>
+        <v>6.320000058295042e-31</v>
       </c>
       <c r="O100" t="n">
-        <v>-8.881784197001252e-16</v>
+        <v>-0.0001724023170730504</v>
       </c>
     </row>
     <row r="101">
@@ -5767,47 +5767,47 @@
         <v>0.004820333041191937</v>
       </c>
       <c r="C101" t="n">
-        <v>414.1770081135902</v>
+        <v>-180.779837398374</v>
       </c>
       <c r="D101" t="n">
-        <v>273.3046348884381</v>
+        <v>158.2998780487805</v>
       </c>
       <c r="E101" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I101" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J101" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9635094205891236</v>
       </c>
       <c r="K101" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L101" t="n">
-        <v>2.463807077800213e-18</v>
+        <v>1.222811731474854e-18</v>
       </c>
       <c r="M101" t="n">
-        <v>9.369912903942086e-27</v>
+        <v>5.76241482800591e-27</v>
       </c>
       <c r="N101" t="n">
-        <v>2.558730186011744e-31</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>8.602630831644476e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -5820,47 +5820,47 @@
         <v>0.004869023273931249</v>
       </c>
       <c r="C102" t="n">
-        <v>414.1770081135903</v>
+        <v>-180.7966260162602</v>
       </c>
       <c r="D102" t="n">
-        <v>273.3046348884381</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="E102" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.094778070417791e-09</v>
       </c>
       <c r="I102" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.051829788727095e-09</v>
       </c>
       <c r="J102" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9794974549823645</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L102" t="n">
-        <v>2.463225202124954e-18</v>
+        <v>1.222520793637237e-18</v>
       </c>
       <c r="M102" t="n">
-        <v>9.371879860697134e-27</v>
+        <v>5.76241482800591e-27</v>
       </c>
       <c r="N102" t="n">
-        <v>2.559267321380591e-31</v>
+        <v>6.320000058295042e-31</v>
       </c>
       <c r="O102" t="n">
-        <v>-8.602630831644476e-05</v>
+        <v>0.0001724023170730504</v>
       </c>
     </row>
     <row r="103">
@@ -5873,47 +5873,47 @@
         <v>0.004917713506670562</v>
       </c>
       <c r="C103" t="n">
-        <v>414.1853853955375</v>
+        <v>-180.7630487804878</v>
       </c>
       <c r="D103" t="n">
-        <v>273.2962576064909</v>
+        <v>158.3166666666667</v>
       </c>
       <c r="E103" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.094778070417791e-09</v>
       </c>
       <c r="I103" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.051829788727095e-09</v>
       </c>
       <c r="J103" t="n">
-        <v>0.855005976684049</v>
+        <v>0.9794974549823645</v>
       </c>
       <c r="K103" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L103" t="n">
-        <v>2.462934264287424e-18</v>
+        <v>1.222520793637249e-18</v>
       </c>
       <c r="M103" t="n">
-        <v>9.37458085349353e-27</v>
+        <v>5.759859343238951e-27</v>
       </c>
       <c r="N103" t="n">
-        <v>2.560004906870573e-31</v>
+        <v>2.526878919453659e-30</v>
       </c>
       <c r="O103" t="n">
-        <v>8.602630831644476e-05</v>
+        <v>-0.0003448046341463229</v>
       </c>
     </row>
     <row r="104">
@@ -5926,47 +5926,47 @@
         <v>0.004966403739409875</v>
       </c>
       <c r="C104" t="n">
-        <v>414.1853853955375</v>
+        <v>-180.7630487804878</v>
       </c>
       <c r="D104" t="n">
-        <v>273.3130121703854</v>
+        <v>158.2830894308943</v>
       </c>
       <c r="E104" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.094778070417791e-09</v>
       </c>
       <c r="I104" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.051829788727095e-09</v>
       </c>
       <c r="J104" t="n">
-        <v>0.855005976684049</v>
+        <v>0.9794974549823645</v>
       </c>
       <c r="K104" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L104" t="n">
-        <v>2.462352388612263e-18</v>
+        <v>1.221938917962015e-18</v>
       </c>
       <c r="M104" t="n">
-        <v>9.376572494646427e-27</v>
+        <v>5.75736751823487e-27</v>
       </c>
       <c r="N104" t="n">
-        <v>2.560548783092826e-31</v>
+        <v>6.314464358592865e-31</v>
       </c>
       <c r="O104" t="n">
-        <v>8.602630831733293e-05</v>
+        <v>-0.0001724023170730504</v>
       </c>
     </row>
     <row r="105">
@@ -5979,47 +5979,47 @@
         <v>0.005015093972149187</v>
       </c>
       <c r="C105" t="n">
-        <v>414.1937626774848</v>
+        <v>-180.7462601626016</v>
       </c>
       <c r="D105" t="n">
-        <v>273.3046348884382</v>
+        <v>158.2998780487805</v>
       </c>
       <c r="E105" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -330.4, -332.465, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 415.06499999999994, 413.0, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 78.47000000000003, 80.53500000000003, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 196.17499999999998, 194.10999999999999, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I105" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J105" t="n">
-        <v>0.855005976684049</v>
+        <v>0.9635094205891236</v>
       </c>
       <c r="K105" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L105" t="n">
-        <v>2.463225202124954e-18</v>
+        <v>1.222811731474854e-18</v>
       </c>
       <c r="M105" t="n">
-        <v>9.37458085349353e-27</v>
+        <v>5.759859343238951e-27</v>
       </c>
       <c r="N105" t="n">
-        <v>2.560004906923435e-31</v>
+        <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>8.602630831733293e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -6032,47 +6032,47 @@
         <v>0.005063784204888499</v>
       </c>
       <c r="C106" t="n">
-        <v>414.2105172413793</v>
+        <v>-180.7294715447155</v>
       </c>
       <c r="D106" t="n">
-        <v>273.3213894523327</v>
+        <v>158.2830894308943</v>
       </c>
       <c r="E106" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I106" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J106" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9635094205891236</v>
       </c>
       <c r="K106" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L106" t="n">
-        <v>2.463225202124856e-18</v>
+        <v>1.222520793637237e-18</v>
       </c>
       <c r="M106" t="n">
-        <v>9.376572494646427e-27</v>
+        <v>5.75736751823487e-27</v>
       </c>
       <c r="N106" t="n">
-        <v>1.024219513215981e-30</v>
+        <v>6.31446435860913e-31</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0001720526166328895</v>
+        <v>-0.0001724023170732725</v>
       </c>
     </row>
     <row r="107">
@@ -6085,47 +6085,47 @@
         <v>0.005112474437627812</v>
       </c>
       <c r="C107" t="n">
-        <v>414.1937626774848</v>
+        <v>-180.7630487804878</v>
       </c>
       <c r="D107" t="n">
-        <v>273.3213894523327</v>
+        <v>158.2830894308943</v>
       </c>
       <c r="E107" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -289.09999999999997, -291.165, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 28.910000000000025, 30.975000000000023, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 245.73499999999999, 243.67, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I107" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J107" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9635094205891236</v>
       </c>
       <c r="K107" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L107" t="n">
-        <v>2.463225202125053e-18</v>
+        <v>1.222520793637224e-18</v>
       </c>
       <c r="M107" t="n">
-        <v>9.373871501850031e-27</v>
+        <v>5.759923003001829e-27</v>
       </c>
       <c r="N107" t="n">
-        <v>2.559811197470685e-31</v>
+        <v>6.317267118310713e-31</v>
       </c>
       <c r="O107" t="n">
-        <v>8.602630831511249e-05</v>
+        <v>-0.0001724023170737166</v>
       </c>
     </row>
     <row r="108">
@@ -6138,47 +6138,47 @@
         <v>0.005161164670367124</v>
       </c>
       <c r="C108" t="n">
-        <v>414.202139959432</v>
+        <v>-180.7462601626016</v>
       </c>
       <c r="D108" t="n">
-        <v>273.3297667342799</v>
+        <v>158.2663008130081</v>
       </c>
       <c r="E108" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 187.91500000000002, 185.85000000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 111.50999999999999, 109.445, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 86.73, 88.795, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 163.135, 165.2, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 256.06, 253.995, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.094778070417791e-09</v>
       </c>
       <c r="I108" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.051829788727095e-09</v>
       </c>
       <c r="J108" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9794974549823645</v>
       </c>
       <c r="K108" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L108" t="n">
-        <v>2.462352388612165e-18</v>
+        <v>1.221647980124398e-18</v>
       </c>
       <c r="M108" t="n">
-        <v>9.346201591038288e-27</v>
+        <v>5.753663559378439e-27</v>
       </c>
       <c r="N108" t="n">
-        <v>2.552255114851573e-31</v>
+        <v>6.310401995745644e-31</v>
       </c>
       <c r="O108" t="n">
-        <v>8.602630831511249e-05</v>
+        <v>-0.0001724023170737166</v>
       </c>
     </row>
     <row r="109">
@@ -6191,47 +6191,47 @@
         <v>0.005209854903106437</v>
       </c>
       <c r="C109" t="n">
-        <v>414.2188945233266</v>
+        <v>-180.7126829268293</v>
       </c>
       <c r="D109" t="n">
-        <v>273.3297667342799</v>
+        <v>158.2663008130081</v>
       </c>
       <c r="E109" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 386.155, 384.09, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -208.565, -210.63, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 431.58500000000004, 429.52, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I109" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J109" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9635094205891236</v>
       </c>
       <c r="K109" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L109" t="n">
-        <v>2.462934264287325e-18</v>
+        <v>1.222229855799632e-18</v>
       </c>
       <c r="M109" t="n">
-        <v>9.376572494646427e-27</v>
+        <v>5.769812352288101e-27</v>
       </c>
       <c r="N109" t="n">
-        <v>6.141202719644193e-53</v>
+        <v>6.32811338501169e-31</v>
       </c>
       <c r="O109" t="n">
-        <v>1.332267629550188e-15</v>
+        <v>0.0001724023170737166</v>
       </c>
     </row>
     <row r="110">
@@ -6244,47 +6244,47 @@
         <v>0.005258545135845749</v>
       </c>
       <c r="C110" t="n">
-        <v>414.2188945233266</v>
+        <v>-180.7294715447155</v>
       </c>
       <c r="D110" t="n">
-        <v>273.32976673428</v>
+        <v>158.2830894308943</v>
       </c>
       <c r="E110" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 369.635, 371.70000000000005, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I110" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J110" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9635094205891236</v>
       </c>
       <c r="K110" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L110" t="n">
-        <v>2.463516139962682e-18</v>
+        <v>1.222520793637237e-18</v>
       </c>
       <c r="M110" t="n">
-        <v>9.376572494646427e-27</v>
+        <v>5.75736751823487e-27</v>
       </c>
       <c r="N110" t="n">
-        <v>2.560548782960643e-31</v>
+        <v>6.314464358641661e-31</v>
       </c>
       <c r="O110" t="n">
-        <v>-8.602630831511249e-05</v>
+        <v>0.0001724023170737166</v>
       </c>
     </row>
     <row r="111">
@@ -6297,47 +6297,47 @@
         <v>0.005307235368585062</v>
       </c>
       <c r="C111" t="n">
-        <v>414.2105172413793</v>
+        <v>-180.7294715447155</v>
       </c>
       <c r="D111" t="n">
-        <v>273.3213894523327</v>
+        <v>158.2830894308943</v>
       </c>
       <c r="E111" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -268.45, -270.515, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -318.01, -320.075, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.59499999999997, -336.59499999999997, -338.65999999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -340.72499999999997, -338.65999999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -336.59499999999997, -334.53, -332.465, -332.465, -330.4, -328.335, -328.335, -326.27, -324.205, -324.205, -322.14, -320.075, -320.075, -318.01, -315.945, -315.945, -313.88, -311.815, -309.75, -307.685, -305.62, -303.555, -301.49, -299.425, -297.36, -295.295, -293.23, -291.165, -289.09999999999997, -287.03499999999997, -284.96999999999997, -282.905, -280.84, -278.775, -276.71, -274.645, -272.58, -268.45, -266.385, -264.32, -262.255, -260.19, -258.125, -258.125]</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[543.095, 541.03, 541.03, 541.03, 541.03, 538.965, 536.9, 536.9, 536.9, 534.835, 532.77, 532.77, 530.705, 528.64, 528.64, 526.575, 524.51, 522.4449999999999, 520.38, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 512.12, 510.05499999999995, 507.99, 505.92499999999995, 503.86, 501.79499999999996, 499.73, 497.66499999999996, 495.6, 493.53499999999997, 491.47, 489.405, 487.34000000000003, 485.275, 483.21000000000004, 481.145, 479.08000000000004, 477.015, 472.885, 470.81999999999994, 468.755, 466.68999999999994, 464.625, 460.495, 458.42999999999995, 456.365, 452.235, 450.16999999999996, 448.105, 443.975, 441.90999999999997, 439.845, 435.71500000000003, 433.65, 431.58500000000004, 427.45500000000004, 423.32500000000005, 419.19499999999994, 417.13, 415.06499999999994, 410.93499999999995, 406.80499999999995, 402.67499999999995, 398.54499999999996, 394.41499999999996, 390.28499999999997, 388.22, 386.155, 382.025, 377.895, 373.765, 369.635, 365.505, 363.43999999999994, 361.375, 357.245, 353.115, 351.04999999999995, 348.985, 344.855, 342.78999999999996, 340.725, 336.595, 334.53, 332.46500000000003, 328.33500000000004, 326.27, 324.20500000000004, 320.07500000000005, 318.01, 315.94500000000005, 311.81499999999994, 309.75, 307.68499999999995, 305.62, 303.55499999999995, 301.49, 299.42499999999995, 297.36, 295.29499999999996, 293.23, 291.16499999999996, 289.1, 287.03499999999997, 284.97, 282.905, 280.84000000000003, 278.775, 276.71000000000004, 274.645, 272.58000000000004, 270.515, 268.45000000000005, 266.385, 264.32000000000005, 262.255, 260.18999999999994, 258.125, 256.05999999999995, 253.995, 251.92999999999995, 249.865, 247.79999999999995, 245.735, 243.67000000000002, 241.60500000000002, 239.54000000000002, 237.47500000000002, 235.40999999999997, 233.34499999999997, 231.27999999999997, 229.21499999999997, 225.08499999999998, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 212.695, 210.63, 208.565, 204.435, 202.37, 200.305, 196.175, 192.04500000000002, 189.98000000000002, 187.91500000000002, 183.78500000000003, 179.65499999999997, 175.52499999999998, 171.39499999999998, 167.265, 163.135, 159.005, 154.875, 150.745, 146.615, 142.485, 138.35500000000002, 134.22500000000002, 130.09500000000003, 125.96499999999997, 123.89999999999998, 121.83499999999998, 117.70499999999998, 113.57499999999999, 109.445, 107.38, 105.315, 101.185, 99.12, 97.055, 92.92500000000001, 90.86000000000001, 88.79500000000002, 84.66500000000002, 82.60000000000002, 80.53500000000003, 78.47000000000003, 76.40499999999997, 72.27499999999998, 70.20999999999998, 68.14499999999998, 66.07999999999998, 64.01499999999999, 61.94999999999999, 59.88499999999999, 57.81999999999999, 55.754999999999995, 53.69, 51.625, 49.56, 47.495000000000005, 45.43000000000001, 43.36500000000001, 41.30000000000001, 39.235000000000014, 37.170000000000016, 35.10500000000002, 33.04000000000002, 33.04000000000002, 30.975000000000023, 28.910000000000025, 26.845000000000027, 24.78000000000003, 24.78000000000003, 22.714999999999975, 20.649999999999977, 18.58499999999998, 16.519999999999982, 16.519999999999982, 14.454999999999984, 12.389999999999986, 12.389999999999986, 12.389999999999986, 10.324999999999989, 8.259999999999991, 8.259999999999991, 8.259999999999991, 6.194999999999993, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 2.0649999999999977, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 2.0649999999999977, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 4.1299999999999955, 6.194999999999993, 8.259999999999991, 8.259999999999991, 8.259999999999991, 8.259999999999991, 10.324999999999989, 12.389999999999986, 12.389999999999986, 14.454999999999984, 16.519999999999982, 16.519999999999982, 16.519999999999982, 18.58499999999998, 20.649999999999977, 22.714999999999975, 24.78000000000003, 24.78000000000003, 26.845000000000027, 28.910000000000025, 30.975000000000023, 33.04000000000002, 33.04000000000002, 35.10500000000002, 37.170000000000016, 39.235000000000014, 41.30000000000001, 43.36500000000001, 45.43000000000001, 47.495000000000005, 49.56, 51.625, 53.69, 55.754999999999995, 57.81999999999999, 59.88499999999999, 64.01499999999999, 66.07999999999998, 68.14499999999998, 72.27499999999998, 74.33999999999997, 76.40499999999997, 80.53500000000003, 82.60000000000002, 84.66500000000002, 88.79500000000002, 90.86000000000001, 92.92500000000001, 97.055, 101.185, 103.25, 105.315, 109.445, 113.57499999999999, 117.70499999999998, 121.83499999999998, 125.96499999999997, 130.09500000000003, 134.22500000000002, 138.35500000000002, 142.485, 146.615, 150.745, 154.875, 156.94, 159.005, 163.135, 167.265, 171.39499999999998, 173.45999999999998, 175.52499999999998, 179.65499999999997, 181.71999999999997, 183.78500000000003, 187.91500000000002, 189.98000000000002, 192.04500000000002, 196.175, 198.24, 200.305, 204.435, 206.5, 208.565, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.08499999999998, 227.14999999999998, 229.21499999999997, 231.27999999999997, 233.34499999999997, 235.40999999999997, 237.47500000000002, 239.54000000000002, 241.60500000000002, 243.67000000000002, 245.735, 247.79999999999995, 249.865, 251.92999999999995, 253.995, 256.05999999999995, 256.05999999999995, 258.125, 260.18999999999994, 262.255, 264.32000000000005, 266.385, 270.515, 274.645, 276.71000000000004, 278.775, 280.84000000000003, 280.84000000000003, 282.905, 284.97, 287.03499999999997, 289.1, 291.16499999999996, 293.23, 295.29499999999996, 297.36, 299.42499999999995, 301.49, 303.55499999999995, 305.62, 307.68499999999995, 309.75, 311.81499999999994, 313.88, 315.94500000000005, 318.01, 320.07500000000005, 322.14, 324.20500000000004, 328.33500000000004, 330.4, 332.46500000000003, 334.53, 336.595, 340.725, 342.78999999999996, 344.855, 348.985, 351.04999999999995, 353.115, 357.245, 359.30999999999995, 361.375, 365.505, 367.56999999999994, 369.635, 373.765, 377.895, 382.025, 384.09000000000003, 386.155, 390.28499999999997, 394.41499999999996, 398.54499999999996, 402.67499999999995, 406.80499999999995, 410.93499999999995, 415.06499999999994, 419.19499999999994, 423.32500000000005, 427.45500000000004, 431.58500000000004, 435.71500000000003, 437.78, 439.845, 443.975, 448.105, 452.235, 454.29999999999995, 456.365, 460.495, 462.55999999999995, 464.625, 468.755, 470.81999999999994, 472.885, 477.015, 479.08000000000004, 481.145, 485.275, 487.34000000000003, 489.405, 491.47, 493.53499999999997, 495.6, 497.66499999999996, 499.73, 501.79499999999996, 503.86, 505.92499999999995, 507.99, 510.05499999999995, 512.12, 514.185, 516.25, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 524.51, 526.575, 528.64, 528.64, 530.705, 532.77, 532.77, 534.835, 536.9, 536.9, 536.9, 538.965, 541.03, 541.03, 541.03, 541.03, 541.03, 543.095, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 545.16, 543.095]</t>
+          <t>[2.065, 4.13, 6.195, 8.26, 10.325, 12.39, 14.455, 16.52, 18.585, 20.65, 22.715, 24.78, 26.845, 28.91, 30.974999999999998, 33.04, 35.105, 37.17, 39.235, 41.3, 43.365, 45.43, 49.56, 51.625, 53.69, 55.754999999999995, 57.82, 61.949999999999996, 64.015, 66.08, 70.21, 72.27499999999999, 74.34, 78.47, 82.6, 84.66499999999999, 86.73, 90.86, 94.99, 99.12, 103.25, 107.38, 111.50999999999999, 115.64, 119.77, 123.89999999999999, 128.03, 132.16, 136.29, 140.42, 144.54999999999998, 148.68, 150.745, 152.81, 156.94, 161.07, 165.2, 167.265, 169.32999999999998, 173.46, 175.525, 177.59, 181.72, 183.785, 185.85, 189.98, 192.045, 194.10999999999999, 196.17499999999998, 198.24, 202.37, 204.435, 206.5, 208.565, 210.63, 212.695, 214.76, 216.825, 218.89, 220.95499999999998, 223.01999999999998, 225.085, 227.15, 229.215, 231.28, 233.345, 235.41, 237.475, 239.54, 241.605, 241.605, 243.67, 245.73499999999999, 247.79999999999998, 249.86499999999998, 249.86499999999998, 251.93, 253.995, 256.06, 258.125, 258.125, 260.19, 262.255, 262.255, 262.255, 264.32, 266.385, 266.385, 266.385, 268.45, 270.515, 270.515, 270.515, 270.515, 270.515, 272.58, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 274.645, 272.58, 270.515, 270.515, 270.515, 270.515, 270.515, 268.45, 266.385, 266.385, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 251.93, 249.86499999999998, 249.86499999999998, 247.79999999999998, 245.73499999999999, 243.67, 241.605, 241.605, 239.54, 237.475, 235.41, 233.345, 231.28, 229.215, 227.15, 225.085, 223.01999999999998, 220.95499999999998, 218.89, 216.825, 214.76, 210.63, 208.565, 206.5, 202.37, 200.305, 198.24, 194.10999999999999, 192.045, 189.98, 185.85, 183.785, 181.72, 177.59, 173.46, 171.39499999999998, 169.32999999999998, 165.2, 161.07, 156.94, 152.81, 148.68, 144.54999999999998, 140.42, 136.29, 132.16, 128.03, 123.89999999999999, 119.77, 117.705, 115.64, 111.50999999999999, 107.38, 103.25, 101.185, 99.12, 94.99, 92.925, 90.86, 86.73, 84.66499999999999, 82.6, 78.47, 76.405, 74.34, 70.21, 68.145, 66.08, 61.949999999999996, 59.885, 57.82, 55.754999999999995, 53.69, 51.625, 49.56, 47.495, 45.43, 43.365, 41.3, 39.235, 37.17, 35.105, 33.04, 30.974999999999998, 28.91, 26.845, 24.78, 22.715, 20.65, 18.585, 18.585, 16.52, 14.455, 12.39, 10.325, 8.26, 4.13]</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>3.149587349091082e-09</v>
+        <v>2.111834970417791e-09</v>
       </c>
       <c r="I111" t="n">
-        <v>3.683702143587415e-09</v>
+        <v>2.034772888727095e-09</v>
       </c>
       <c r="J111" t="n">
-        <v>0.8550059766840489</v>
+        <v>0.9635094205891236</v>
       </c>
       <c r="K111" t="n">
-        <v>0.5730337704594</v>
+        <v>1.077902947527021</v>
       </c>
       <c r="L111" t="n">
-        <v>2.463807077800312e-18</v>
+        <v>1.222520793637237e-18</v>
       </c>
       <c r="M111" t="n">
-        <v>9.37460553789138e-27</v>
+        <v>5.75736751823487e-27</v>
       </c>
       <c r="N111" t="n">
-        <v>2.560011647644675e-31</v>
+        <v>2.525785743437146e-30</v>
       </c>
       <c r="O111" t="n">
-        <v>8.602630831600067e-05</v>
+        <v>-0.0003448046341461009</v>
       </c>
     </row>
     <row r="112">
@@ -6350,47 +6350,47 @@
         <v>0.005355925601324374</v>
       </c>
       <c r="C112" t="n">
-        <v>414.2105172413793</v>
+        <v>-180.7294715447154</v>
       </c>
       <c r="D112" t="n">
-        <v>273.3381440162272</v>
+        <v>158.249512195122</v>
       </c>
       <c r="E112" t="n">
-        <v>493</v>
+        <v>246</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[443.97499999999997, 446.03999999999996, 450.17, 454.3, 458.43, 460.495, 462.56, 466.69, 470.82, 472.885, 474.95, 479.08, 481.145, 483.21, 487.34, 489.405, 491.46999999999997, 493.53499999999997, 495.59999999999997, 499.72999999999996, 501.79499999999996, 503.86, 505.925, 507.99, 512.12, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 578.1999999999999, 580.265, 580.265, 580.265, 580.265, 580.265, 580.265, 578.1999999999999, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 555.485, 553.42, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 516.25, 518.3149999999999, 520.38, 522.4449999999999, 524.51, 526.5749999999999, 528.64, 530.705, 532.77, 534.835, 536.9, 538.965, 541.03, 543.095, 545.16, 547.225, 549.29, 551.355, 553.42, 555.485, 555.485, 557.55, 559.615, 561.68, 563.745, 563.745, 565.81, 567.875, 567.875, 569.9399999999999, 572.005, 572.005, 572.005, 572.005, 574.0699999999999, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 576.135, 574.0699999999999, 572.005, 572.005, 572.005, 569.9399999999999, 567.875, 567.875, 567.875, 565.81, 563.745, 563.745, 561.68, 559.615, 559.615, 557.55, 555.485, 553.42, 551.355, 551.355, 549.29, 547.225, 545.16, 543.095, 541.03, 538.965, 536.9, 534.835, 532.77, 530.705, 528.64, 526.5749999999999, 524.51, 522.4449999999999, 520.38, 518.3149999999999, 516.25, 514.185, 512.12, 507.99, 505.925, 503.86, 501.79499999999996, 499.72999999999996, 495.59999999999997, 493.53499999999997, 491.46999999999997, 489.405, 487.34, 483.21, 481.145, 479.08, 474.95, 470.82, 468.755, 466.69, 462.56, 458.43, 456.365, 454.3, 450.17, 446.03999999999996, 441.90999999999997, 437.78, 435.715, 433.65, 429.52, 425.39, 421.26, 417.13, 413.0, 408.87, 404.74, 400.61, 396.48, 392.34999999999997, 388.21999999999997, 384.09, 382.025, 379.96, 375.83, 371.7, 367.57, 363.44, 361.375, 359.31, 355.18, 351.05, 346.92, 344.855, 342.78999999999996, 338.65999999999997, 336.59499999999997, 334.53, 330.4, 328.335, 326.27, 322.14, 320.075, 318.01, 313.88, 311.815, 309.75, 307.685, 305.62, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 280.84, 278.775, 278.775, 276.71, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 307.685, 309.75, 311.815, 313.88, 315.945, 318.01, 320.075, 322.14, 326.27, 328.335, 330.4, 332.465, 334.53, 336.59499999999997, 336.59499999999997, 336.59499999999997, 334.53, 332.465, 330.4, 326.27, 324.205, 322.14, 320.075, 318.01, 315.945, 313.88, 311.815, 309.75, 307.685, 305.62, 303.555, 301.49, 299.425, 297.36, 295.295, 293.23, 291.165, 289.09999999999997, 287.03499999999997, 284.96999999999997, 282.905, 282.905, 280.84, 278.775, 276.71, 274.645, 274.645, 272.58, 270.515, 270.515, 268.45, 266.385, 266.385, 264.32, 262.255, 262.255, 262.255, 260.19, 258.125, 258.125, 258.125, 256.06, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 253.995, 256.06, 258.125, 258.125, 258.125, 258.125, 260.19, 262.255, 262.255, 264.32, 266.385, 266.385, 268.45, 270.515, 270.515, 272.58, 274.645, 274.645, 276.71, 278.775, 280.84, 282.905, 284.96999999999997, 287.03499999999997, 289.09999999999997, 291.165, 293.23, 295.295, 297.36, 299.425, 301.49, 303.555, 305.62, 309.75, 311.815, 313.88, 315.945, 318.01, 322.14, 324.205, 326.27, 330.4, 332.465, 334.53, 338.65999999999997, 340.72499999999997, 342.78999999999996, 346.92, 351.05, 353.115, 355.18, 359.31, 363.44, 367.57, 371.7, 373.765, 375.83, 379.96, 384.09, 388.21999999999997, 392.34999999999997, 396.48, 400.61, 404.74, 408.87, 413.0, 417.13, 421.26, 425.39, 429.52, 433.65, 437.78, 441.90999999999997, 443.97499999999997]</t>
+          <t>[-78.47, -80.535, -78.47, -76.405, -74.34, -72.27499999999999, -70.21, -68.145, -66.08, -64.015, -61.949999999999996, -59.885, -57.82, -55.754999999999995, -53.69, -51.625, -49.56, -47.495, -45.43, -43.365, -41.3, -39.235, -39.235, -37.17, -35.105, -33.04, -30.974999999999998, -30.974999999999998, -28.91, -26.845, -26.845, -24.78, -22.715, -22.715, -22.715, -22.715, -20.65, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -18.585, -20.65, -22.715, -22.715, -22.715, -24.78, -26.845, -26.845, -26.845, -28.91, -30.974999999999998, -30.974999999999998, -33.04, -35.105, -35.105, -37.17, -39.235, -41.3, -43.365, -43.365, -45.43, -47.495, -49.56, -51.625, -53.69, -55.754999999999995, -57.82, -59.885, -61.949999999999996, -64.015, -66.08, -68.145, -70.21, -72.27499999999999, -74.34, -76.405, -78.47, -80.535, -82.6, -86.73, -88.795, -90.86, -92.925, -94.99, -99.12, -101.185, -103.25, -105.315, -107.38, -111.50999999999999, -113.575, -115.64, -119.77, -123.89999999999999, -125.965, -128.03, -132.16, -136.29, -138.355, -140.42, -144.54999999999998, -148.68, -152.81, -156.94, -159.005, -161.07, -165.2, -169.32999999999998, -173.46, -177.59, -181.72, -185.85, -189.98, -194.10999999999999, -198.24, -202.37, -206.5, -210.63, -212.695, -214.76, -218.89, -223.01999999999998, -227.15, -231.28, -233.345, -235.41, -239.54, -243.67, -247.79999999999998, -249.86499999999998, -251.93, -256.06, -258.125, -260.19, -264.32, -266.385, -268.45, -272.58, -274.645, -276.71, -280.84, -282.905, -284.96999999999997, -287.03499999999997, -289.09999999999997, -293.23, -295.295, -297.36, -299.425, -301.49, -303.555, -305.62, -307.685, -309.75, -311.815, -313.88, -315.945, -315.945, -318.01, -320.075, -322.14, -324.205, -324.205, -326.27, -328.335, -328.335, -330.4, -332.465, -332.465, -334.53, -336.59499999999997, -336.5949999999999